--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="284">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,6 +586,9 @@
     <t>['26', '90']</t>
   </si>
   <si>
+    <t>['50', '85']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -857,6 +860,9 @@
   </si>
   <si>
     <t>['58']</t>
+  </si>
+  <si>
+    <t>['23', '90+4']</t>
   </si>
   <si>
     <t>['86', '90']</t>
@@ -1221,7 +1227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP154"/>
+  <dimension ref="A1:BP155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1480,7 +1486,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1686,7 +1692,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1892,7 +1898,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1970,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ4">
         <v>1.73</v>
@@ -2716,7 +2722,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -3128,7 +3134,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -3415,7 +3421,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ11">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3540,7 +3546,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3746,7 +3752,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3952,7 +3958,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4030,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4158,7 +4164,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4364,7 +4370,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4570,7 +4576,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4776,7 +4782,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4982,7 +4988,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -5188,7 +5194,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -5394,7 +5400,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5475,7 +5481,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ21">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR21">
         <v>1.63</v>
@@ -5806,7 +5812,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6090,7 +6096,7 @@
         <v>2</v>
       </c>
       <c r="AP24">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ24">
         <v>1.13</v>
@@ -6218,7 +6224,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6424,7 +6430,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6630,7 +6636,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6711,7 +6717,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ27">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR27">
         <v>1.47</v>
@@ -6836,7 +6842,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7248,7 +7254,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7454,7 +7460,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7532,7 +7538,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ31">
         <v>0.87</v>
@@ -7866,7 +7872,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -8072,7 +8078,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8278,7 +8284,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8484,7 +8490,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8690,7 +8696,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -9102,7 +9108,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9180,7 +9186,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ39">
         <v>1.25</v>
@@ -9308,7 +9314,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9595,7 +9601,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ41">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR41">
         <v>1.58</v>
@@ -9720,7 +9726,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9926,7 +9932,7 @@
         <v>84</v>
       </c>
       <c r="P43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10132,7 +10138,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10544,7 +10550,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10750,7 +10756,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11162,7 +11168,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -11446,10 +11452,10 @@
         <v>0.25</v>
       </c>
       <c r="AP50">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ50">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR50">
         <v>1.24</v>
@@ -11574,7 +11580,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11780,7 +11786,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -11986,7 +11992,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12192,7 +12198,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12398,7 +12404,7 @@
         <v>105</v>
       </c>
       <c r="P55" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12810,7 +12816,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13094,7 +13100,7 @@
         <v>0.8</v>
       </c>
       <c r="AP58">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ58">
         <v>0.67</v>
@@ -13222,7 +13228,7 @@
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13509,7 +13515,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ60">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR60">
         <v>1.75</v>
@@ -13634,7 +13640,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13840,7 +13846,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q62">
         <v>2.5</v>
@@ -14252,7 +14258,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q64">
         <v>2.4</v>
@@ -14333,7 +14339,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ64">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR64">
         <v>1.41</v>
@@ -14664,7 +14670,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14870,7 +14876,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15076,7 +15082,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15282,7 +15288,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15488,7 +15494,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15694,7 +15700,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15900,7 +15906,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -16106,7 +16112,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q73">
         <v>3.4</v>
@@ -16312,7 +16318,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16390,7 +16396,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ74">
         <v>1.4</v>
@@ -16518,7 +16524,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16724,7 +16730,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q76">
         <v>2.5</v>
@@ -16930,7 +16936,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17136,7 +17142,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17342,7 +17348,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17629,7 +17635,7 @@
         <v>1</v>
       </c>
       <c r="AQ80">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR80">
         <v>1.62</v>
@@ -17960,7 +17966,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18450,7 +18456,7 @@
         <v>0.86</v>
       </c>
       <c r="AP84">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ84">
         <v>1.38</v>
@@ -18578,7 +18584,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q85">
         <v>2.63</v>
@@ -18659,7 +18665,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ85">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR85">
         <v>1.36</v>
@@ -18990,7 +18996,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q87">
         <v>3.1</v>
@@ -19196,7 +19202,7 @@
         <v>105</v>
       </c>
       <c r="P88" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q88">
         <v>3.1</v>
@@ -19402,7 +19408,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q89">
         <v>3.2</v>
@@ -19608,7 +19614,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19814,7 +19820,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20020,7 +20026,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20226,7 +20232,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20432,7 +20438,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20513,7 +20519,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ94">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR94">
         <v>1.69</v>
@@ -20844,7 +20850,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q96">
         <v>3.75</v>
@@ -21668,7 +21674,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -21746,7 +21752,7 @@
         <v>1.33</v>
       </c>
       <c r="AP100">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ100">
         <v>0.87</v>
@@ -22080,7 +22086,7 @@
         <v>84</v>
       </c>
       <c r="P102" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q102">
         <v>2.97</v>
@@ -22286,7 +22292,7 @@
         <v>155</v>
       </c>
       <c r="P103" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q103">
         <v>2.36</v>
@@ -22492,7 +22498,7 @@
         <v>156</v>
       </c>
       <c r="P104" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q104">
         <v>2.99</v>
@@ -23191,7 +23197,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ107">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR107">
         <v>1.57</v>
@@ -23600,7 +23606,7 @@
         <v>1.9</v>
       </c>
       <c r="AP109">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ109">
         <v>1.73</v>
@@ -23728,7 +23734,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -23934,7 +23940,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q111">
         <v>2.32</v>
@@ -24346,7 +24352,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q113">
         <v>3.2</v>
@@ -24964,7 +24970,7 @@
         <v>163</v>
       </c>
       <c r="P116" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q116">
         <v>3.6</v>
@@ -25170,7 +25176,7 @@
         <v>164</v>
       </c>
       <c r="P117" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q117">
         <v>2.42</v>
@@ -25376,7 +25382,7 @@
         <v>165</v>
       </c>
       <c r="P118" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q118">
         <v>1.82</v>
@@ -25660,7 +25666,7 @@
         <v>1.27</v>
       </c>
       <c r="AP119">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ119">
         <v>1.25</v>
@@ -25788,7 +25794,7 @@
         <v>167</v>
       </c>
       <c r="P120" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q120">
         <v>2.9</v>
@@ -25994,7 +26000,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26075,7 +26081,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ121">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR121">
         <v>1.63</v>
@@ -26200,7 +26206,7 @@
         <v>84</v>
       </c>
       <c r="P122" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q122">
         <v>4.14</v>
@@ -26487,7 +26493,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ123">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR123">
         <v>1.49</v>
@@ -26690,7 +26696,7 @@
         <v>1.25</v>
       </c>
       <c r="AP124">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ124">
         <v>1</v>
@@ -26818,7 +26824,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q125">
         <v>2.88</v>
@@ -27024,7 +27030,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q126">
         <v>2.26</v>
@@ -27436,7 +27442,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q128">
         <v>2.05</v>
@@ -27848,7 +27854,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28054,7 +28060,7 @@
         <v>173</v>
       </c>
       <c r="P131" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q131">
         <v>3.4</v>
@@ -28466,7 +28472,7 @@
         <v>135</v>
       </c>
       <c r="P133" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28878,7 +28884,7 @@
         <v>175</v>
       </c>
       <c r="P135" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -28956,7 +28962,7 @@
         <v>1.15</v>
       </c>
       <c r="AP135">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ135">
         <v>1.13</v>
@@ -29084,7 +29090,7 @@
         <v>176</v>
       </c>
       <c r="P136" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q136">
         <v>1.95</v>
@@ -29290,7 +29296,7 @@
         <v>177</v>
       </c>
       <c r="P137" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29496,7 +29502,7 @@
         <v>178</v>
       </c>
       <c r="P138" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -30114,7 +30120,7 @@
         <v>84</v>
       </c>
       <c r="P141" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q141">
         <v>2.63</v>
@@ -30195,7 +30201,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ141">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR141">
         <v>1.57</v>
@@ -30320,7 +30326,7 @@
         <v>84</v>
       </c>
       <c r="P142" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q142">
         <v>3.4</v>
@@ -30732,7 +30738,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -30810,7 +30816,7 @@
         <v>1.29</v>
       </c>
       <c r="AP144">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ144">
         <v>1.38</v>
@@ -31350,7 +31356,7 @@
         <v>185</v>
       </c>
       <c r="P147" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31556,7 +31562,7 @@
         <v>84</v>
       </c>
       <c r="P148" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q148">
         <v>4.4</v>
@@ -31762,7 +31768,7 @@
         <v>186</v>
       </c>
       <c r="P149" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q149">
         <v>4.17</v>
@@ -32049,7 +32055,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ150">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR150">
         <v>1.49</v>
@@ -32174,7 +32180,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32380,7 +32386,7 @@
         <v>189</v>
       </c>
       <c r="P152" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q152">
         <v>2.5</v>
@@ -32750,7 +32756,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>7776471</v>
+        <v>7776468</v>
       </c>
       <c r="C154" t="s">
         <v>68</v>
@@ -32765,189 +32771,395 @@
         <v>31</v>
       </c>
       <c r="G154" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H154" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I154">
         <v>0</v>
       </c>
       <c r="J154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M154">
         <v>2</v>
       </c>
       <c r="N154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O154" t="s">
-        <v>84</v>
+        <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q154">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="R154">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="S154">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="T154">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="U154">
-        <v>3.14</v>
+        <v>3.6</v>
       </c>
       <c r="V154">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="W154">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="X154">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y154">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="Z154">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AA154">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AB154">
         <v>5.1</v>
       </c>
       <c r="AC154">
+        <v>1.02</v>
+      </c>
+      <c r="AD154">
+        <v>12</v>
+      </c>
+      <c r="AE154">
+        <v>1.17</v>
+      </c>
+      <c r="AF154">
+        <v>4.5</v>
+      </c>
+      <c r="AG154">
+        <v>1.53</v>
+      </c>
+      <c r="AH154">
+        <v>2.25</v>
+      </c>
+      <c r="AI154">
+        <v>1.55</v>
+      </c>
+      <c r="AJ154">
+        <v>2.2</v>
+      </c>
+      <c r="AK154">
+        <v>1.25</v>
+      </c>
+      <c r="AL154">
+        <v>1.22</v>
+      </c>
+      <c r="AM154">
+        <v>2.2</v>
+      </c>
+      <c r="AN154">
+        <v>1.67</v>
+      </c>
+      <c r="AO154">
+        <v>0.87</v>
+      </c>
+      <c r="AP154">
+        <v>1.63</v>
+      </c>
+      <c r="AQ154">
+        <v>0.88</v>
+      </c>
+      <c r="AR154">
+        <v>1.54</v>
+      </c>
+      <c r="AS154">
+        <v>1.3</v>
+      </c>
+      <c r="AT154">
+        <v>2.84</v>
+      </c>
+      <c r="AU154">
+        <v>5</v>
+      </c>
+      <c r="AV154">
+        <v>4</v>
+      </c>
+      <c r="AW154">
+        <v>7</v>
+      </c>
+      <c r="AX154">
+        <v>10</v>
+      </c>
+      <c r="AY154">
+        <v>12</v>
+      </c>
+      <c r="AZ154">
+        <v>14</v>
+      </c>
+      <c r="BA154">
+        <v>2</v>
+      </c>
+      <c r="BB154">
+        <v>6</v>
+      </c>
+      <c r="BC154">
+        <v>8</v>
+      </c>
+      <c r="BD154">
+        <v>1.57</v>
+      </c>
+      <c r="BE154">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF154">
+        <v>2.95</v>
+      </c>
+      <c r="BG154">
+        <v>1.31</v>
+      </c>
+      <c r="BH154">
+        <v>3.22</v>
+      </c>
+      <c r="BI154">
+        <v>1.49</v>
+      </c>
+      <c r="BJ154">
+        <v>2.3</v>
+      </c>
+      <c r="BK154">
+        <v>1.86</v>
+      </c>
+      <c r="BL154">
+        <v>1.8</v>
+      </c>
+      <c r="BM154">
+        <v>2.41</v>
+      </c>
+      <c r="BN154">
+        <v>1.45</v>
+      </c>
+      <c r="BO154">
+        <v>3.28</v>
+      </c>
+      <c r="BP154">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7776471</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45765.63541666666</v>
+      </c>
+      <c r="F155">
+        <v>31</v>
+      </c>
+      <c r="G155" t="s">
+        <v>77</v>
+      </c>
+      <c r="H155" t="s">
+        <v>71</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>2</v>
+      </c>
+      <c r="N155">
+        <v>2</v>
+      </c>
+      <c r="O155" t="s">
+        <v>84</v>
+      </c>
+      <c r="P155" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q155">
+        <v>2.06</v>
+      </c>
+      <c r="R155">
+        <v>2.33</v>
+      </c>
+      <c r="S155">
+        <v>5.5</v>
+      </c>
+      <c r="T155">
+        <v>1.3</v>
+      </c>
+      <c r="U155">
+        <v>3.14</v>
+      </c>
+      <c r="V155">
+        <v>2.45</v>
+      </c>
+      <c r="W155">
+        <v>1.46</v>
+      </c>
+      <c r="X155">
+        <v>6</v>
+      </c>
+      <c r="Y155">
+        <v>1.06</v>
+      </c>
+      <c r="Z155">
+        <v>1.6</v>
+      </c>
+      <c r="AA155">
+        <v>4</v>
+      </c>
+      <c r="AB155">
+        <v>5.1</v>
+      </c>
+      <c r="AC155">
         <v>1.01</v>
       </c>
-      <c r="AD154">
+      <c r="AD155">
         <v>11.5</v>
       </c>
-      <c r="AE154">
+      <c r="AE155">
         <v>1.22</v>
       </c>
-      <c r="AF154">
+      <c r="AF155">
         <v>4.17</v>
       </c>
-      <c r="AG154">
+      <c r="AG155">
         <v>1.7</v>
       </c>
-      <c r="AH154">
+      <c r="AH155">
         <v>1.95</v>
       </c>
-      <c r="AI154">
+      <c r="AI155">
         <v>1.7</v>
       </c>
-      <c r="AJ154">
-        <v>2</v>
-      </c>
-      <c r="AK154">
+      <c r="AJ155">
+        <v>2</v>
+      </c>
+      <c r="AK155">
         <v>1.14</v>
       </c>
-      <c r="AL154">
+      <c r="AL155">
         <v>1.25</v>
       </c>
-      <c r="AM154">
+      <c r="AM155">
         <v>2.61</v>
       </c>
-      <c r="AN154">
+      <c r="AN155">
         <v>2.27</v>
       </c>
-      <c r="AO154">
+      <c r="AO155">
         <v>1.13</v>
       </c>
-      <c r="AP154">
+      <c r="AP155">
         <v>2.13</v>
       </c>
-      <c r="AQ154">
+      <c r="AQ155">
         <v>1.25</v>
       </c>
-      <c r="AR154">
+      <c r="AR155">
         <v>1.62</v>
       </c>
-      <c r="AS154">
+      <c r="AS155">
         <v>1.24</v>
       </c>
-      <c r="AT154">
+      <c r="AT155">
         <v>2.86</v>
       </c>
-      <c r="AU154">
+      <c r="AU155">
         <v>6</v>
       </c>
-      <c r="AV154">
+      <c r="AV155">
         <v>6</v>
       </c>
-      <c r="AW154">
+      <c r="AW155">
         <v>11</v>
       </c>
-      <c r="AX154">
+      <c r="AX155">
         <v>9</v>
       </c>
-      <c r="AY154">
+      <c r="AY155">
         <v>17</v>
       </c>
-      <c r="AZ154">
+      <c r="AZ155">
         <v>15</v>
       </c>
-      <c r="BA154">
+      <c r="BA155">
         <v>5</v>
       </c>
-      <c r="BB154">
+      <c r="BB155">
         <v>5</v>
       </c>
-      <c r="BC154">
+      <c r="BC155">
         <v>10</v>
       </c>
-      <c r="BD154">
+      <c r="BD155">
         <v>1.34</v>
       </c>
-      <c r="BE154">
+      <c r="BE155">
         <v>9.1</v>
       </c>
-      <c r="BF154">
+      <c r="BF155">
         <v>4</v>
       </c>
-      <c r="BG154">
+      <c r="BG155">
         <v>1.33</v>
       </c>
-      <c r="BH154">
+      <c r="BH155">
         <v>2.82</v>
       </c>
-      <c r="BI154">
+      <c r="BI155">
         <v>1.61</v>
       </c>
-      <c r="BJ154">
+      <c r="BJ155">
         <v>2.17</v>
       </c>
-      <c r="BK154">
+      <c r="BK155">
         <v>2.37</v>
       </c>
-      <c r="BL154">
+      <c r="BL155">
         <v>1.72</v>
       </c>
-      <c r="BM154">
+      <c r="BM155">
         <v>2.58</v>
       </c>
-      <c r="BN154">
+      <c r="BN155">
         <v>1.44</v>
       </c>
-      <c r="BO154">
+      <c r="BO155">
         <v>3.8</v>
       </c>
-      <c r="BP154">
+      <c r="BP155">
         <v>1.25</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="285">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -587,6 +587,9 @@
   </si>
   <si>
     <t>['50', '85']</t>
+  </si>
+  <si>
+    <t>['3', '11', '48', '61', '64', '85', '90+1']</t>
   </si>
   <si>
     <t>['25', '90+2']</t>
@@ -1227,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP155"/>
+  <dimension ref="A1:BP156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1486,7 +1489,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1692,7 +1695,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1898,7 +1901,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2185,7 +2188,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ5">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2722,7 +2725,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -3134,7 +3137,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -3418,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ11">
         <v>0.88</v>
@@ -3546,7 +3549,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3752,7 +3755,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3830,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ13">
         <v>1.38</v>
@@ -3958,7 +3961,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4164,7 +4167,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4370,7 +4373,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4451,7 +4454,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR16">
         <v>1.95</v>
@@ -4576,7 +4579,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4782,7 +4785,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4988,7 +4991,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -5194,7 +5197,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -5400,7 +5403,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5812,7 +5815,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6224,7 +6227,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6430,7 +6433,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6508,7 +6511,7 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ26">
         <v>0.67</v>
@@ -6636,7 +6639,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6842,7 +6845,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7129,7 +7132,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ29">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR29">
         <v>1.46</v>
@@ -7254,7 +7257,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7460,7 +7463,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7747,7 +7750,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ32">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR32">
         <v>1.43</v>
@@ -7872,7 +7875,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -8078,7 +8081,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8284,7 +8287,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8362,7 +8365,7 @@
         <v>1.33</v>
       </c>
       <c r="AP35">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ35">
         <v>0.87</v>
@@ -8490,7 +8493,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8696,7 +8699,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -9108,7 +9111,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9314,7 +9317,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9726,7 +9729,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9932,7 +9935,7 @@
         <v>84</v>
       </c>
       <c r="P43" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10013,7 +10016,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ43">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR43">
         <v>1.64</v>
@@ -10138,7 +10141,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10422,7 +10425,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10550,7 +10553,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10756,7 +10759,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11168,7 +11171,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -11580,7 +11583,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11786,7 +11789,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -11992,7 +11995,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12073,7 +12076,7 @@
         <v>1</v>
       </c>
       <c r="AQ53">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR53">
         <v>1.54</v>
@@ -12198,7 +12201,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12404,7 +12407,7 @@
         <v>105</v>
       </c>
       <c r="P55" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12816,7 +12819,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13228,7 +13231,7 @@
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13640,7 +13643,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13718,7 +13721,7 @@
         <v>1.8</v>
       </c>
       <c r="AP61">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ61">
         <v>1.25</v>
@@ -13846,7 +13849,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q62">
         <v>2.5</v>
@@ -13927,7 +13930,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ62">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR62">
         <v>1.61</v>
@@ -14258,7 +14261,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q64">
         <v>2.4</v>
@@ -14670,7 +14673,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14876,7 +14879,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15082,7 +15085,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15288,7 +15291,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15494,7 +15497,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15572,7 +15575,7 @@
         <v>1.67</v>
       </c>
       <c r="AP70">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ70">
         <v>1.13</v>
@@ -15700,7 +15703,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15906,7 +15909,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -16112,7 +16115,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q73">
         <v>3.4</v>
@@ -16318,7 +16321,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16399,7 +16402,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ74">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR74">
         <v>1.53</v>
@@ -16524,7 +16527,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16730,7 +16733,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q76">
         <v>2.5</v>
@@ -16936,7 +16939,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17014,7 +17017,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ77">
         <v>2</v>
@@ -17142,7 +17145,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17348,7 +17351,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17966,7 +17969,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18044,10 +18047,10 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ82">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR82">
         <v>1.78</v>
@@ -18584,7 +18587,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q85">
         <v>2.63</v>
@@ -18996,7 +18999,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q87">
         <v>3.1</v>
@@ -19202,7 +19205,7 @@
         <v>105</v>
       </c>
       <c r="P88" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q88">
         <v>3.1</v>
@@ -19408,7 +19411,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q89">
         <v>3.2</v>
@@ -19614,7 +19617,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19820,7 +19823,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20026,7 +20029,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20232,7 +20235,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20313,7 +20316,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ93">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR93">
         <v>1.57</v>
@@ -20438,7 +20441,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20516,7 +20519,7 @@
         <v>0.89</v>
       </c>
       <c r="AP94">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ94">
         <v>0.88</v>
@@ -20850,7 +20853,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q96">
         <v>3.75</v>
@@ -21674,7 +21677,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -22086,7 +22089,7 @@
         <v>84</v>
       </c>
       <c r="P102" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q102">
         <v>2.97</v>
@@ -22292,7 +22295,7 @@
         <v>155</v>
       </c>
       <c r="P103" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q103">
         <v>2.36</v>
@@ -22498,7 +22501,7 @@
         <v>156</v>
       </c>
       <c r="P104" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q104">
         <v>2.99</v>
@@ -22785,7 +22788,7 @@
         <v>2</v>
       </c>
       <c r="AQ105">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR105">
         <v>1.9</v>
@@ -22988,7 +22991,7 @@
         <v>1.2</v>
       </c>
       <c r="AP106">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ106">
         <v>0.87</v>
@@ -23734,7 +23737,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -23940,7 +23943,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q111">
         <v>2.32</v>
@@ -24352,7 +24355,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q113">
         <v>3.2</v>
@@ -24970,7 +24973,7 @@
         <v>163</v>
       </c>
       <c r="P116" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q116">
         <v>3.6</v>
@@ -25176,7 +25179,7 @@
         <v>164</v>
       </c>
       <c r="P117" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q117">
         <v>2.42</v>
@@ -25257,7 +25260,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ117">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR117">
         <v>1.73</v>
@@ -25382,7 +25385,7 @@
         <v>165</v>
       </c>
       <c r="P118" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q118">
         <v>1.82</v>
@@ -25460,7 +25463,7 @@
         <v>0.82</v>
       </c>
       <c r="AP118">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ118">
         <v>0.67</v>
@@ -25794,7 +25797,7 @@
         <v>167</v>
       </c>
       <c r="P120" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q120">
         <v>2.9</v>
@@ -26000,7 +26003,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26206,7 +26209,7 @@
         <v>84</v>
       </c>
       <c r="P122" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q122">
         <v>4.14</v>
@@ -26824,7 +26827,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q125">
         <v>2.88</v>
@@ -26905,7 +26908,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ125">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR125">
         <v>1.44</v>
@@ -27030,7 +27033,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q126">
         <v>2.26</v>
@@ -27108,7 +27111,7 @@
         <v>1.25</v>
       </c>
       <c r="AP126">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ126">
         <v>1.38</v>
@@ -27442,7 +27445,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q128">
         <v>2.05</v>
@@ -27854,7 +27857,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28060,7 +28063,7 @@
         <v>173</v>
       </c>
       <c r="P131" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q131">
         <v>3.4</v>
@@ -28472,7 +28475,7 @@
         <v>135</v>
       </c>
       <c r="P133" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28553,7 +28556,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ133">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR133">
         <v>1.51</v>
@@ -28884,7 +28887,7 @@
         <v>175</v>
       </c>
       <c r="P135" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -29090,7 +29093,7 @@
         <v>176</v>
       </c>
       <c r="P136" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q136">
         <v>1.95</v>
@@ -29168,7 +29171,7 @@
         <v>1.15</v>
       </c>
       <c r="AP136">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ136">
         <v>1</v>
@@ -29296,7 +29299,7 @@
         <v>177</v>
       </c>
       <c r="P137" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29502,7 +29505,7 @@
         <v>178</v>
       </c>
       <c r="P138" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -30120,7 +30123,7 @@
         <v>84</v>
       </c>
       <c r="P141" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q141">
         <v>2.63</v>
@@ -30326,7 +30329,7 @@
         <v>84</v>
       </c>
       <c r="P142" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q142">
         <v>3.4</v>
@@ -30407,7 +30410,7 @@
         <v>1</v>
       </c>
       <c r="AQ142">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR142">
         <v>1.59</v>
@@ -30610,7 +30613,7 @@
         <v>1.21</v>
       </c>
       <c r="AP143">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ143">
         <v>1.25</v>
@@ -30738,7 +30741,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31356,7 +31359,7 @@
         <v>185</v>
       </c>
       <c r="P147" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31562,7 +31565,7 @@
         <v>84</v>
       </c>
       <c r="P148" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q148">
         <v>4.4</v>
@@ -31768,7 +31771,7 @@
         <v>186</v>
       </c>
       <c r="P149" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q149">
         <v>4.17</v>
@@ -32180,7 +32183,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32386,7 +32389,7 @@
         <v>189</v>
       </c>
       <c r="P152" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q152">
         <v>2.5</v>
@@ -32798,7 +32801,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q154">
         <v>2</v>
@@ -33004,7 +33007,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q155">
         <v>2.06</v>
@@ -33161,6 +33164,212 @@
       </c>
       <c r="BP155">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7776473</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45768.47916666666</v>
+      </c>
+      <c r="F156">
+        <v>31</v>
+      </c>
+      <c r="G156" t="s">
+        <v>79</v>
+      </c>
+      <c r="H156" t="s">
+        <v>78</v>
+      </c>
+      <c r="I156">
+        <v>2</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>2</v>
+      </c>
+      <c r="L156">
+        <v>7</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>7</v>
+      </c>
+      <c r="O156" t="s">
+        <v>191</v>
+      </c>
+      <c r="P156" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q156">
+        <v>2.03</v>
+      </c>
+      <c r="R156">
+        <v>2.3</v>
+      </c>
+      <c r="S156">
+        <v>4.8</v>
+      </c>
+      <c r="T156">
+        <v>1.3</v>
+      </c>
+      <c r="U156">
+        <v>3.2</v>
+      </c>
+      <c r="V156">
+        <v>2.3</v>
+      </c>
+      <c r="W156">
+        <v>1.58</v>
+      </c>
+      <c r="X156">
+        <v>5.25</v>
+      </c>
+      <c r="Y156">
+        <v>1.12</v>
+      </c>
+      <c r="Z156">
+        <v>1.57</v>
+      </c>
+      <c r="AA156">
+        <v>4.18</v>
+      </c>
+      <c r="AB156">
+        <v>5.1</v>
+      </c>
+      <c r="AC156">
+        <v>1.03</v>
+      </c>
+      <c r="AD156">
+        <v>13</v>
+      </c>
+      <c r="AE156">
+        <v>1.2</v>
+      </c>
+      <c r="AF156">
+        <v>4.4</v>
+      </c>
+      <c r="AG156">
+        <v>1.67</v>
+      </c>
+      <c r="AH156">
+        <v>2.23</v>
+      </c>
+      <c r="AI156">
+        <v>1.66</v>
+      </c>
+      <c r="AJ156">
+        <v>2.1</v>
+      </c>
+      <c r="AK156">
+        <v>1.23</v>
+      </c>
+      <c r="AL156">
+        <v>1.2</v>
+      </c>
+      <c r="AM156">
+        <v>2.25</v>
+      </c>
+      <c r="AN156">
+        <v>2.2</v>
+      </c>
+      <c r="AO156">
+        <v>1.4</v>
+      </c>
+      <c r="AP156">
+        <v>2.25</v>
+      </c>
+      <c r="AQ156">
+        <v>1.31</v>
+      </c>
+      <c r="AR156">
+        <v>1.72</v>
+      </c>
+      <c r="AS156">
+        <v>1.41</v>
+      </c>
+      <c r="AT156">
+        <v>3.13</v>
+      </c>
+      <c r="AU156">
+        <v>9</v>
+      </c>
+      <c r="AV156">
+        <v>3</v>
+      </c>
+      <c r="AW156">
+        <v>7</v>
+      </c>
+      <c r="AX156">
+        <v>12</v>
+      </c>
+      <c r="AY156">
+        <v>16</v>
+      </c>
+      <c r="AZ156">
+        <v>15</v>
+      </c>
+      <c r="BA156">
+        <v>6</v>
+      </c>
+      <c r="BB156">
+        <v>1</v>
+      </c>
+      <c r="BC156">
+        <v>7</v>
+      </c>
+      <c r="BD156">
+        <v>1.36</v>
+      </c>
+      <c r="BE156">
+        <v>8.4</v>
+      </c>
+      <c r="BF156">
+        <v>4.36</v>
+      </c>
+      <c r="BG156">
+        <v>1.54</v>
+      </c>
+      <c r="BH156">
+        <v>2.35</v>
+      </c>
+      <c r="BI156">
+        <v>1.93</v>
+      </c>
+      <c r="BJ156">
+        <v>1.82</v>
+      </c>
+      <c r="BK156">
+        <v>2.43</v>
+      </c>
+      <c r="BL156">
+        <v>1.49</v>
+      </c>
+      <c r="BM156">
+        <v>3.27</v>
+      </c>
+      <c r="BN156">
+        <v>1.27</v>
+      </c>
+      <c r="BO156">
+        <v>4.5</v>
+      </c>
+      <c r="BP156">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="286">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,9 @@
     <t>['3', '11', '48', '61', '64', '85', '90+1']</t>
   </si>
   <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -704,9 +707,6 @@
   </si>
   <si>
     <t>['44']</t>
-  </si>
-  <si>
-    <t>['90+4']</t>
   </si>
   <si>
     <t>['8', '81']</t>
@@ -869,6 +869,9 @@
   </si>
   <si>
     <t>['86', '90']</t>
+  </si>
+  <si>
+    <t>['18', '28']</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP156"/>
+  <dimension ref="A1:BP158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1489,7 +1492,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1567,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ2">
         <v>1.38</v>
@@ -1695,7 +1698,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1773,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AQ3">
         <v>1.13</v>
@@ -1901,7 +1904,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1982,7 +1985,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ4">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2725,7 +2728,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -3137,7 +3140,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -3218,7 +3221,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3549,7 +3552,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3755,7 +3758,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3961,7 +3964,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4167,7 +4170,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4373,7 +4376,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4579,7 +4582,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4660,7 +4663,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR17">
         <v>1.81</v>
@@ -4785,7 +4788,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4866,7 +4869,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ18">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR18">
         <v>1.54</v>
@@ -4991,7 +4994,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -5069,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ19">
         <v>0.87</v>
@@ -5197,7 +5200,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -5403,7 +5406,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5481,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AQ21">
         <v>0.88</v>
@@ -5815,7 +5818,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6227,7 +6230,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6433,7 +6436,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6639,7 +6642,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6717,7 +6720,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ27">
         <v>0.88</v>
@@ -6845,7 +6848,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7257,7 +7260,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7335,10 +7338,10 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AQ30">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR30">
         <v>1.62</v>
@@ -7463,7 +7466,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7875,7 +7878,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -8081,7 +8084,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8159,7 +8162,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8287,7 +8290,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8493,7 +8496,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8574,7 +8577,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR36">
         <v>2.16</v>
@@ -8699,7 +8702,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8777,7 +8780,7 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ37">
         <v>0.67</v>
@@ -8986,7 +8989,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ38">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR38">
         <v>2.02</v>
@@ -9111,7 +9114,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9317,7 +9320,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9729,7 +9732,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9935,7 +9938,7 @@
         <v>84</v>
       </c>
       <c r="P43" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10013,7 +10016,7 @@
         <v>0.25</v>
       </c>
       <c r="AP43">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AQ43">
         <v>1.31</v>
@@ -10141,7 +10144,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10222,7 +10225,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR44">
         <v>1.41</v>
@@ -10553,7 +10556,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10759,7 +10762,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10837,7 +10840,7 @@
         <v>2.25</v>
       </c>
       <c r="AP47">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ47">
         <v>1.25</v>
@@ -11046,7 +11049,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ48">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR48">
         <v>1.41</v>
@@ -11171,7 +11174,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -11583,7 +11586,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11789,7 +11792,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -11867,7 +11870,7 @@
         <v>1.4</v>
       </c>
       <c r="AP52">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ52">
         <v>1.13</v>
@@ -11995,7 +11998,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12201,7 +12204,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12279,10 +12282,10 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AQ54">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR54">
         <v>1.69</v>
@@ -12407,7 +12410,7 @@
         <v>105</v>
       </c>
       <c r="P55" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12694,7 +12697,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR56">
         <v>1.95</v>
@@ -12819,7 +12822,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13927,7 +13930,7 @@
         <v>0.67</v>
       </c>
       <c r="AP62">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ62">
         <v>1.31</v>
@@ -14133,7 +14136,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AQ63">
         <v>0.87</v>
@@ -14548,7 +14551,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ65">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR65">
         <v>1.81</v>
@@ -14754,7 +14757,7 @@
         <v>1</v>
       </c>
       <c r="AQ66">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR66">
         <v>1.6</v>
@@ -15372,7 +15375,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ69">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR69">
         <v>1.4</v>
@@ -15497,7 +15500,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -16193,10 +16196,10 @@
         <v>1.71</v>
       </c>
       <c r="AP73">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ73">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR73">
         <v>1.6</v>
@@ -16939,7 +16942,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17020,7 +17023,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ77">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR77">
         <v>1.89</v>
@@ -18871,7 +18874,7 @@
         <v>0.63</v>
       </c>
       <c r="AP86">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AQ86">
         <v>0.67</v>
@@ -19080,7 +19083,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ87">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR87">
         <v>1.73</v>
@@ -19283,10 +19286,10 @@
         <v>1.88</v>
       </c>
       <c r="AP88">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ88">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR88">
         <v>1.6</v>
@@ -19901,7 +19904,7 @@
         <v>0.75</v>
       </c>
       <c r="AP91">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ91">
         <v>1.38</v>
@@ -20110,7 +20113,7 @@
         <v>1</v>
       </c>
       <c r="AQ92">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR92">
         <v>1.59</v>
@@ -20235,7 +20238,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20931,10 +20934,10 @@
         <v>1.78</v>
       </c>
       <c r="AP96">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AQ96">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR96">
         <v>1.68</v>
@@ -21677,7 +21680,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -21961,7 +21964,7 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AQ101">
         <v>1.38</v>
@@ -22582,7 +22585,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ104">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR104">
         <v>1.76</v>
@@ -23197,7 +23200,7 @@
         <v>0.8</v>
       </c>
       <c r="AP107">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ107">
         <v>0.88</v>
@@ -23403,7 +23406,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AQ108">
         <v>1.13</v>
@@ -23612,7 +23615,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ109">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR109">
         <v>1.53</v>
@@ -24433,7 +24436,7 @@
         <v>1.09</v>
       </c>
       <c r="AP113">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AQ113">
         <v>1</v>
@@ -24848,7 +24851,7 @@
         <v>2</v>
       </c>
       <c r="AQ115">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR115">
         <v>1.93</v>
@@ -25054,7 +25057,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ116">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR116">
         <v>1.59</v>
@@ -25875,7 +25878,7 @@
         <v>1.09</v>
       </c>
       <c r="AP120">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ120">
         <v>0.87</v>
@@ -26493,7 +26496,7 @@
         <v>0.75</v>
       </c>
       <c r="AP123">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AQ123">
         <v>0.88</v>
@@ -27033,7 +27036,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q126">
         <v>2.26</v>
@@ -27320,7 +27323,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ127">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR127">
         <v>1.62</v>
@@ -27729,7 +27732,7 @@
         <v>0.83</v>
       </c>
       <c r="AP129">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ129">
         <v>0.67</v>
@@ -27857,7 +27860,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28144,7 +28147,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ131">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR131">
         <v>1.59</v>
@@ -28553,7 +28556,7 @@
         <v>1.15</v>
       </c>
       <c r="AP133">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AQ133">
         <v>1.31</v>
@@ -29093,7 +29096,7 @@
         <v>176</v>
       </c>
       <c r="P136" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q136">
         <v>1.95</v>
@@ -29380,7 +29383,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ137">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR137">
         <v>1.48</v>
@@ -29583,7 +29586,7 @@
         <v>1.31</v>
       </c>
       <c r="AP138">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ138">
         <v>1.25</v>
@@ -29998,7 +30001,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ140">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR140">
         <v>1.67</v>
@@ -31437,7 +31440,7 @@
         <v>1.27</v>
       </c>
       <c r="AP147">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AQ147">
         <v>1.38</v>
@@ -31646,7 +31649,7 @@
         <v>1</v>
       </c>
       <c r="AQ148">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR148">
         <v>1.59</v>
@@ -31849,10 +31852,10 @@
         <v>2.07</v>
       </c>
       <c r="AP149">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ149">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR149">
         <v>1.6</v>
@@ -33370,6 +33373,418 @@
       </c>
       <c r="BP156">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7776475</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45772.60416666666</v>
+      </c>
+      <c r="F157">
+        <v>32</v>
+      </c>
+      <c r="G157" t="s">
+        <v>71</v>
+      </c>
+      <c r="H157" t="s">
+        <v>72</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>2</v>
+      </c>
+      <c r="O157" t="s">
+        <v>192</v>
+      </c>
+      <c r="P157" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q157">
+        <v>4.6</v>
+      </c>
+      <c r="R157">
+        <v>2.28</v>
+      </c>
+      <c r="S157">
+        <v>2.07</v>
+      </c>
+      <c r="T157">
+        <v>1.29</v>
+      </c>
+      <c r="U157">
+        <v>3.2</v>
+      </c>
+      <c r="V157">
+        <v>2.4</v>
+      </c>
+      <c r="W157">
+        <v>1.47</v>
+      </c>
+      <c r="X157">
+        <v>5.8</v>
+      </c>
+      <c r="Y157">
+        <v>1.12</v>
+      </c>
+      <c r="Z157">
+        <v>4.9</v>
+      </c>
+      <c r="AA157">
+        <v>3.98</v>
+      </c>
+      <c r="AB157">
+        <v>1.62</v>
+      </c>
+      <c r="AC157">
+        <v>1.02</v>
+      </c>
+      <c r="AD157">
+        <v>13</v>
+      </c>
+      <c r="AE157">
+        <v>1.21</v>
+      </c>
+      <c r="AF157">
+        <v>3.9</v>
+      </c>
+      <c r="AG157">
+        <v>1.67</v>
+      </c>
+      <c r="AH157">
+        <v>2</v>
+      </c>
+      <c r="AI157">
+        <v>1.73</v>
+      </c>
+      <c r="AJ157">
+        <v>2</v>
+      </c>
+      <c r="AK157">
+        <v>2.2</v>
+      </c>
+      <c r="AL157">
+        <v>0</v>
+      </c>
+      <c r="AM157">
+        <v>1.18</v>
+      </c>
+      <c r="AN157">
+        <v>0.47</v>
+      </c>
+      <c r="AO157">
+        <v>2</v>
+      </c>
+      <c r="AP157">
+        <v>0.5</v>
+      </c>
+      <c r="AQ157">
+        <v>1.94</v>
+      </c>
+      <c r="AR157">
+        <v>1.49</v>
+      </c>
+      <c r="AS157">
+        <v>1.76</v>
+      </c>
+      <c r="AT157">
+        <v>3.25</v>
+      </c>
+      <c r="AU157">
+        <v>7</v>
+      </c>
+      <c r="AV157">
+        <v>4</v>
+      </c>
+      <c r="AW157">
+        <v>9</v>
+      </c>
+      <c r="AX157">
+        <v>7</v>
+      </c>
+      <c r="AY157">
+        <v>16</v>
+      </c>
+      <c r="AZ157">
+        <v>11</v>
+      </c>
+      <c r="BA157">
+        <v>6</v>
+      </c>
+      <c r="BB157">
+        <v>3</v>
+      </c>
+      <c r="BC157">
+        <v>9</v>
+      </c>
+      <c r="BD157">
+        <v>2.89</v>
+      </c>
+      <c r="BE157">
+        <v>6.55</v>
+      </c>
+      <c r="BF157">
+        <v>1.7</v>
+      </c>
+      <c r="BG157">
+        <v>1.28</v>
+      </c>
+      <c r="BH157">
+        <v>3.22</v>
+      </c>
+      <c r="BI157">
+        <v>1.52</v>
+      </c>
+      <c r="BJ157">
+        <v>2.45</v>
+      </c>
+      <c r="BK157">
+        <v>1.87</v>
+      </c>
+      <c r="BL157">
+        <v>1.92</v>
+      </c>
+      <c r="BM157">
+        <v>2.34</v>
+      </c>
+      <c r="BN157">
+        <v>1.57</v>
+      </c>
+      <c r="BO157">
+        <v>3.08</v>
+      </c>
+      <c r="BP157">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7776474</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45772.63541666666</v>
+      </c>
+      <c r="F158">
+        <v>32</v>
+      </c>
+      <c r="G158" t="s">
+        <v>70</v>
+      </c>
+      <c r="H158" t="s">
+        <v>79</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>2</v>
+      </c>
+      <c r="K158">
+        <v>2</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>2</v>
+      </c>
+      <c r="N158">
+        <v>2</v>
+      </c>
+      <c r="O158" t="s">
+        <v>84</v>
+      </c>
+      <c r="P158" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q158">
+        <v>4.2</v>
+      </c>
+      <c r="R158">
+        <v>2.45</v>
+      </c>
+      <c r="S158">
+        <v>2.1</v>
+      </c>
+      <c r="T158">
+        <v>1.25</v>
+      </c>
+      <c r="U158">
+        <v>3.6</v>
+      </c>
+      <c r="V158">
+        <v>2.36</v>
+      </c>
+      <c r="W158">
+        <v>1.55</v>
+      </c>
+      <c r="X158">
+        <v>5.25</v>
+      </c>
+      <c r="Y158">
+        <v>1.14</v>
+      </c>
+      <c r="Z158">
+        <v>3.73</v>
+      </c>
+      <c r="AA158">
+        <v>3.81</v>
+      </c>
+      <c r="AB158">
+        <v>1.85</v>
+      </c>
+      <c r="AC158">
+        <v>1</v>
+      </c>
+      <c r="AD158">
+        <v>12</v>
+      </c>
+      <c r="AE158">
+        <v>1.18</v>
+      </c>
+      <c r="AF158">
+        <v>4.33</v>
+      </c>
+      <c r="AG158">
+        <v>1.53</v>
+      </c>
+      <c r="AH158">
+        <v>2.2</v>
+      </c>
+      <c r="AI158">
+        <v>1.6</v>
+      </c>
+      <c r="AJ158">
+        <v>2.35</v>
+      </c>
+      <c r="AK158">
+        <v>1.15</v>
+      </c>
+      <c r="AL158">
+        <v>0</v>
+      </c>
+      <c r="AM158">
+        <v>1.11</v>
+      </c>
+      <c r="AN158">
+        <v>1.47</v>
+      </c>
+      <c r="AO158">
+        <v>1.73</v>
+      </c>
+      <c r="AP158">
+        <v>1.38</v>
+      </c>
+      <c r="AQ158">
+        <v>1.81</v>
+      </c>
+      <c r="AR158">
+        <v>1.61</v>
+      </c>
+      <c r="AS158">
+        <v>1.7</v>
+      </c>
+      <c r="AT158">
+        <v>3.31</v>
+      </c>
+      <c r="AU158">
+        <v>5</v>
+      </c>
+      <c r="AV158">
+        <v>4</v>
+      </c>
+      <c r="AW158">
+        <v>4</v>
+      </c>
+      <c r="AX158">
+        <v>6</v>
+      </c>
+      <c r="AY158">
+        <v>9</v>
+      </c>
+      <c r="AZ158">
+        <v>10</v>
+      </c>
+      <c r="BA158">
+        <v>3</v>
+      </c>
+      <c r="BB158">
+        <v>5</v>
+      </c>
+      <c r="BC158">
+        <v>8</v>
+      </c>
+      <c r="BD158">
+        <v>2.99</v>
+      </c>
+      <c r="BE158">
+        <v>7.7</v>
+      </c>
+      <c r="BF158">
+        <v>1.59</v>
+      </c>
+      <c r="BG158">
+        <v>1.33</v>
+      </c>
+      <c r="BH158">
+        <v>2.83</v>
+      </c>
+      <c r="BI158">
+        <v>1.67</v>
+      </c>
+      <c r="BJ158">
+        <v>2.07</v>
+      </c>
+      <c r="BK158">
+        <v>2.43</v>
+      </c>
+      <c r="BL158">
+        <v>1.7</v>
+      </c>
+      <c r="BM158">
+        <v>2.65</v>
+      </c>
+      <c r="BN158">
+        <v>1.42</v>
+      </c>
+      <c r="BO158">
+        <v>3.52</v>
+      </c>
+      <c r="BP158">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="287">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -873,6 +873,9 @@
   <si>
     <t>['18', '28']</t>
   </si>
+  <si>
+    <t>['80']</t>
+  </si>
 </sst>
 </file>
 
@@ -1233,7 +1236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP158"/>
+  <dimension ref="A1:BP159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2397,7 +2400,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2600,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ7">
         <v>1.25</v>
@@ -4660,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ17">
         <v>1.94</v>
@@ -5281,7 +5284,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ20">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR20">
         <v>1.99</v>
@@ -6517,7 +6520,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ26">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR26">
         <v>1.45</v>
@@ -7750,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ32">
         <v>1.31</v>
@@ -8783,7 +8786,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ37">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR37">
         <v>1.5</v>
@@ -9810,7 +9813,7 @@
         <v>1.75</v>
       </c>
       <c r="AP42">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ42">
         <v>1.13</v>
@@ -11255,7 +11258,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ49">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR49">
         <v>1.57</v>
@@ -12488,7 +12491,7 @@
         <v>1.4</v>
       </c>
       <c r="AP55">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ55">
         <v>0.87</v>
@@ -13109,7 +13112,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ58">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR58">
         <v>1.33</v>
@@ -14342,7 +14345,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ64">
         <v>0.88</v>
@@ -14960,10 +14963,10 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ67">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR67">
         <v>1.46</v>
@@ -16608,7 +16611,7 @@
         <v>1.29</v>
       </c>
       <c r="AP75">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -17229,7 +17232,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ78">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR78">
         <v>1.35</v>
@@ -18877,7 +18880,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ86">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR86">
         <v>1.62</v>
@@ -19080,7 +19083,7 @@
         <v>1.88</v>
       </c>
       <c r="AP87">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ87">
         <v>1.81</v>
@@ -21140,7 +21143,7 @@
         <v>1.11</v>
       </c>
       <c r="AP97">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ97">
         <v>1.13</v>
@@ -21555,7 +21558,7 @@
         <v>2</v>
       </c>
       <c r="AQ99">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR99">
         <v>1.93</v>
@@ -22582,7 +22585,7 @@
         <v>2.1</v>
       </c>
       <c r="AP104">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ104">
         <v>1.94</v>
@@ -24027,7 +24030,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ111">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR111">
         <v>1.61</v>
@@ -25260,7 +25263,7 @@
         <v>1.09</v>
       </c>
       <c r="AP117">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ117">
         <v>1.31</v>
@@ -25469,7 +25472,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ118">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR118">
         <v>1.72</v>
@@ -27526,7 +27529,7 @@
         <v>1.17</v>
       </c>
       <c r="AP128">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ128">
         <v>1.25</v>
@@ -27735,7 +27738,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ129">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR129">
         <v>1.49</v>
@@ -29795,7 +29798,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ139">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR139">
         <v>1.58</v>
@@ -29998,7 +30001,7 @@
         <v>1.77</v>
       </c>
       <c r="AP140">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ140">
         <v>1.81</v>
@@ -32473,7 +32476,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ152">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR152">
         <v>1.5</v>
@@ -32676,7 +32679,7 @@
         <v>1</v>
       </c>
       <c r="AP153">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ153">
         <v>1</v>
@@ -33785,6 +33788,212 @@
       </c>
       <c r="BP158">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7776476</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45773.54166666666</v>
+      </c>
+      <c r="F159">
+        <v>32</v>
+      </c>
+      <c r="G159" t="s">
+        <v>75</v>
+      </c>
+      <c r="H159" t="s">
+        <v>76</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="N159">
+        <v>1</v>
+      </c>
+      <c r="O159" t="s">
+        <v>84</v>
+      </c>
+      <c r="P159" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q159">
+        <v>2.25</v>
+      </c>
+      <c r="R159">
+        <v>2.4</v>
+      </c>
+      <c r="S159">
+        <v>4.5</v>
+      </c>
+      <c r="T159">
+        <v>1.26</v>
+      </c>
+      <c r="U159">
+        <v>3.7</v>
+      </c>
+      <c r="V159">
+        <v>2.34</v>
+      </c>
+      <c r="W159">
+        <v>1.53</v>
+      </c>
+      <c r="X159">
+        <v>5.25</v>
+      </c>
+      <c r="Y159">
+        <v>1.14</v>
+      </c>
+      <c r="Z159">
+        <v>1.8</v>
+      </c>
+      <c r="AA159">
+        <v>3.75</v>
+      </c>
+      <c r="AB159">
+        <v>3.7</v>
+      </c>
+      <c r="AC159">
+        <v>1</v>
+      </c>
+      <c r="AD159">
+        <v>12</v>
+      </c>
+      <c r="AE159">
+        <v>1.14</v>
+      </c>
+      <c r="AF159">
+        <v>4.58</v>
+      </c>
+      <c r="AG159">
+        <v>1.55</v>
+      </c>
+      <c r="AH159">
+        <v>2.25</v>
+      </c>
+      <c r="AI159">
+        <v>1.66</v>
+      </c>
+      <c r="AJ159">
+        <v>2.2</v>
+      </c>
+      <c r="AK159">
+        <v>1.25</v>
+      </c>
+      <c r="AL159">
+        <v>0</v>
+      </c>
+      <c r="AM159">
+        <v>2.05</v>
+      </c>
+      <c r="AN159">
+        <v>1.4</v>
+      </c>
+      <c r="AO159">
+        <v>0.67</v>
+      </c>
+      <c r="AP159">
+        <v>1.31</v>
+      </c>
+      <c r="AQ159">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR159">
+        <v>1.69</v>
+      </c>
+      <c r="AS159">
+        <v>1.31</v>
+      </c>
+      <c r="AT159">
+        <v>3</v>
+      </c>
+      <c r="AU159">
+        <v>6</v>
+      </c>
+      <c r="AV159">
+        <v>3</v>
+      </c>
+      <c r="AW159">
+        <v>9</v>
+      </c>
+      <c r="AX159">
+        <v>2</v>
+      </c>
+      <c r="AY159">
+        <v>20</v>
+      </c>
+      <c r="AZ159">
+        <v>5</v>
+      </c>
+      <c r="BA159">
+        <v>6</v>
+      </c>
+      <c r="BB159">
+        <v>3</v>
+      </c>
+      <c r="BC159">
+        <v>9</v>
+      </c>
+      <c r="BD159">
+        <v>1.31</v>
+      </c>
+      <c r="BE159">
+        <v>8.9</v>
+      </c>
+      <c r="BF159">
+        <v>4.66</v>
+      </c>
+      <c r="BG159">
+        <v>1.32</v>
+      </c>
+      <c r="BH159">
+        <v>3.1</v>
+      </c>
+      <c r="BI159">
+        <v>1.53</v>
+      </c>
+      <c r="BJ159">
+        <v>2.33</v>
+      </c>
+      <c r="BK159">
+        <v>1.93</v>
+      </c>
+      <c r="BL159">
+        <v>1.81</v>
+      </c>
+      <c r="BM159">
+        <v>2.42</v>
+      </c>
+      <c r="BN159">
+        <v>1.5</v>
+      </c>
+      <c r="BO159">
+        <v>3.42</v>
+      </c>
+      <c r="BP159">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="290">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,12 @@
     <t>['90+4']</t>
   </si>
   <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['45', '66']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -875,6 +881,9 @@
   </si>
   <si>
     <t>['80']</t>
+  </si>
+  <si>
+    <t>['62', '71']</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP159"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1495,7 +1504,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1701,7 +1710,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1782,7 +1791,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ3">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1907,7 +1916,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2397,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ6">
         <v>0.8100000000000001</v>
@@ -2731,7 +2740,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2812,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3143,7 +3152,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -3221,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ10">
         <v>1.94</v>
@@ -3555,7 +3564,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3761,7 +3770,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3967,7 +3976,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4173,7 +4182,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4254,7 +4263,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ15">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR15">
         <v>1.72</v>
@@ -4379,7 +4388,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4457,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ16">
         <v>1.31</v>
@@ -4585,7 +4594,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4791,7 +4800,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4997,7 +5006,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -5078,7 +5087,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ19">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR19">
         <v>1.52</v>
@@ -5203,7 +5212,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -5281,7 +5290,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ20">
         <v>0.8100000000000001</v>
@@ -5409,7 +5418,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5693,7 +5702,7 @@
         <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5821,7 +5830,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6108,7 +6117,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ24">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR24">
         <v>1.47</v>
@@ -6233,7 +6242,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6311,7 +6320,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ25">
         <v>1.38</v>
@@ -6439,7 +6448,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6645,7 +6654,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6851,7 +6860,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7263,7 +7272,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7469,7 +7478,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7550,7 +7559,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ31">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR31">
         <v>1.17</v>
@@ -7881,7 +7890,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7962,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR33">
         <v>1.62</v>
@@ -8087,7 +8096,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8293,7 +8302,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8374,7 +8383,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ35">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR35">
         <v>1.63</v>
@@ -8499,7 +8508,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8577,7 +8586,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ36">
         <v>1.94</v>
@@ -8705,7 +8714,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8989,7 +8998,7 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ38">
         <v>1.81</v>
@@ -9117,7 +9126,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9323,7 +9332,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9735,7 +9744,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9816,7 +9825,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ42">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR42">
         <v>1.36</v>
@@ -9941,7 +9950,7 @@
         <v>84</v>
       </c>
       <c r="P43" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10147,7 +10156,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10559,7 +10568,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10637,10 +10646,10 @@
         <v>1.75</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ46">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR46">
         <v>2</v>
@@ -10765,7 +10774,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11177,7 +11186,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -11589,7 +11598,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11667,7 +11676,7 @@
         <v>0.8</v>
       </c>
       <c r="AP51">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ51">
         <v>1.38</v>
@@ -11795,7 +11804,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -11876,7 +11885,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ52">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR52">
         <v>1.69</v>
@@ -12001,7 +12010,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12207,7 +12216,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12413,7 +12422,7 @@
         <v>105</v>
       </c>
       <c r="P55" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12494,7 +12503,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ55">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR55">
         <v>1.41</v>
@@ -12697,7 +12706,7 @@
         <v>1.8</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ56">
         <v>1.81</v>
@@ -13237,7 +13246,7 @@
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13521,7 +13530,7 @@
         <v>0.4</v>
       </c>
       <c r="AP60">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ60">
         <v>0.88</v>
@@ -13649,7 +13658,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13855,7 +13864,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q62">
         <v>2.5</v>
@@ -14142,7 +14151,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ63">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR63">
         <v>1.59</v>
@@ -14267,7 +14276,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q64">
         <v>2.4</v>
@@ -14679,7 +14688,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14885,7 +14894,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15091,7 +15100,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15169,7 +15178,7 @@
         <v>1.5</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15297,7 +15306,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15503,7 +15512,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15584,7 +15593,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ70">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR70">
         <v>1.92</v>
@@ -15709,7 +15718,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15787,7 +15796,7 @@
         <v>1.5</v>
       </c>
       <c r="AP71">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ71">
         <v>1.25</v>
@@ -15915,7 +15924,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -15996,7 +16005,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ72">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR72">
         <v>1.68</v>
@@ -16121,7 +16130,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q73">
         <v>3.4</v>
@@ -16327,7 +16336,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16533,7 +16542,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16739,7 +16748,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q76">
         <v>2.5</v>
@@ -16817,7 +16826,7 @@
         <v>1.43</v>
       </c>
       <c r="AP76">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ76">
         <v>1.25</v>
@@ -16945,7 +16954,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17151,7 +17160,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17357,7 +17366,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17435,10 +17444,10 @@
         <v>1.43</v>
       </c>
       <c r="AP79">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ79">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR79">
         <v>1.71</v>
@@ -17975,7 +17984,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18593,7 +18602,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q85">
         <v>2.63</v>
@@ -19005,7 +19014,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q87">
         <v>3.1</v>
@@ -19211,7 +19220,7 @@
         <v>105</v>
       </c>
       <c r="P88" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q88">
         <v>3.1</v>
@@ -19417,7 +19426,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q89">
         <v>3.2</v>
@@ -19495,10 +19504,10 @@
         <v>1.25</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ89">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR89">
         <v>1.97</v>
@@ -19623,7 +19632,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19701,10 +19710,10 @@
         <v>1.13</v>
       </c>
       <c r="AP90">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ90">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR90">
         <v>1.61</v>
@@ -19829,7 +19838,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20035,7 +20044,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20241,7 +20250,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20447,7 +20456,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20859,7 +20868,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q96">
         <v>3.75</v>
@@ -21146,7 +21155,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ97">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR97">
         <v>1.69</v>
@@ -21349,7 +21358,7 @@
         <v>1.33</v>
       </c>
       <c r="AP98">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ98">
         <v>1</v>
@@ -21555,7 +21564,7 @@
         <v>0.89</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ99">
         <v>0.8100000000000001</v>
@@ -21683,7 +21692,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -21764,7 +21773,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ100">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR100">
         <v>1.58</v>
@@ -22095,7 +22104,7 @@
         <v>84</v>
       </c>
       <c r="P102" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q102">
         <v>2.97</v>
@@ -22301,7 +22310,7 @@
         <v>155</v>
       </c>
       <c r="P103" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q103">
         <v>2.36</v>
@@ -22507,7 +22516,7 @@
         <v>156</v>
       </c>
       <c r="P104" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q104">
         <v>2.99</v>
@@ -22791,7 +22800,7 @@
         <v>1.2</v>
       </c>
       <c r="AP105">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ105">
         <v>1.31</v>
@@ -23000,7 +23009,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ106">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR106">
         <v>1.72</v>
@@ -23412,7 +23421,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ108">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR108">
         <v>1.58</v>
@@ -23743,7 +23752,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -23949,7 +23958,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q111">
         <v>2.32</v>
@@ -24027,7 +24036,7 @@
         <v>0.9</v>
       </c>
       <c r="AP111">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ111">
         <v>0.8100000000000001</v>
@@ -24361,7 +24370,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q113">
         <v>3.2</v>
@@ -24648,7 +24657,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ114">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR114">
         <v>1.42</v>
@@ -24851,7 +24860,7 @@
         <v>2.18</v>
       </c>
       <c r="AP115">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ115">
         <v>1.94</v>
@@ -24979,7 +24988,7 @@
         <v>163</v>
       </c>
       <c r="P116" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q116">
         <v>3.6</v>
@@ -25057,7 +25066,7 @@
         <v>1.73</v>
       </c>
       <c r="AP116">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ116">
         <v>1.81</v>
@@ -25185,7 +25194,7 @@
         <v>164</v>
       </c>
       <c r="P117" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q117">
         <v>2.42</v>
@@ -25391,7 +25400,7 @@
         <v>165</v>
       </c>
       <c r="P118" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q118">
         <v>1.82</v>
@@ -25803,7 +25812,7 @@
         <v>167</v>
       </c>
       <c r="P120" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q120">
         <v>2.9</v>
@@ -25884,7 +25893,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ120">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR120">
         <v>1.5</v>
@@ -26009,7 +26018,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26215,7 +26224,7 @@
         <v>84</v>
       </c>
       <c r="P122" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q122">
         <v>4.14</v>
@@ -26296,7 +26305,7 @@
         <v>1</v>
       </c>
       <c r="AQ122">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR122">
         <v>1.65</v>
@@ -26833,7 +26842,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q125">
         <v>2.88</v>
@@ -27039,7 +27048,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q126">
         <v>2.26</v>
@@ -27451,7 +27460,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q128">
         <v>2.05</v>
@@ -27863,7 +27872,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -27941,10 +27950,10 @@
         <v>1.08</v>
       </c>
       <c r="AP130">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ130">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR130">
         <v>1.86</v>
@@ -28069,7 +28078,7 @@
         <v>173</v>
       </c>
       <c r="P131" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q131">
         <v>3.4</v>
@@ -28147,7 +28156,7 @@
         <v>2.25</v>
       </c>
       <c r="AP131">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ131">
         <v>1.94</v>
@@ -28356,7 +28365,7 @@
         <v>1</v>
       </c>
       <c r="AQ132">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR132">
         <v>1.6</v>
@@ -28481,7 +28490,7 @@
         <v>135</v>
       </c>
       <c r="P133" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28765,7 +28774,7 @@
         <v>1.15</v>
       </c>
       <c r="AP134">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ134">
         <v>1.38</v>
@@ -28893,7 +28902,7 @@
         <v>175</v>
       </c>
       <c r="P135" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -28974,7 +28983,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ135">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR135">
         <v>1.53</v>
@@ -29099,7 +29108,7 @@
         <v>176</v>
       </c>
       <c r="P136" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q136">
         <v>1.95</v>
@@ -29305,7 +29314,7 @@
         <v>177</v>
       </c>
       <c r="P137" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29511,7 +29520,7 @@
         <v>178</v>
       </c>
       <c r="P138" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -30129,7 +30138,7 @@
         <v>84</v>
       </c>
       <c r="P141" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q141">
         <v>2.63</v>
@@ -30207,7 +30216,7 @@
         <v>0.77</v>
       </c>
       <c r="AP141">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ141">
         <v>0.88</v>
@@ -30335,7 +30344,7 @@
         <v>84</v>
       </c>
       <c r="P142" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q142">
         <v>3.4</v>
@@ -30747,7 +30756,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31034,7 +31043,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ145">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR145">
         <v>1.59</v>
@@ -31237,7 +31246,7 @@
         <v>1.07</v>
       </c>
       <c r="AP146">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ146">
         <v>1</v>
@@ -31365,7 +31374,7 @@
         <v>185</v>
       </c>
       <c r="P147" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31571,7 +31580,7 @@
         <v>84</v>
       </c>
       <c r="P148" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q148">
         <v>4.4</v>
@@ -31777,7 +31786,7 @@
         <v>186</v>
       </c>
       <c r="P149" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q149">
         <v>4.17</v>
@@ -32189,7 +32198,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32267,10 +32276,10 @@
         <v>1.14</v>
       </c>
       <c r="AP151">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ151">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR151">
         <v>1.55</v>
@@ -32395,7 +32404,7 @@
         <v>189</v>
       </c>
       <c r="P152" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q152">
         <v>2.5</v>
@@ -32807,7 +32816,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q154">
         <v>2</v>
@@ -33013,7 +33022,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q155">
         <v>2.06</v>
@@ -33631,7 +33640,7 @@
         <v>84</v>
       </c>
       <c r="P158" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q158">
         <v>4.2</v>
@@ -33837,7 +33846,7 @@
         <v>84</v>
       </c>
       <c r="P159" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q159">
         <v>2.25</v>
@@ -33994,6 +34003,418 @@
       </c>
       <c r="BP159">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7776477</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45774.38541666666</v>
+      </c>
+      <c r="F160">
+        <v>32</v>
+      </c>
+      <c r="G160" t="s">
+        <v>74</v>
+      </c>
+      <c r="H160" t="s">
+        <v>77</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>1</v>
+      </c>
+      <c r="O160" t="s">
+        <v>193</v>
+      </c>
+      <c r="P160" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q160">
+        <v>3</v>
+      </c>
+      <c r="R160">
+        <v>2.25</v>
+      </c>
+      <c r="S160">
+        <v>2.8</v>
+      </c>
+      <c r="T160">
+        <v>1.3</v>
+      </c>
+      <c r="U160">
+        <v>3.34</v>
+      </c>
+      <c r="V160">
+        <v>2.46</v>
+      </c>
+      <c r="W160">
+        <v>1.5</v>
+      </c>
+      <c r="X160">
+        <v>5.3</v>
+      </c>
+      <c r="Y160">
+        <v>1.06</v>
+      </c>
+      <c r="Z160">
+        <v>2.62</v>
+      </c>
+      <c r="AA160">
+        <v>3.47</v>
+      </c>
+      <c r="AB160">
+        <v>2.49</v>
+      </c>
+      <c r="AC160">
+        <v>1.01</v>
+      </c>
+      <c r="AD160">
+        <v>12</v>
+      </c>
+      <c r="AE160">
+        <v>1.2</v>
+      </c>
+      <c r="AF160">
+        <v>4.4</v>
+      </c>
+      <c r="AG160">
+        <v>1.61</v>
+      </c>
+      <c r="AH160">
+        <v>2.05</v>
+      </c>
+      <c r="AI160">
+        <v>1.52</v>
+      </c>
+      <c r="AJ160">
+        <v>2.3</v>
+      </c>
+      <c r="AK160">
+        <v>1.3</v>
+      </c>
+      <c r="AL160">
+        <v>0</v>
+      </c>
+      <c r="AM160">
+        <v>1.45</v>
+      </c>
+      <c r="AN160">
+        <v>2</v>
+      </c>
+      <c r="AO160">
+        <v>1.13</v>
+      </c>
+      <c r="AP160">
+        <v>2.06</v>
+      </c>
+      <c r="AQ160">
+        <v>1.06</v>
+      </c>
+      <c r="AR160">
+        <v>1.83</v>
+      </c>
+      <c r="AS160">
+        <v>1.54</v>
+      </c>
+      <c r="AT160">
+        <v>3.37</v>
+      </c>
+      <c r="AU160">
+        <v>5</v>
+      </c>
+      <c r="AV160">
+        <v>4</v>
+      </c>
+      <c r="AW160">
+        <v>13</v>
+      </c>
+      <c r="AX160">
+        <v>16</v>
+      </c>
+      <c r="AY160">
+        <v>18</v>
+      </c>
+      <c r="AZ160">
+        <v>20</v>
+      </c>
+      <c r="BA160">
+        <v>3</v>
+      </c>
+      <c r="BB160">
+        <v>8</v>
+      </c>
+      <c r="BC160">
+        <v>11</v>
+      </c>
+      <c r="BD160">
+        <v>1.92</v>
+      </c>
+      <c r="BE160">
+        <v>7</v>
+      </c>
+      <c r="BF160">
+        <v>2.3</v>
+      </c>
+      <c r="BG160">
+        <v>1.52</v>
+      </c>
+      <c r="BH160">
+        <v>2.21</v>
+      </c>
+      <c r="BI160">
+        <v>1.97</v>
+      </c>
+      <c r="BJ160">
+        <v>1.8</v>
+      </c>
+      <c r="BK160">
+        <v>2.4</v>
+      </c>
+      <c r="BL160">
+        <v>1.5</v>
+      </c>
+      <c r="BM160">
+        <v>3.7</v>
+      </c>
+      <c r="BN160">
+        <v>1.2</v>
+      </c>
+      <c r="BO160">
+        <v>4.55</v>
+      </c>
+      <c r="BP160">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7776478</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45774.38541666666</v>
+      </c>
+      <c r="F161">
+        <v>32</v>
+      </c>
+      <c r="G161" t="s">
+        <v>78</v>
+      </c>
+      <c r="H161" t="s">
+        <v>73</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>2</v>
+      </c>
+      <c r="N161">
+        <v>4</v>
+      </c>
+      <c r="O161" t="s">
+        <v>194</v>
+      </c>
+      <c r="P161" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q161">
+        <v>2.9</v>
+      </c>
+      <c r="R161">
+        <v>2.06</v>
+      </c>
+      <c r="S161">
+        <v>3.3</v>
+      </c>
+      <c r="T161">
+        <v>1.38</v>
+      </c>
+      <c r="U161">
+        <v>2.76</v>
+      </c>
+      <c r="V161">
+        <v>2.95</v>
+      </c>
+      <c r="W161">
+        <v>1.35</v>
+      </c>
+      <c r="X161">
+        <v>7.8</v>
+      </c>
+      <c r="Y161">
+        <v>1.08</v>
+      </c>
+      <c r="Z161">
+        <v>2.3</v>
+      </c>
+      <c r="AA161">
+        <v>3.23</v>
+      </c>
+      <c r="AB161">
+        <v>3.07</v>
+      </c>
+      <c r="AC161">
+        <v>1.01</v>
+      </c>
+      <c r="AD161">
+        <v>9</v>
+      </c>
+      <c r="AE161">
+        <v>1.3</v>
+      </c>
+      <c r="AF161">
+        <v>3.25</v>
+      </c>
+      <c r="AG161">
+        <v>1.95</v>
+      </c>
+      <c r="AH161">
+        <v>1.79</v>
+      </c>
+      <c r="AI161">
+        <v>1.7</v>
+      </c>
+      <c r="AJ161">
+        <v>2</v>
+      </c>
+      <c r="AK161">
+        <v>1.25</v>
+      </c>
+      <c r="AL161">
+        <v>0</v>
+      </c>
+      <c r="AM161">
+        <v>1.5</v>
+      </c>
+      <c r="AN161">
+        <v>1.27</v>
+      </c>
+      <c r="AO161">
+        <v>0.87</v>
+      </c>
+      <c r="AP161">
+        <v>1.25</v>
+      </c>
+      <c r="AQ161">
+        <v>0.88</v>
+      </c>
+      <c r="AR161">
+        <v>1.52</v>
+      </c>
+      <c r="AS161">
+        <v>1.56</v>
+      </c>
+      <c r="AT161">
+        <v>3.08</v>
+      </c>
+      <c r="AU161">
+        <v>3</v>
+      </c>
+      <c r="AV161">
+        <v>3</v>
+      </c>
+      <c r="AW161">
+        <v>4</v>
+      </c>
+      <c r="AX161">
+        <v>7</v>
+      </c>
+      <c r="AY161">
+        <v>7</v>
+      </c>
+      <c r="AZ161">
+        <v>10</v>
+      </c>
+      <c r="BA161">
+        <v>3</v>
+      </c>
+      <c r="BB161">
+        <v>5</v>
+      </c>
+      <c r="BC161">
+        <v>8</v>
+      </c>
+      <c r="BD161">
+        <v>2.23</v>
+      </c>
+      <c r="BE161">
+        <v>5.8</v>
+      </c>
+      <c r="BF161">
+        <v>2</v>
+      </c>
+      <c r="BG161">
+        <v>1.53</v>
+      </c>
+      <c r="BH161">
+        <v>2.35</v>
+      </c>
+      <c r="BI161">
+        <v>1.94</v>
+      </c>
+      <c r="BJ161">
+        <v>1.71</v>
+      </c>
+      <c r="BK161">
+        <v>2.62</v>
+      </c>
+      <c r="BL161">
+        <v>1.38</v>
+      </c>
+      <c r="BM161">
+        <v>3.72</v>
+      </c>
+      <c r="BN161">
+        <v>1.2</v>
+      </c>
+      <c r="BO161">
+        <v>4.5</v>
+      </c>
+      <c r="BP161">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="293">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -601,6 +601,15 @@
     <t>['45', '66']</t>
   </si>
   <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['5', '80']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -653,9 +662,6 @@
   </si>
   <si>
     <t>['44', '88']</t>
-  </si>
-  <si>
-    <t>['11']</t>
   </si>
   <si>
     <t>['21', '33', '65']</t>
@@ -884,6 +890,9 @@
   </si>
   <si>
     <t>['62', '71']</t>
+  </si>
+  <si>
+    <t>['54', '76']</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1504,7 +1513,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1585,7 +1594,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ2">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1710,7 +1719,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1916,7 +1925,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2740,7 +2749,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2818,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ8">
         <v>0.88</v>
@@ -3024,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -3152,7 +3161,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -3233,7 +3242,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ10">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3436,10 +3445,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ11">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3564,7 +3573,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3642,7 +3651,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ12">
         <v>1.25</v>
@@ -3770,7 +3779,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3848,10 +3857,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ13">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR13">
         <v>1.92</v>
@@ -3976,7 +3985,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4182,7 +4191,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4388,7 +4397,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4594,7 +4603,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4675,7 +4684,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ17">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR17">
         <v>1.81</v>
@@ -4800,7 +4809,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4878,7 +4887,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>1.81</v>
@@ -5006,7 +5015,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -5212,7 +5221,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -5418,7 +5427,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5499,7 +5508,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ21">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR21">
         <v>1.63</v>
@@ -5830,7 +5839,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6242,7 +6251,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6323,7 +6332,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ25">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR25">
         <v>1.92</v>
@@ -6448,7 +6457,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6526,7 +6535,7 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ26">
         <v>0.8100000000000001</v>
@@ -6654,7 +6663,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6735,7 +6744,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ27">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR27">
         <v>1.47</v>
@@ -6860,7 +6869,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6938,10 +6947,10 @@
         <v>0.33</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ28">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR28">
         <v>1.43</v>
@@ -7144,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>1.31</v>
@@ -7272,7 +7281,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7478,7 +7487,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7890,7 +7899,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7968,7 +7977,7 @@
         <v>1.33</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ33">
         <v>1.06</v>
@@ -8096,7 +8105,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8302,7 +8311,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8380,7 +8389,7 @@
         <v>1.33</v>
       </c>
       <c r="AP35">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ35">
         <v>0.88</v>
@@ -8508,7 +8517,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8589,7 +8598,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ36">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR36">
         <v>2.16</v>
@@ -8714,7 +8723,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -9126,7 +9135,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9332,7 +9341,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9413,7 +9422,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ40">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR40">
         <v>1.35</v>
@@ -9616,10 +9625,10 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ41">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR41">
         <v>1.58</v>
@@ -9744,7 +9753,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9950,7 +9959,7 @@
         <v>84</v>
       </c>
       <c r="P43" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10156,7 +10165,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10234,10 +10243,10 @@
         <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ44">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR44">
         <v>1.41</v>
@@ -10440,7 +10449,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10568,7 +10577,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10774,7 +10783,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11186,7 +11195,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -11264,7 +11273,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
         <v>0.8100000000000001</v>
@@ -11473,7 +11482,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ50">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR50">
         <v>1.24</v>
@@ -11598,7 +11607,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11679,7 +11688,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ51">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR51">
         <v>1.86</v>
@@ -11804,7 +11813,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -12010,7 +12019,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12088,7 +12097,7 @@
         <v>0.8</v>
       </c>
       <c r="AP53">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ53">
         <v>1.31</v>
@@ -12216,7 +12225,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12297,7 +12306,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ54">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR54">
         <v>1.69</v>
@@ -12422,7 +12431,7 @@
         <v>105</v>
       </c>
       <c r="P55" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12912,10 +12921,10 @@
         <v>0.83</v>
       </c>
       <c r="AP57">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR57">
         <v>1.74</v>
@@ -13246,7 +13255,7 @@
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13533,7 +13542,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ60">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR60">
         <v>1.75</v>
@@ -13658,7 +13667,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13736,7 +13745,7 @@
         <v>1.8</v>
       </c>
       <c r="AP61">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ61">
         <v>1.25</v>
@@ -13864,7 +13873,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q62">
         <v>2.5</v>
@@ -14276,7 +14285,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q64">
         <v>2.4</v>
@@ -14357,7 +14366,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ64">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR64">
         <v>1.41</v>
@@ -14560,10 +14569,10 @@
         <v>2.2</v>
       </c>
       <c r="AP65">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ65">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR65">
         <v>1.81</v>
@@ -14688,7 +14697,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14766,7 +14775,7 @@
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ66">
         <v>1.81</v>
@@ -14894,7 +14903,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15100,7 +15109,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15306,7 +15315,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15387,7 +15396,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ69">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR69">
         <v>1.4</v>
@@ -15512,7 +15521,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15590,7 +15599,7 @@
         <v>1.67</v>
       </c>
       <c r="AP70">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ70">
         <v>1.06</v>
@@ -15718,7 +15727,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15924,7 +15933,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -16002,7 +16011,7 @@
         <v>1.14</v>
       </c>
       <c r="AP72">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ72">
         <v>0.88</v>
@@ -16130,7 +16139,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q73">
         <v>3.4</v>
@@ -16336,7 +16345,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16542,7 +16551,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16748,7 +16757,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q76">
         <v>2.5</v>
@@ -16954,7 +16963,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17032,10 +17041,10 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ77">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR77">
         <v>1.89</v>
@@ -17160,7 +17169,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17366,7 +17375,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17650,10 +17659,10 @@
         <v>0.57</v>
       </c>
       <c r="AP80">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ80">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR80">
         <v>1.62</v>
@@ -17856,7 +17865,7 @@
         <v>1.5</v>
       </c>
       <c r="AP81">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -17984,7 +17993,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18062,7 +18071,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ82">
         <v>1.31</v>
@@ -18268,7 +18277,7 @@
         <v>1.38</v>
       </c>
       <c r="AP83">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ83">
         <v>1.25</v>
@@ -18477,7 +18486,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ84">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR84">
         <v>1.62</v>
@@ -18602,7 +18611,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q85">
         <v>2.63</v>
@@ -18683,7 +18692,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ85">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR85">
         <v>1.36</v>
@@ -19014,7 +19023,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q87">
         <v>3.1</v>
@@ -19220,7 +19229,7 @@
         <v>105</v>
       </c>
       <c r="P88" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q88">
         <v>3.1</v>
@@ -19301,7 +19310,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ88">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR88">
         <v>1.6</v>
@@ -19426,7 +19435,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q89">
         <v>3.2</v>
@@ -19632,7 +19641,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19838,7 +19847,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19919,7 +19928,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ91">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR91">
         <v>1.62</v>
@@ -20044,7 +20053,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20122,10 +20131,10 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ92">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR92">
         <v>1.59</v>
@@ -20250,7 +20259,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20328,7 +20337,7 @@
         <v>1.22</v>
       </c>
       <c r="AP93">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ93">
         <v>1.31</v>
@@ -20456,7 +20465,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20534,10 +20543,10 @@
         <v>0.89</v>
       </c>
       <c r="AP94">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ94">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR94">
         <v>1.69</v>
@@ -20868,7 +20877,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q96">
         <v>3.75</v>
@@ -21692,7 +21701,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -21979,7 +21988,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ101">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR101">
         <v>1.64</v>
@@ -22104,7 +22113,7 @@
         <v>84</v>
       </c>
       <c r="P102" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q102">
         <v>2.97</v>
@@ -22182,7 +22191,7 @@
         <v>1.1</v>
       </c>
       <c r="AP102">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ102">
         <v>1.25</v>
@@ -22310,7 +22319,7 @@
         <v>155</v>
       </c>
       <c r="P103" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q103">
         <v>2.36</v>
@@ -22388,7 +22397,7 @@
         <v>1.2</v>
       </c>
       <c r="AP103">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ103">
         <v>1</v>
@@ -22516,7 +22525,7 @@
         <v>156</v>
       </c>
       <c r="P104" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q104">
         <v>2.99</v>
@@ -22597,7 +22606,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ104">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR104">
         <v>1.76</v>
@@ -23006,7 +23015,7 @@
         <v>1.2</v>
       </c>
       <c r="AP106">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ106">
         <v>0.88</v>
@@ -23215,7 +23224,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ107">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR107">
         <v>1.57</v>
@@ -23752,7 +23761,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -23833,7 +23842,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ110">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR110">
         <v>1.42</v>
@@ -23958,7 +23967,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q111">
         <v>2.32</v>
@@ -24242,10 +24251,10 @@
         <v>1.36</v>
       </c>
       <c r="AP112">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ112">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR112">
         <v>1.63</v>
@@ -24370,7 +24379,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q113">
         <v>3.2</v>
@@ -24863,7 +24872,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ115">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR115">
         <v>1.93</v>
@@ -24988,7 +24997,7 @@
         <v>163</v>
       </c>
       <c r="P116" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q116">
         <v>3.6</v>
@@ -25194,7 +25203,7 @@
         <v>164</v>
       </c>
       <c r="P117" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q117">
         <v>2.42</v>
@@ -25400,7 +25409,7 @@
         <v>165</v>
       </c>
       <c r="P118" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q118">
         <v>1.82</v>
@@ -25478,7 +25487,7 @@
         <v>0.82</v>
       </c>
       <c r="AP118">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ118">
         <v>0.8100000000000001</v>
@@ -25812,7 +25821,7 @@
         <v>167</v>
       </c>
       <c r="P120" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q120">
         <v>2.9</v>
@@ -26018,7 +26027,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26096,10 +26105,10 @@
         <v>0.82</v>
       </c>
       <c r="AP121">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ121">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR121">
         <v>1.63</v>
@@ -26224,7 +26233,7 @@
         <v>84</v>
       </c>
       <c r="P122" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q122">
         <v>4.14</v>
@@ -26302,7 +26311,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ122">
         <v>1.06</v>
@@ -26511,7 +26520,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ123">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR123">
         <v>1.49</v>
@@ -26842,7 +26851,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q125">
         <v>2.88</v>
@@ -27048,7 +27057,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q126">
         <v>2.26</v>
@@ -27126,10 +27135,10 @@
         <v>1.25</v>
       </c>
       <c r="AP126">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ126">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR126">
         <v>1.75</v>
@@ -27332,7 +27341,7 @@
         <v>1.83</v>
       </c>
       <c r="AP127">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ127">
         <v>1.81</v>
@@ -27460,7 +27469,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q128">
         <v>2.05</v>
@@ -27872,7 +27881,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28078,7 +28087,7 @@
         <v>173</v>
       </c>
       <c r="P131" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q131">
         <v>3.4</v>
@@ -28159,7 +28168,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ131">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR131">
         <v>1.59</v>
@@ -28362,7 +28371,7 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ132">
         <v>0.88</v>
@@ -28490,7 +28499,7 @@
         <v>135</v>
       </c>
       <c r="P133" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28777,7 +28786,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ134">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR134">
         <v>1.85</v>
@@ -28902,7 +28911,7 @@
         <v>175</v>
       </c>
       <c r="P135" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -29108,7 +29117,7 @@
         <v>176</v>
       </c>
       <c r="P136" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q136">
         <v>1.95</v>
@@ -29186,7 +29195,7 @@
         <v>1.15</v>
       </c>
       <c r="AP136">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ136">
         <v>1</v>
@@ -29314,7 +29323,7 @@
         <v>177</v>
       </c>
       <c r="P137" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29395,7 +29404,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ137">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR137">
         <v>1.48</v>
@@ -29520,7 +29529,7 @@
         <v>178</v>
       </c>
       <c r="P138" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -29804,7 +29813,7 @@
         <v>0.77</v>
       </c>
       <c r="AP139">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ139">
         <v>0.8100000000000001</v>
@@ -30138,7 +30147,7 @@
         <v>84</v>
       </c>
       <c r="P141" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q141">
         <v>2.63</v>
@@ -30219,7 +30228,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ141">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR141">
         <v>1.57</v>
@@ -30344,7 +30353,7 @@
         <v>84</v>
       </c>
       <c r="P142" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q142">
         <v>3.4</v>
@@ -30422,7 +30431,7 @@
         <v>1.29</v>
       </c>
       <c r="AP142">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ142">
         <v>1.31</v>
@@ -30628,7 +30637,7 @@
         <v>1.21</v>
       </c>
       <c r="AP143">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ143">
         <v>1.25</v>
@@ -30756,7 +30765,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -30837,7 +30846,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ144">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR144">
         <v>1.53</v>
@@ -31040,7 +31049,7 @@
         <v>0.93</v>
       </c>
       <c r="AP145">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ145">
         <v>0.88</v>
@@ -31374,7 +31383,7 @@
         <v>185</v>
       </c>
       <c r="P147" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31455,7 +31464,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ147">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR147">
         <v>1.52</v>
@@ -31580,7 +31589,7 @@
         <v>84</v>
       </c>
       <c r="P148" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q148">
         <v>4.4</v>
@@ -31658,7 +31667,7 @@
         <v>1.64</v>
       </c>
       <c r="AP148">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ148">
         <v>1.81</v>
@@ -31786,7 +31795,7 @@
         <v>186</v>
       </c>
       <c r="P149" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q149">
         <v>4.17</v>
@@ -31867,7 +31876,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ149">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR149">
         <v>1.6</v>
@@ -32073,7 +32082,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ150">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR150">
         <v>1.49</v>
@@ -32198,7 +32207,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32404,7 +32413,7 @@
         <v>189</v>
       </c>
       <c r="P152" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q152">
         <v>2.5</v>
@@ -32816,7 +32825,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q154">
         <v>2</v>
@@ -32897,7 +32906,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ154">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR154">
         <v>1.54</v>
@@ -33022,7 +33031,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q155">
         <v>2.06</v>
@@ -33100,7 +33109,7 @@
         <v>1.13</v>
       </c>
       <c r="AP155">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ155">
         <v>1.25</v>
@@ -33306,7 +33315,7 @@
         <v>1.4</v>
       </c>
       <c r="AP156">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ156">
         <v>1.31</v>
@@ -33515,7 +33524,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ157">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR157">
         <v>1.49</v>
@@ -33640,7 +33649,7 @@
         <v>84</v>
       </c>
       <c r="P158" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q158">
         <v>4.2</v>
@@ -33846,7 +33855,7 @@
         <v>84</v>
       </c>
       <c r="P159" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q159">
         <v>2.25</v>
@@ -34258,7 +34267,7 @@
         <v>194</v>
       </c>
       <c r="P161" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q161">
         <v>2.9</v>
@@ -34415,6 +34424,624 @@
       </c>
       <c r="BP161">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7776481</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45779.60416666666</v>
+      </c>
+      <c r="F162">
+        <v>33</v>
+      </c>
+      <c r="G162" t="s">
+        <v>76</v>
+      </c>
+      <c r="H162" t="s">
+        <v>74</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>1</v>
+      </c>
+      <c r="O162" t="s">
+        <v>195</v>
+      </c>
+      <c r="P162" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q162">
+        <v>2.75</v>
+      </c>
+      <c r="R162">
+        <v>2.29</v>
+      </c>
+      <c r="S162">
+        <v>3.1</v>
+      </c>
+      <c r="T162">
+        <v>1.27</v>
+      </c>
+      <c r="U162">
+        <v>3.4</v>
+      </c>
+      <c r="V162">
+        <v>2.25</v>
+      </c>
+      <c r="W162">
+        <v>1.55</v>
+      </c>
+      <c r="X162">
+        <v>5.6</v>
+      </c>
+      <c r="Y162">
+        <v>1.14</v>
+      </c>
+      <c r="Z162">
+        <v>2.07</v>
+      </c>
+      <c r="AA162">
+        <v>3.65</v>
+      </c>
+      <c r="AB162">
+        <v>3.19</v>
+      </c>
+      <c r="AC162">
+        <v>1</v>
+      </c>
+      <c r="AD162">
+        <v>12</v>
+      </c>
+      <c r="AE162">
+        <v>1.14</v>
+      </c>
+      <c r="AF162">
+        <v>4.33</v>
+      </c>
+      <c r="AG162">
+        <v>1.55</v>
+      </c>
+      <c r="AH162">
+        <v>2.2</v>
+      </c>
+      <c r="AI162">
+        <v>1.5</v>
+      </c>
+      <c r="AJ162">
+        <v>2.45</v>
+      </c>
+      <c r="AK162">
+        <v>1.27</v>
+      </c>
+      <c r="AL162">
+        <v>0</v>
+      </c>
+      <c r="AM162">
+        <v>1.58</v>
+      </c>
+      <c r="AN162">
+        <v>1</v>
+      </c>
+      <c r="AO162">
+        <v>0.88</v>
+      </c>
+      <c r="AP162">
+        <v>1.12</v>
+      </c>
+      <c r="AQ162">
+        <v>0.82</v>
+      </c>
+      <c r="AR162">
+        <v>1.57</v>
+      </c>
+      <c r="AS162">
+        <v>1.32</v>
+      </c>
+      <c r="AT162">
+        <v>2.89</v>
+      </c>
+      <c r="AU162">
+        <v>6</v>
+      </c>
+      <c r="AV162">
+        <v>0</v>
+      </c>
+      <c r="AW162">
+        <v>5</v>
+      </c>
+      <c r="AX162">
+        <v>8</v>
+      </c>
+      <c r="AY162">
+        <v>11</v>
+      </c>
+      <c r="AZ162">
+        <v>8</v>
+      </c>
+      <c r="BA162">
+        <v>3</v>
+      </c>
+      <c r="BB162">
+        <v>9</v>
+      </c>
+      <c r="BC162">
+        <v>12</v>
+      </c>
+      <c r="BD162">
+        <v>2.21</v>
+      </c>
+      <c r="BE162">
+        <v>7.5</v>
+      </c>
+      <c r="BF162">
+        <v>1.85</v>
+      </c>
+      <c r="BG162">
+        <v>1.29</v>
+      </c>
+      <c r="BH162">
+        <v>3.12</v>
+      </c>
+      <c r="BI162">
+        <v>1.52</v>
+      </c>
+      <c r="BJ162">
+        <v>2.35</v>
+      </c>
+      <c r="BK162">
+        <v>1.85</v>
+      </c>
+      <c r="BL162">
+        <v>1.85</v>
+      </c>
+      <c r="BM162">
+        <v>2.35</v>
+      </c>
+      <c r="BN162">
+        <v>1.52</v>
+      </c>
+      <c r="BO162">
+        <v>3.15</v>
+      </c>
+      <c r="BP162">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7776483</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45779.63541666666</v>
+      </c>
+      <c r="F163">
+        <v>33</v>
+      </c>
+      <c r="G163" t="s">
+        <v>79</v>
+      </c>
+      <c r="H163" t="s">
+        <v>72</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>2</v>
+      </c>
+      <c r="L163">
+        <v>2</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>3</v>
+      </c>
+      <c r="O163" t="s">
+        <v>196</v>
+      </c>
+      <c r="P163" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q163">
+        <v>2.53</v>
+      </c>
+      <c r="R163">
+        <v>2.2</v>
+      </c>
+      <c r="S163">
+        <v>3.8</v>
+      </c>
+      <c r="T163">
+        <v>1.27</v>
+      </c>
+      <c r="U163">
+        <v>3.2</v>
+      </c>
+      <c r="V163">
+        <v>2.44</v>
+      </c>
+      <c r="W163">
+        <v>1.5</v>
+      </c>
+      <c r="X163">
+        <v>5.5</v>
+      </c>
+      <c r="Y163">
+        <v>1.11</v>
+      </c>
+      <c r="Z163">
+        <v>2.11</v>
+      </c>
+      <c r="AA163">
+        <v>3.45</v>
+      </c>
+      <c r="AB163">
+        <v>3.26</v>
+      </c>
+      <c r="AC163">
+        <v>1.02</v>
+      </c>
+      <c r="AD163">
+        <v>12</v>
+      </c>
+      <c r="AE163">
+        <v>1.15</v>
+      </c>
+      <c r="AF163">
+        <v>4.2</v>
+      </c>
+      <c r="AG163">
+        <v>1.67</v>
+      </c>
+      <c r="AH163">
+        <v>2</v>
+      </c>
+      <c r="AI163">
+        <v>1.63</v>
+      </c>
+      <c r="AJ163">
+        <v>2.1</v>
+      </c>
+      <c r="AK163">
+        <v>1.28</v>
+      </c>
+      <c r="AL163">
+        <v>0</v>
+      </c>
+      <c r="AM163">
+        <v>1.8</v>
+      </c>
+      <c r="AN163">
+        <v>2.25</v>
+      </c>
+      <c r="AO163">
+        <v>1.94</v>
+      </c>
+      <c r="AP163">
+        <v>2.29</v>
+      </c>
+      <c r="AQ163">
+        <v>1.82</v>
+      </c>
+      <c r="AR163">
+        <v>1.74</v>
+      </c>
+      <c r="AS163">
+        <v>1.73</v>
+      </c>
+      <c r="AT163">
+        <v>3.47</v>
+      </c>
+      <c r="AU163">
+        <v>6</v>
+      </c>
+      <c r="AV163">
+        <v>4</v>
+      </c>
+      <c r="AW163">
+        <v>16</v>
+      </c>
+      <c r="AX163">
+        <v>10</v>
+      </c>
+      <c r="AY163">
+        <v>22</v>
+      </c>
+      <c r="AZ163">
+        <v>14</v>
+      </c>
+      <c r="BA163">
+        <v>3</v>
+      </c>
+      <c r="BB163">
+        <v>4</v>
+      </c>
+      <c r="BC163">
+        <v>7</v>
+      </c>
+      <c r="BD163">
+        <v>1.55</v>
+      </c>
+      <c r="BE163">
+        <v>8.1</v>
+      </c>
+      <c r="BF163">
+        <v>2.86</v>
+      </c>
+      <c r="BG163">
+        <v>1.33</v>
+      </c>
+      <c r="BH163">
+        <v>2.81</v>
+      </c>
+      <c r="BI163">
+        <v>1.64</v>
+      </c>
+      <c r="BJ163">
+        <v>2.17</v>
+      </c>
+      <c r="BK163">
+        <v>2.07</v>
+      </c>
+      <c r="BL163">
+        <v>1.61</v>
+      </c>
+      <c r="BM163">
+        <v>2.74</v>
+      </c>
+      <c r="BN163">
+        <v>1.44</v>
+      </c>
+      <c r="BO163">
+        <v>3.45</v>
+      </c>
+      <c r="BP163">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7776480</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45779.63541666666</v>
+      </c>
+      <c r="F164">
+        <v>33</v>
+      </c>
+      <c r="G164" t="s">
+        <v>77</v>
+      </c>
+      <c r="H164" t="s">
+        <v>75</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>2</v>
+      </c>
+      <c r="N164">
+        <v>3</v>
+      </c>
+      <c r="O164" t="s">
+        <v>197</v>
+      </c>
+      <c r="P164" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q164">
+        <v>2.62</v>
+      </c>
+      <c r="R164">
+        <v>2.3</v>
+      </c>
+      <c r="S164">
+        <v>3.25</v>
+      </c>
+      <c r="T164">
+        <v>1.27</v>
+      </c>
+      <c r="U164">
+        <v>3.25</v>
+      </c>
+      <c r="V164">
+        <v>2.43</v>
+      </c>
+      <c r="W164">
+        <v>1.52</v>
+      </c>
+      <c r="X164">
+        <v>5.2</v>
+      </c>
+      <c r="Y164">
+        <v>1.13</v>
+      </c>
+      <c r="Z164">
+        <v>2.12</v>
+      </c>
+      <c r="AA164">
+        <v>3.5</v>
+      </c>
+      <c r="AB164">
+        <v>3.2</v>
+      </c>
+      <c r="AC164">
+        <v>1.01</v>
+      </c>
+      <c r="AD164">
+        <v>11</v>
+      </c>
+      <c r="AE164">
+        <v>1.13</v>
+      </c>
+      <c r="AF164">
+        <v>4.6</v>
+      </c>
+      <c r="AG164">
+        <v>1.6</v>
+      </c>
+      <c r="AH164">
+        <v>2.15</v>
+      </c>
+      <c r="AI164">
+        <v>1.55</v>
+      </c>
+      <c r="AJ164">
+        <v>2.3</v>
+      </c>
+      <c r="AK164">
+        <v>1.29</v>
+      </c>
+      <c r="AL164">
+        <v>0</v>
+      </c>
+      <c r="AM164">
+        <v>1.65</v>
+      </c>
+      <c r="AN164">
+        <v>2.13</v>
+      </c>
+      <c r="AO164">
+        <v>1.38</v>
+      </c>
+      <c r="AP164">
+        <v>2</v>
+      </c>
+      <c r="AQ164">
+        <v>1.47</v>
+      </c>
+      <c r="AR164">
+        <v>1.65</v>
+      </c>
+      <c r="AS164">
+        <v>1.65</v>
+      </c>
+      <c r="AT164">
+        <v>3.3</v>
+      </c>
+      <c r="AU164">
+        <v>6</v>
+      </c>
+      <c r="AV164">
+        <v>5</v>
+      </c>
+      <c r="AW164">
+        <v>5</v>
+      </c>
+      <c r="AX164">
+        <v>6</v>
+      </c>
+      <c r="AY164">
+        <v>11</v>
+      </c>
+      <c r="AZ164">
+        <v>13</v>
+      </c>
+      <c r="BA164">
+        <v>5</v>
+      </c>
+      <c r="BB164">
+        <v>2</v>
+      </c>
+      <c r="BC164">
+        <v>7</v>
+      </c>
+      <c r="BD164">
+        <v>2.15</v>
+      </c>
+      <c r="BE164">
+        <v>5.9</v>
+      </c>
+      <c r="BF164">
+        <v>2.03</v>
+      </c>
+      <c r="BG164">
+        <v>1.45</v>
+      </c>
+      <c r="BH164">
+        <v>2.55</v>
+      </c>
+      <c r="BI164">
+        <v>1.75</v>
+      </c>
+      <c r="BJ164">
+        <v>1.83</v>
+      </c>
+      <c r="BK164">
+        <v>2.38</v>
+      </c>
+      <c r="BL164">
+        <v>1.62</v>
+      </c>
+      <c r="BM164">
+        <v>3.28</v>
+      </c>
+      <c r="BN164">
+        <v>1.25</v>
+      </c>
+      <c r="BO164">
+        <v>3.92</v>
+      </c>
+      <c r="BP164">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="295">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -610,6 +610,9 @@
     <t>['35']</t>
   </si>
   <si>
+    <t>['13', '70', '72']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -893,6 +896,9 @@
   </si>
   <si>
     <t>['54', '76']</t>
+  </si>
+  <si>
+    <t>['24']</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP164"/>
+  <dimension ref="A1:BP165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1513,7 +1519,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1719,7 +1725,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1925,7 +1931,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2209,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ5">
         <v>1.31</v>
@@ -2749,7 +2755,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -3036,7 +3042,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3161,7 +3167,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -3573,7 +3579,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3779,7 +3785,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3985,7 +3991,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4066,7 +4072,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR14">
         <v>1.19</v>
@@ -4191,7 +4197,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4269,7 +4275,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ15">
         <v>1.06</v>
@@ -4397,7 +4403,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4603,7 +4609,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4809,7 +4815,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -5015,7 +5021,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -5221,7 +5227,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -5427,7 +5433,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5714,7 +5720,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR22">
         <v>1.91</v>
@@ -5839,7 +5845,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5917,7 +5923,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ23">
         <v>1.25</v>
@@ -6251,7 +6257,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6457,7 +6463,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6869,7 +6875,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7281,7 +7287,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7487,7 +7493,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7899,7 +7905,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -8105,7 +8111,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8186,7 +8192,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR34">
         <v>1.52</v>
@@ -8311,7 +8317,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8517,7 +8523,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8723,7 +8729,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -9135,7 +9141,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9341,7 +9347,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9419,7 +9425,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ40">
         <v>1.47</v>
@@ -9753,7 +9759,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9959,7 +9965,7 @@
         <v>84</v>
       </c>
       <c r="P43" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10165,7 +10171,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10452,7 +10458,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR45">
         <v>1.73</v>
@@ -10577,7 +10583,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10783,7 +10789,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11067,7 +11073,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ48">
         <v>1.81</v>
@@ -11195,7 +11201,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -11607,7 +11613,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11813,7 +11819,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -12225,7 +12231,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12431,7 +12437,7 @@
         <v>105</v>
       </c>
       <c r="P55" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -13255,7 +13261,7 @@
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13333,10 +13339,10 @@
         <v>1.2</v>
       </c>
       <c r="AP59">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR59">
         <v>1.44</v>
@@ -13667,7 +13673,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13873,7 +13879,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q62">
         <v>2.5</v>
@@ -14285,7 +14291,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q64">
         <v>2.4</v>
@@ -14697,7 +14703,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14903,7 +14909,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15109,7 +15115,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15190,7 +15196,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR68">
         <v>1.95</v>
@@ -15315,7 +15321,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15393,7 +15399,7 @@
         <v>1.83</v>
       </c>
       <c r="AP69">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ69">
         <v>1.82</v>
@@ -15521,7 +15527,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15727,7 +15733,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15933,7 +15939,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -16139,7 +16145,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q73">
         <v>3.4</v>
@@ -16345,7 +16351,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16551,7 +16557,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16632,7 +16638,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR75">
         <v>1.68</v>
@@ -16757,7 +16763,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q76">
         <v>2.5</v>
@@ -16963,7 +16969,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17169,7 +17175,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17247,7 +17253,7 @@
         <v>0.57</v>
       </c>
       <c r="AP78">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ78">
         <v>0.8100000000000001</v>
@@ -17375,7 +17381,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17868,7 +17874,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR81">
         <v>1.63</v>
@@ -17993,7 +17999,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18611,7 +18617,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q85">
         <v>2.63</v>
@@ -18689,7 +18695,7 @@
         <v>0.63</v>
       </c>
       <c r="AP85">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ85">
         <v>0.82</v>
@@ -19023,7 +19029,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q87">
         <v>3.1</v>
@@ -19229,7 +19235,7 @@
         <v>105</v>
       </c>
       <c r="P88" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q88">
         <v>3.1</v>
@@ -19435,7 +19441,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q89">
         <v>3.2</v>
@@ -19641,7 +19647,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19847,7 +19853,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20053,7 +20059,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20259,7 +20265,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20465,7 +20471,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20749,7 +20755,7 @@
         <v>1.22</v>
       </c>
       <c r="AP95">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ95">
         <v>1.25</v>
@@ -20877,7 +20883,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q96">
         <v>3.75</v>
@@ -21370,7 +21376,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ98">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR98">
         <v>1.61</v>
@@ -21701,7 +21707,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -22113,7 +22119,7 @@
         <v>84</v>
       </c>
       <c r="P102" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q102">
         <v>2.97</v>
@@ -22319,7 +22325,7 @@
         <v>155</v>
       </c>
       <c r="P103" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q103">
         <v>2.36</v>
@@ -22400,7 +22406,7 @@
         <v>2</v>
       </c>
       <c r="AQ103">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR103">
         <v>1.61</v>
@@ -22525,7 +22531,7 @@
         <v>156</v>
       </c>
       <c r="P104" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q104">
         <v>2.99</v>
@@ -23761,7 +23767,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -23839,7 +23845,7 @@
         <v>1.2</v>
       </c>
       <c r="AP110">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ110">
         <v>1.47</v>
@@ -23967,7 +23973,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q111">
         <v>2.32</v>
@@ -24379,7 +24385,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q113">
         <v>3.2</v>
@@ -24460,7 +24466,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ113">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR113">
         <v>1.52</v>
@@ -24663,7 +24669,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ114">
         <v>1.06</v>
@@ -24997,7 +25003,7 @@
         <v>163</v>
       </c>
       <c r="P116" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q116">
         <v>3.6</v>
@@ -25203,7 +25209,7 @@
         <v>164</v>
       </c>
       <c r="P117" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q117">
         <v>2.42</v>
@@ -25409,7 +25415,7 @@
         <v>165</v>
       </c>
       <c r="P118" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q118">
         <v>1.82</v>
@@ -25821,7 +25827,7 @@
         <v>167</v>
       </c>
       <c r="P120" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q120">
         <v>2.9</v>
@@ -26027,7 +26033,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26233,7 +26239,7 @@
         <v>84</v>
       </c>
       <c r="P122" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q122">
         <v>4.14</v>
@@ -26726,7 +26732,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ124">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR124">
         <v>1.52</v>
@@ -26851,7 +26857,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q125">
         <v>2.88</v>
@@ -26929,7 +26935,7 @@
         <v>1</v>
       </c>
       <c r="AP125">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ125">
         <v>1.31</v>
@@ -27057,7 +27063,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q126">
         <v>2.26</v>
@@ -27469,7 +27475,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q128">
         <v>2.05</v>
@@ -27881,7 +27887,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28087,7 +28093,7 @@
         <v>173</v>
       </c>
       <c r="P131" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q131">
         <v>3.4</v>
@@ -28499,7 +28505,7 @@
         <v>135</v>
       </c>
       <c r="P133" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28911,7 +28917,7 @@
         <v>175</v>
       </c>
       <c r="P135" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -29117,7 +29123,7 @@
         <v>176</v>
       </c>
       <c r="P136" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q136">
         <v>1.95</v>
@@ -29198,7 +29204,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ136">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR136">
         <v>1.72</v>
@@ -29323,7 +29329,7 @@
         <v>177</v>
       </c>
       <c r="P137" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29401,7 +29407,7 @@
         <v>2.15</v>
       </c>
       <c r="AP137">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ137">
         <v>1.82</v>
@@ -29529,7 +29535,7 @@
         <v>178</v>
       </c>
       <c r="P138" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -30147,7 +30153,7 @@
         <v>84</v>
       </c>
       <c r="P141" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q141">
         <v>2.63</v>
@@ -30353,7 +30359,7 @@
         <v>84</v>
       </c>
       <c r="P142" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q142">
         <v>3.4</v>
@@ -30765,7 +30771,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31258,7 +31264,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ146">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR146">
         <v>1.84</v>
@@ -31383,7 +31389,7 @@
         <v>185</v>
       </c>
       <c r="P147" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31589,7 +31595,7 @@
         <v>84</v>
       </c>
       <c r="P148" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q148">
         <v>4.4</v>
@@ -31795,7 +31801,7 @@
         <v>186</v>
       </c>
       <c r="P149" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q149">
         <v>4.17</v>
@@ -32079,7 +32085,7 @@
         <v>0.93</v>
       </c>
       <c r="AP150">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ150">
         <v>0.82</v>
@@ -32207,7 +32213,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32413,7 +32419,7 @@
         <v>189</v>
       </c>
       <c r="P152" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q152">
         <v>2.5</v>
@@ -32491,7 +32497,7 @@
         <v>0.71</v>
       </c>
       <c r="AP152">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ152">
         <v>0.8100000000000001</v>
@@ -32700,7 +32706,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ153">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR153">
         <v>1.69</v>
@@ -32825,7 +32831,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q154">
         <v>2</v>
@@ -33031,7 +33037,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q155">
         <v>2.06</v>
@@ -33649,7 +33655,7 @@
         <v>84</v>
       </c>
       <c r="P158" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q158">
         <v>4.2</v>
@@ -33855,7 +33861,7 @@
         <v>84</v>
       </c>
       <c r="P159" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q159">
         <v>2.25</v>
@@ -34267,7 +34273,7 @@
         <v>194</v>
       </c>
       <c r="P161" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q161">
         <v>2.9</v>
@@ -34885,7 +34891,7 @@
         <v>197</v>
       </c>
       <c r="P164" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q164">
         <v>2.62</v>
@@ -35042,6 +35048,212 @@
       </c>
       <c r="BP164">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7776479</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45780.54166666666</v>
+      </c>
+      <c r="F165">
+        <v>33</v>
+      </c>
+      <c r="G165" t="s">
+        <v>73</v>
+      </c>
+      <c r="H165" t="s">
+        <v>70</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>2</v>
+      </c>
+      <c r="L165">
+        <v>3</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>4</v>
+      </c>
+      <c r="O165" t="s">
+        <v>198</v>
+      </c>
+      <c r="P165" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q165">
+        <v>2.23</v>
+      </c>
+      <c r="R165">
+        <v>2.19</v>
+      </c>
+      <c r="S165">
+        <v>4.11</v>
+      </c>
+      <c r="T165">
+        <v>1.33</v>
+      </c>
+      <c r="U165">
+        <v>3.31</v>
+      </c>
+      <c r="V165">
+        <v>2.65</v>
+      </c>
+      <c r="W165">
+        <v>1.48</v>
+      </c>
+      <c r="X165">
+        <v>5.8</v>
+      </c>
+      <c r="Y165">
+        <v>1.1</v>
+      </c>
+      <c r="Z165">
+        <v>1.73</v>
+      </c>
+      <c r="AA165">
+        <v>3.5</v>
+      </c>
+      <c r="AB165">
+        <v>3.9</v>
+      </c>
+      <c r="AC165">
+        <v>1.01</v>
+      </c>
+      <c r="AD165">
+        <v>10.5</v>
+      </c>
+      <c r="AE165">
+        <v>1.25</v>
+      </c>
+      <c r="AF165">
+        <v>4</v>
+      </c>
+      <c r="AG165">
+        <v>1.7</v>
+      </c>
+      <c r="AH165">
+        <v>1.96</v>
+      </c>
+      <c r="AI165">
+        <v>1.72</v>
+      </c>
+      <c r="AJ165">
+        <v>2.15</v>
+      </c>
+      <c r="AK165">
+        <v>1.23</v>
+      </c>
+      <c r="AL165">
+        <v>0</v>
+      </c>
+      <c r="AM165">
+        <v>2.05</v>
+      </c>
+      <c r="AN165">
+        <v>1.44</v>
+      </c>
+      <c r="AO165">
+        <v>1</v>
+      </c>
+      <c r="AP165">
+        <v>1.53</v>
+      </c>
+      <c r="AQ165">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR165">
+        <v>1.5</v>
+      </c>
+      <c r="AS165">
+        <v>1.5</v>
+      </c>
+      <c r="AT165">
+        <v>3</v>
+      </c>
+      <c r="AU165">
+        <v>7</v>
+      </c>
+      <c r="AV165">
+        <v>2</v>
+      </c>
+      <c r="AW165">
+        <v>6</v>
+      </c>
+      <c r="AX165">
+        <v>3</v>
+      </c>
+      <c r="AY165">
+        <v>13</v>
+      </c>
+      <c r="AZ165">
+        <v>5</v>
+      </c>
+      <c r="BA165">
+        <v>4</v>
+      </c>
+      <c r="BB165">
+        <v>2</v>
+      </c>
+      <c r="BC165">
+        <v>6</v>
+      </c>
+      <c r="BD165">
+        <v>1.45</v>
+      </c>
+      <c r="BE165">
+        <v>8.4</v>
+      </c>
+      <c r="BF165">
+        <v>3.24</v>
+      </c>
+      <c r="BG165">
+        <v>1.36</v>
+      </c>
+      <c r="BH165">
+        <v>2.87</v>
+      </c>
+      <c r="BI165">
+        <v>1.6</v>
+      </c>
+      <c r="BJ165">
+        <v>2.2</v>
+      </c>
+      <c r="BK165">
+        <v>2.33</v>
+      </c>
+      <c r="BL165">
+        <v>1.75</v>
+      </c>
+      <c r="BM165">
+        <v>2.55</v>
+      </c>
+      <c r="BN165">
+        <v>1.45</v>
+      </c>
+      <c r="BO165">
+        <v>3.38</v>
+      </c>
+      <c r="BP165">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="297">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -613,6 +613,9 @@
     <t>['13', '70', '72']</t>
   </si>
   <si>
+    <t>['62', '66', '71']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -899,6 +902,9 @@
   </si>
   <si>
     <t>['24']</t>
+  </si>
+  <si>
+    <t>['10']</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP165"/>
+  <dimension ref="A1:BP166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1519,7 +1525,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1725,7 +1731,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1931,7 +1937,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2630,7 +2636,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ7">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2755,7 +2761,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -3167,7 +3173,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -3245,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ10">
         <v>1.82</v>
@@ -3579,7 +3585,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3660,7 +3666,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ12">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR12">
         <v>1.34</v>
@@ -3785,7 +3791,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3991,7 +3997,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4197,7 +4203,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4403,7 +4409,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4609,7 +4615,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4815,7 +4821,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -5021,7 +5027,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -5227,7 +5233,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -5305,7 +5311,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ20">
         <v>0.8100000000000001</v>
@@ -5433,7 +5439,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5717,7 +5723,7 @@
         <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ22">
         <v>0.9399999999999999</v>
@@ -5845,7 +5851,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5926,7 +5932,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ23">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR23">
         <v>1.3</v>
@@ -6257,7 +6263,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6463,7 +6469,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6875,7 +6881,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7287,7 +7293,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7493,7 +7499,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7905,7 +7911,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -8111,7 +8117,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8317,7 +8323,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8523,7 +8529,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8729,7 +8735,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -9013,7 +9019,7 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ38">
         <v>1.81</v>
@@ -9141,7 +9147,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9222,7 +9228,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ39">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR39">
         <v>1.16</v>
@@ -9347,7 +9353,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9759,7 +9765,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9965,7 +9971,7 @@
         <v>84</v>
       </c>
       <c r="P43" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10171,7 +10177,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10583,7 +10589,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10789,7 +10795,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10870,7 +10876,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ47">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR47">
         <v>1.79</v>
@@ -11201,7 +11207,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -11613,7 +11619,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11691,7 +11697,7 @@
         <v>0.8</v>
       </c>
       <c r="AP51">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ51">
         <v>1.47</v>
@@ -11819,7 +11825,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -12231,7 +12237,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12437,7 +12443,7 @@
         <v>105</v>
       </c>
       <c r="P55" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -13261,7 +13267,7 @@
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13545,7 +13551,7 @@
         <v>0.4</v>
       </c>
       <c r="AP60">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ60">
         <v>0.82</v>
@@ -13673,7 +13679,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13754,7 +13760,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ61">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR61">
         <v>1.87</v>
@@ -13879,7 +13885,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q62">
         <v>2.5</v>
@@ -14291,7 +14297,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q64">
         <v>2.4</v>
@@ -14703,7 +14709,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14909,7 +14915,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15115,7 +15121,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15321,7 +15327,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15527,7 +15533,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15733,7 +15739,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15811,10 +15817,10 @@
         <v>1.5</v>
       </c>
       <c r="AP71">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ71">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR71">
         <v>1.83</v>
@@ -15939,7 +15945,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -16145,7 +16151,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q73">
         <v>3.4</v>
@@ -16351,7 +16357,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16557,7 +16563,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16763,7 +16769,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q76">
         <v>2.5</v>
@@ -16844,7 +16850,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ76">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR76">
         <v>1.84</v>
@@ -16969,7 +16975,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17175,7 +17181,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17381,7 +17387,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17459,7 +17465,7 @@
         <v>1.43</v>
       </c>
       <c r="AP79">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ79">
         <v>1.06</v>
@@ -17999,7 +18005,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18286,7 +18292,7 @@
         <v>2</v>
       </c>
       <c r="AQ83">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR83">
         <v>1.62</v>
@@ -18617,7 +18623,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q85">
         <v>2.63</v>
@@ -19029,7 +19035,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q87">
         <v>3.1</v>
@@ -19235,7 +19241,7 @@
         <v>105</v>
       </c>
       <c r="P88" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q88">
         <v>3.1</v>
@@ -19441,7 +19447,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q89">
         <v>3.2</v>
@@ -19647,7 +19653,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19725,7 +19731,7 @@
         <v>1.13</v>
       </c>
       <c r="AP90">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ90">
         <v>0.88</v>
@@ -19853,7 +19859,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20059,7 +20065,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20265,7 +20271,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20471,7 +20477,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20758,7 +20764,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ95">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR95">
         <v>1.4</v>
@@ -20883,7 +20889,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q96">
         <v>3.75</v>
@@ -21373,7 +21379,7 @@
         <v>1.33</v>
       </c>
       <c r="AP98">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ98">
         <v>0.9399999999999999</v>
@@ -21707,7 +21713,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -22119,7 +22125,7 @@
         <v>84</v>
       </c>
       <c r="P102" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q102">
         <v>2.97</v>
@@ -22200,7 +22206,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ102">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR102">
         <v>1.56</v>
@@ -22325,7 +22331,7 @@
         <v>155</v>
       </c>
       <c r="P103" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q103">
         <v>2.36</v>
@@ -22531,7 +22537,7 @@
         <v>156</v>
       </c>
       <c r="P104" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q104">
         <v>2.99</v>
@@ -23767,7 +23773,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -23973,7 +23979,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q111">
         <v>2.32</v>
@@ -24051,7 +24057,7 @@
         <v>0.9</v>
       </c>
       <c r="AP111">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ111">
         <v>0.8100000000000001</v>
@@ -24385,7 +24391,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q113">
         <v>3.2</v>
@@ -25003,7 +25009,7 @@
         <v>163</v>
       </c>
       <c r="P116" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q116">
         <v>3.6</v>
@@ -25081,7 +25087,7 @@
         <v>1.73</v>
       </c>
       <c r="AP116">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ116">
         <v>1.81</v>
@@ -25209,7 +25215,7 @@
         <v>164</v>
       </c>
       <c r="P117" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q117">
         <v>2.42</v>
@@ -25415,7 +25421,7 @@
         <v>165</v>
       </c>
       <c r="P118" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q118">
         <v>1.82</v>
@@ -25702,7 +25708,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ119">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR119">
         <v>1.51</v>
@@ -25827,7 +25833,7 @@
         <v>167</v>
       </c>
       <c r="P120" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q120">
         <v>2.9</v>
@@ -26033,7 +26039,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26239,7 +26245,7 @@
         <v>84</v>
       </c>
       <c r="P122" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q122">
         <v>4.14</v>
@@ -26857,7 +26863,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q125">
         <v>2.88</v>
@@ -27063,7 +27069,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q126">
         <v>2.26</v>
@@ -27475,7 +27481,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q128">
         <v>2.05</v>
@@ -27556,7 +27562,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ128">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR128">
         <v>1.73</v>
@@ -27887,7 +27893,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28093,7 +28099,7 @@
         <v>173</v>
       </c>
       <c r="P131" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q131">
         <v>3.4</v>
@@ -28171,7 +28177,7 @@
         <v>2.25</v>
       </c>
       <c r="AP131">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ131">
         <v>1.82</v>
@@ -28505,7 +28511,7 @@
         <v>135</v>
       </c>
       <c r="P133" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28917,7 +28923,7 @@
         <v>175</v>
       </c>
       <c r="P135" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -29123,7 +29129,7 @@
         <v>176</v>
       </c>
       <c r="P136" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q136">
         <v>1.95</v>
@@ -29329,7 +29335,7 @@
         <v>177</v>
       </c>
       <c r="P137" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29535,7 +29541,7 @@
         <v>178</v>
       </c>
       <c r="P138" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -29616,7 +29622,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ138">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR138">
         <v>1.52</v>
@@ -30153,7 +30159,7 @@
         <v>84</v>
       </c>
       <c r="P141" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q141">
         <v>2.63</v>
@@ -30231,7 +30237,7 @@
         <v>0.77</v>
       </c>
       <c r="AP141">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ141">
         <v>0.82</v>
@@ -30359,7 +30365,7 @@
         <v>84</v>
       </c>
       <c r="P142" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q142">
         <v>3.4</v>
@@ -30646,7 +30652,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ143">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR143">
         <v>1.72</v>
@@ -30771,7 +30777,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31389,7 +31395,7 @@
         <v>185</v>
       </c>
       <c r="P147" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31595,7 +31601,7 @@
         <v>84</v>
       </c>
       <c r="P148" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q148">
         <v>4.4</v>
@@ -31801,7 +31807,7 @@
         <v>186</v>
       </c>
       <c r="P149" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q149">
         <v>4.17</v>
@@ -32213,7 +32219,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32291,7 +32297,7 @@
         <v>1.14</v>
       </c>
       <c r="AP151">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ151">
         <v>1.06</v>
@@ -32419,7 +32425,7 @@
         <v>189</v>
       </c>
       <c r="P152" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q152">
         <v>2.5</v>
@@ -32831,7 +32837,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q154">
         <v>2</v>
@@ -33037,7 +33043,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q155">
         <v>2.06</v>
@@ -33118,7 +33124,7 @@
         <v>2</v>
       </c>
       <c r="AQ155">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR155">
         <v>1.62</v>
@@ -33655,7 +33661,7 @@
         <v>84</v>
       </c>
       <c r="P158" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q158">
         <v>4.2</v>
@@ -33861,7 +33867,7 @@
         <v>84</v>
       </c>
       <c r="P159" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q159">
         <v>2.25</v>
@@ -34273,7 +34279,7 @@
         <v>194</v>
       </c>
       <c r="P161" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q161">
         <v>2.9</v>
@@ -34351,7 +34357,7 @@
         <v>0.87</v>
       </c>
       <c r="AP161">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ161">
         <v>0.88</v>
@@ -34891,7 +34897,7 @@
         <v>197</v>
       </c>
       <c r="P164" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q164">
         <v>2.62</v>
@@ -35097,7 +35103,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q165">
         <v>2.23</v>
@@ -35254,6 +35260,212 @@
       </c>
       <c r="BP165">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7776484</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45781.38541666666</v>
+      </c>
+      <c r="F166">
+        <v>33</v>
+      </c>
+      <c r="G166" t="s">
+        <v>78</v>
+      </c>
+      <c r="H166" t="s">
+        <v>71</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>3</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166">
+        <v>4</v>
+      </c>
+      <c r="O166" t="s">
+        <v>199</v>
+      </c>
+      <c r="P166" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q166">
+        <v>2.2</v>
+      </c>
+      <c r="R166">
+        <v>2.2</v>
+      </c>
+      <c r="S166">
+        <v>4.48</v>
+      </c>
+      <c r="T166">
+        <v>1.33</v>
+      </c>
+      <c r="U166">
+        <v>3.31</v>
+      </c>
+      <c r="V166">
+        <v>2.52</v>
+      </c>
+      <c r="W166">
+        <v>1.46</v>
+      </c>
+      <c r="X166">
+        <v>6</v>
+      </c>
+      <c r="Y166">
+        <v>1.11</v>
+      </c>
+      <c r="Z166">
+        <v>1.8</v>
+      </c>
+      <c r="AA166">
+        <v>3.4</v>
+      </c>
+      <c r="AB166">
+        <v>3.7</v>
+      </c>
+      <c r="AC166">
+        <v>1.02</v>
+      </c>
+      <c r="AD166">
+        <v>11.8</v>
+      </c>
+      <c r="AE166">
+        <v>1.22</v>
+      </c>
+      <c r="AF166">
+        <v>3.8</v>
+      </c>
+      <c r="AG166">
+        <v>1.7</v>
+      </c>
+      <c r="AH166">
+        <v>2.04</v>
+      </c>
+      <c r="AI166">
+        <v>1.65</v>
+      </c>
+      <c r="AJ166">
+        <v>2.14</v>
+      </c>
+      <c r="AK166">
+        <v>1.29</v>
+      </c>
+      <c r="AL166">
+        <v>0</v>
+      </c>
+      <c r="AM166">
+        <v>1.91</v>
+      </c>
+      <c r="AN166">
+        <v>1.25</v>
+      </c>
+      <c r="AO166">
+        <v>1.25</v>
+      </c>
+      <c r="AP166">
+        <v>1.35</v>
+      </c>
+      <c r="AQ166">
+        <v>1.18</v>
+      </c>
+      <c r="AR166">
+        <v>1.48</v>
+      </c>
+      <c r="AS166">
+        <v>1.27</v>
+      </c>
+      <c r="AT166">
+        <v>2.75</v>
+      </c>
+      <c r="AU166">
+        <v>13</v>
+      </c>
+      <c r="AV166">
+        <v>2</v>
+      </c>
+      <c r="AW166">
+        <v>11</v>
+      </c>
+      <c r="AX166">
+        <v>4</v>
+      </c>
+      <c r="AY166">
+        <v>24</v>
+      </c>
+      <c r="AZ166">
+        <v>6</v>
+      </c>
+      <c r="BA166">
+        <v>4</v>
+      </c>
+      <c r="BB166">
+        <v>3</v>
+      </c>
+      <c r="BC166">
+        <v>7</v>
+      </c>
+      <c r="BD166">
+        <v>1.64</v>
+      </c>
+      <c r="BE166">
+        <v>7.6</v>
+      </c>
+      <c r="BF166">
+        <v>2.51</v>
+      </c>
+      <c r="BG166">
+        <v>1.47</v>
+      </c>
+      <c r="BH166">
+        <v>2.5</v>
+      </c>
+      <c r="BI166">
+        <v>1.83</v>
+      </c>
+      <c r="BJ166">
+        <v>1.87</v>
+      </c>
+      <c r="BK166">
+        <v>2.2</v>
+      </c>
+      <c r="BL166">
+        <v>1.55</v>
+      </c>
+      <c r="BM166">
+        <v>3.12</v>
+      </c>
+      <c r="BN166">
+        <v>1.26</v>
+      </c>
+      <c r="BO166">
+        <v>4.33</v>
+      </c>
+      <c r="BP166">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="301">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -616,6 +616,12 @@
     <t>['62', '66', '71']</t>
   </si>
   <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['46', '88']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -905,6 +911,12 @@
   </si>
   <si>
     <t>['10']</t>
+  </si>
+  <si>
+    <t>['4', '45']</t>
+  </si>
+  <si>
+    <t>['34', '43', '75']</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP166"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1525,7 +1537,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1603,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ2">
         <v>1.47</v>
@@ -1731,7 +1743,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1809,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ3">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1937,7 +1949,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2430,7 +2442,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ6">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2633,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ7">
         <v>1.18</v>
@@ -2761,7 +2773,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -3173,7 +3185,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -3585,7 +3597,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3791,7 +3803,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3997,7 +4009,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4203,7 +4215,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4284,7 +4296,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ15">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR15">
         <v>1.72</v>
@@ -4409,7 +4421,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4615,7 +4627,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4693,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ17">
         <v>1.82</v>
@@ -4821,7 +4833,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -5027,7 +5039,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -5105,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ19">
         <v>0.88</v>
@@ -5233,7 +5245,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -5314,7 +5326,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ20">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR20">
         <v>1.99</v>
@@ -5439,7 +5451,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5517,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ21">
         <v>0.82</v>
@@ -5851,7 +5863,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6138,7 +6150,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ24">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR24">
         <v>1.47</v>
@@ -6263,7 +6275,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6469,7 +6481,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6550,7 +6562,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ26">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR26">
         <v>1.45</v>
@@ -6753,7 +6765,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ27">
         <v>0.82</v>
@@ -6881,7 +6893,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7293,7 +7305,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7371,7 +7383,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ30">
         <v>1.81</v>
@@ -7499,7 +7511,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7783,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ32">
         <v>1.31</v>
@@ -7911,7 +7923,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7992,7 +8004,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ33">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR33">
         <v>1.62</v>
@@ -8117,7 +8129,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8195,7 +8207,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ34">
         <v>0.9399999999999999</v>
@@ -8323,7 +8335,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8529,7 +8541,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8735,7 +8747,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8813,10 +8825,10 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ37">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR37">
         <v>1.5</v>
@@ -9147,7 +9159,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9353,7 +9365,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9765,7 +9777,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9843,10 +9855,10 @@
         <v>1.75</v>
       </c>
       <c r="AP42">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ42">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR42">
         <v>1.36</v>
@@ -9971,7 +9983,7 @@
         <v>84</v>
       </c>
       <c r="P43" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10049,7 +10061,7 @@
         <v>0.25</v>
       </c>
       <c r="AP43">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ43">
         <v>1.31</v>
@@ -10177,7 +10189,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10589,7 +10601,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10795,7 +10807,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10873,7 +10885,7 @@
         <v>2.25</v>
       </c>
       <c r="AP47">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ47">
         <v>1.18</v>
@@ -11207,7 +11219,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -11288,7 +11300,7 @@
         <v>2</v>
       </c>
       <c r="AQ49">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR49">
         <v>1.57</v>
@@ -11619,7 +11631,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11825,7 +11837,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -11903,10 +11915,10 @@
         <v>1.4</v>
       </c>
       <c r="AP52">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ52">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR52">
         <v>1.69</v>
@@ -12237,7 +12249,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12315,7 +12327,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ54">
         <v>1.82</v>
@@ -12443,7 +12455,7 @@
         <v>105</v>
       </c>
       <c r="P55" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12521,7 +12533,7 @@
         <v>1.4</v>
       </c>
       <c r="AP55">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ55">
         <v>0.88</v>
@@ -13142,7 +13154,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ58">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR58">
         <v>1.33</v>
@@ -13267,7 +13279,7 @@
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13679,7 +13691,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13885,7 +13897,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q62">
         <v>2.5</v>
@@ -13963,7 +13975,7 @@
         <v>0.67</v>
       </c>
       <c r="AP62">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ62">
         <v>1.31</v>
@@ -14169,7 +14181,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ63">
         <v>0.88</v>
@@ -14297,7 +14309,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q64">
         <v>2.4</v>
@@ -14375,7 +14387,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ64">
         <v>0.82</v>
@@ -14709,7 +14721,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14915,7 +14927,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -14993,10 +15005,10 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ67">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR67">
         <v>1.46</v>
@@ -15121,7 +15133,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15327,7 +15339,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15533,7 +15545,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15614,7 +15626,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ70">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR70">
         <v>1.92</v>
@@ -15739,7 +15751,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15945,7 +15957,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -16151,7 +16163,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q73">
         <v>3.4</v>
@@ -16229,7 +16241,7 @@
         <v>1.71</v>
       </c>
       <c r="AP73">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ73">
         <v>1.81</v>
@@ -16357,7 +16369,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16563,7 +16575,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16641,7 +16653,7 @@
         <v>1.29</v>
       </c>
       <c r="AP75">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ75">
         <v>0.9399999999999999</v>
@@ -16769,7 +16781,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q76">
         <v>2.5</v>
@@ -16975,7 +16987,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17181,7 +17193,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17262,7 +17274,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ78">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR78">
         <v>1.35</v>
@@ -17387,7 +17399,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17468,7 +17480,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ79">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR79">
         <v>1.71</v>
@@ -18005,7 +18017,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18623,7 +18635,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q85">
         <v>2.63</v>
@@ -18907,10 +18919,10 @@
         <v>0.63</v>
       </c>
       <c r="AP86">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ86">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR86">
         <v>1.62</v>
@@ -19035,7 +19047,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q87">
         <v>3.1</v>
@@ -19113,7 +19125,7 @@
         <v>1.88</v>
       </c>
       <c r="AP87">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ87">
         <v>1.81</v>
@@ -19241,7 +19253,7 @@
         <v>105</v>
       </c>
       <c r="P88" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q88">
         <v>3.1</v>
@@ -19319,7 +19331,7 @@
         <v>1.88</v>
       </c>
       <c r="AP88">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ88">
         <v>1.82</v>
@@ -19447,7 +19459,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q89">
         <v>3.2</v>
@@ -19528,7 +19540,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ89">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR89">
         <v>1.97</v>
@@ -19653,7 +19665,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19859,7 +19871,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19937,7 +19949,7 @@
         <v>0.75</v>
       </c>
       <c r="AP91">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ91">
         <v>1.47</v>
@@ -20065,7 +20077,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20271,7 +20283,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20477,7 +20489,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20889,7 +20901,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q96">
         <v>3.75</v>
@@ -20967,7 +20979,7 @@
         <v>1.78</v>
       </c>
       <c r="AP96">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ96">
         <v>1.81</v>
@@ -21173,10 +21185,10 @@
         <v>1.11</v>
       </c>
       <c r="AP97">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ97">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR97">
         <v>1.69</v>
@@ -21588,7 +21600,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ99">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR99">
         <v>1.93</v>
@@ -21713,7 +21725,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -21997,7 +22009,7 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ101">
         <v>1.47</v>
@@ -22125,7 +22137,7 @@
         <v>84</v>
       </c>
       <c r="P102" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q102">
         <v>2.97</v>
@@ -22331,7 +22343,7 @@
         <v>155</v>
       </c>
       <c r="P103" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q103">
         <v>2.36</v>
@@ -22537,7 +22549,7 @@
         <v>156</v>
       </c>
       <c r="P104" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q104">
         <v>2.99</v>
@@ -22615,7 +22627,7 @@
         <v>2.1</v>
       </c>
       <c r="AP104">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ104">
         <v>1.82</v>
@@ -23233,7 +23245,7 @@
         <v>0.8</v>
       </c>
       <c r="AP107">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ107">
         <v>0.82</v>
@@ -23439,10 +23451,10 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ108">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR108">
         <v>1.58</v>
@@ -23773,7 +23785,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -23979,7 +23991,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q111">
         <v>2.32</v>
@@ -24060,7 +24072,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ111">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR111">
         <v>1.61</v>
@@ -24391,7 +24403,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q113">
         <v>3.2</v>
@@ -24469,7 +24481,7 @@
         <v>1.09</v>
       </c>
       <c r="AP113">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ113">
         <v>0.9399999999999999</v>
@@ -24678,7 +24690,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ114">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR114">
         <v>1.42</v>
@@ -25009,7 +25021,7 @@
         <v>163</v>
       </c>
       <c r="P116" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q116">
         <v>3.6</v>
@@ -25215,7 +25227,7 @@
         <v>164</v>
       </c>
       <c r="P117" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q117">
         <v>2.42</v>
@@ -25293,7 +25305,7 @@
         <v>1.09</v>
       </c>
       <c r="AP117">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ117">
         <v>1.31</v>
@@ -25421,7 +25433,7 @@
         <v>165</v>
       </c>
       <c r="P118" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q118">
         <v>1.82</v>
@@ -25502,7 +25514,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ118">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR118">
         <v>1.72</v>
@@ -25833,7 +25845,7 @@
         <v>167</v>
       </c>
       <c r="P120" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q120">
         <v>2.9</v>
@@ -25911,7 +25923,7 @@
         <v>1.09</v>
       </c>
       <c r="AP120">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ120">
         <v>0.88</v>
@@ -26039,7 +26051,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26245,7 +26257,7 @@
         <v>84</v>
       </c>
       <c r="P122" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q122">
         <v>4.14</v>
@@ -26326,7 +26338,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ122">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR122">
         <v>1.65</v>
@@ -26529,7 +26541,7 @@
         <v>0.75</v>
       </c>
       <c r="AP123">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ123">
         <v>0.82</v>
@@ -26863,7 +26875,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q125">
         <v>2.88</v>
@@ -27069,7 +27081,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q126">
         <v>2.26</v>
@@ -27481,7 +27493,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q128">
         <v>2.05</v>
@@ -27559,7 +27571,7 @@
         <v>1.17</v>
       </c>
       <c r="AP128">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ128">
         <v>1.18</v>
@@ -27765,10 +27777,10 @@
         <v>0.83</v>
       </c>
       <c r="AP129">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ129">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR129">
         <v>1.49</v>
@@ -27893,7 +27905,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28099,7 +28111,7 @@
         <v>173</v>
       </c>
       <c r="P131" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q131">
         <v>3.4</v>
@@ -28511,7 +28523,7 @@
         <v>135</v>
       </c>
       <c r="P133" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28589,7 +28601,7 @@
         <v>1.15</v>
       </c>
       <c r="AP133">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ133">
         <v>1.31</v>
@@ -28923,7 +28935,7 @@
         <v>175</v>
       </c>
       <c r="P135" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -29004,7 +29016,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ135">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR135">
         <v>1.53</v>
@@ -29129,7 +29141,7 @@
         <v>176</v>
       </c>
       <c r="P136" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q136">
         <v>1.95</v>
@@ -29335,7 +29347,7 @@
         <v>177</v>
       </c>
       <c r="P137" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29541,7 +29553,7 @@
         <v>178</v>
       </c>
       <c r="P138" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -29619,7 +29631,7 @@
         <v>1.31</v>
       </c>
       <c r="AP138">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ138">
         <v>1.18</v>
@@ -29828,7 +29840,7 @@
         <v>2</v>
       </c>
       <c r="AQ139">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR139">
         <v>1.58</v>
@@ -30031,7 +30043,7 @@
         <v>1.77</v>
       </c>
       <c r="AP140">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ140">
         <v>1.81</v>
@@ -30159,7 +30171,7 @@
         <v>84</v>
       </c>
       <c r="P141" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q141">
         <v>2.63</v>
@@ -30365,7 +30377,7 @@
         <v>84</v>
       </c>
       <c r="P142" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q142">
         <v>3.4</v>
@@ -30777,7 +30789,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31395,7 +31407,7 @@
         <v>185</v>
       </c>
       <c r="P147" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31473,7 +31485,7 @@
         <v>1.27</v>
       </c>
       <c r="AP147">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ147">
         <v>1.47</v>
@@ -31601,7 +31613,7 @@
         <v>84</v>
       </c>
       <c r="P148" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q148">
         <v>4.4</v>
@@ -31807,7 +31819,7 @@
         <v>186</v>
       </c>
       <c r="P149" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q149">
         <v>4.17</v>
@@ -31885,7 +31897,7 @@
         <v>2.07</v>
       </c>
       <c r="AP149">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ149">
         <v>1.82</v>
@@ -32219,7 +32231,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32300,7 +32312,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ151">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR151">
         <v>1.55</v>
@@ -32425,7 +32437,7 @@
         <v>189</v>
       </c>
       <c r="P152" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q152">
         <v>2.5</v>
@@ -32506,7 +32518,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ152">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR152">
         <v>1.5</v>
@@ -32709,7 +32721,7 @@
         <v>1</v>
       </c>
       <c r="AP153">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ153">
         <v>0.9399999999999999</v>
@@ -32837,7 +32849,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q154">
         <v>2</v>
@@ -33043,7 +33055,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q155">
         <v>2.06</v>
@@ -33533,7 +33545,7 @@
         <v>2</v>
       </c>
       <c r="AP157">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ157">
         <v>1.82</v>
@@ -33661,7 +33673,7 @@
         <v>84</v>
       </c>
       <c r="P158" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q158">
         <v>4.2</v>
@@ -33739,7 +33751,7 @@
         <v>1.73</v>
       </c>
       <c r="AP158">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ158">
         <v>1.81</v>
@@ -33867,7 +33879,7 @@
         <v>84</v>
       </c>
       <c r="P159" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q159">
         <v>2.25</v>
@@ -33945,10 +33957,10 @@
         <v>0.67</v>
       </c>
       <c r="AP159">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ159">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR159">
         <v>1.69</v>
@@ -34154,7 +34166,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ160">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR160">
         <v>1.83</v>
@@ -34279,7 +34291,7 @@
         <v>194</v>
       </c>
       <c r="P161" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q161">
         <v>2.9</v>
@@ -34897,7 +34909,7 @@
         <v>197</v>
       </c>
       <c r="P164" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q164">
         <v>2.62</v>
@@ -35103,7 +35115,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q165">
         <v>2.23</v>
@@ -35309,7 +35321,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q166">
         <v>2.2</v>
@@ -35465,6 +35477,624 @@
         <v>4.33</v>
       </c>
       <c r="BP166">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7776486</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45786.60416666666</v>
+      </c>
+      <c r="F167">
+        <v>34</v>
+      </c>
+      <c r="G167" t="s">
+        <v>70</v>
+      </c>
+      <c r="H167" t="s">
+        <v>77</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>2</v>
+      </c>
+      <c r="K167">
+        <v>3</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>2</v>
+      </c>
+      <c r="N167">
+        <v>3</v>
+      </c>
+      <c r="O167" t="s">
+        <v>200</v>
+      </c>
+      <c r="P167" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q167">
+        <v>3.54</v>
+      </c>
+      <c r="R167">
+        <v>2.5</v>
+      </c>
+      <c r="S167">
+        <v>2.5</v>
+      </c>
+      <c r="T167">
+        <v>1.22</v>
+      </c>
+      <c r="U167">
+        <v>3.6</v>
+      </c>
+      <c r="V167">
+        <v>2.1</v>
+      </c>
+      <c r="W167">
+        <v>1.62</v>
+      </c>
+      <c r="X167">
+        <v>4.6</v>
+      </c>
+      <c r="Y167">
+        <v>1.16</v>
+      </c>
+      <c r="Z167">
+        <v>2.77</v>
+      </c>
+      <c r="AA167">
+        <v>3.27</v>
+      </c>
+      <c r="AB167">
+        <v>2.2</v>
+      </c>
+      <c r="AC167">
+        <v>1</v>
+      </c>
+      <c r="AD167">
+        <v>12</v>
+      </c>
+      <c r="AE167">
+        <v>1.14</v>
+      </c>
+      <c r="AF167">
+        <v>5</v>
+      </c>
+      <c r="AG167">
+        <v>1.59</v>
+      </c>
+      <c r="AH167">
+        <v>2.21</v>
+      </c>
+      <c r="AI167">
+        <v>1.4</v>
+      </c>
+      <c r="AJ167">
+        <v>2.63</v>
+      </c>
+      <c r="AK167">
+        <v>1.72</v>
+      </c>
+      <c r="AL167">
+        <v>0</v>
+      </c>
+      <c r="AM167">
+        <v>1.3</v>
+      </c>
+      <c r="AN167">
+        <v>1.38</v>
+      </c>
+      <c r="AO167">
+        <v>1.06</v>
+      </c>
+      <c r="AP167">
+        <v>1.29</v>
+      </c>
+      <c r="AQ167">
+        <v>1.18</v>
+      </c>
+      <c r="AR167">
+        <v>1.58</v>
+      </c>
+      <c r="AS167">
+        <v>1.57</v>
+      </c>
+      <c r="AT167">
+        <v>3.15</v>
+      </c>
+      <c r="AU167">
+        <v>3</v>
+      </c>
+      <c r="AV167">
+        <v>7</v>
+      </c>
+      <c r="AW167">
+        <v>7</v>
+      </c>
+      <c r="AX167">
+        <v>8</v>
+      </c>
+      <c r="AY167">
+        <v>10</v>
+      </c>
+      <c r="AZ167">
+        <v>15</v>
+      </c>
+      <c r="BA167">
+        <v>5</v>
+      </c>
+      <c r="BB167">
+        <v>1</v>
+      </c>
+      <c r="BC167">
+        <v>6</v>
+      </c>
+      <c r="BD167">
+        <v>2.42</v>
+      </c>
+      <c r="BE167">
+        <v>7.4</v>
+      </c>
+      <c r="BF167">
+        <v>1.78</v>
+      </c>
+      <c r="BG167">
+        <v>1.42</v>
+      </c>
+      <c r="BH167">
+        <v>2.63</v>
+      </c>
+      <c r="BI167">
+        <v>1.75</v>
+      </c>
+      <c r="BJ167">
+        <v>1.97</v>
+      </c>
+      <c r="BK167">
+        <v>2.1</v>
+      </c>
+      <c r="BL167">
+        <v>1.65</v>
+      </c>
+      <c r="BM167">
+        <v>2.97</v>
+      </c>
+      <c r="BN167">
+        <v>1.39</v>
+      </c>
+      <c r="BO167">
+        <v>3.75</v>
+      </c>
+      <c r="BP167">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7776487</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45786.60416666666</v>
+      </c>
+      <c r="F168">
+        <v>34</v>
+      </c>
+      <c r="G168" t="s">
+        <v>71</v>
+      </c>
+      <c r="H168" t="s">
+        <v>76</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>2</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
+        <v>2</v>
+      </c>
+      <c r="M168">
+        <v>3</v>
+      </c>
+      <c r="N168">
+        <v>5</v>
+      </c>
+      <c r="O168" t="s">
+        <v>201</v>
+      </c>
+      <c r="P168" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q168">
+        <v>3.05</v>
+      </c>
+      <c r="R168">
+        <v>2.25</v>
+      </c>
+      <c r="S168">
+        <v>3.1</v>
+      </c>
+      <c r="T168">
+        <v>1.29</v>
+      </c>
+      <c r="U168">
+        <v>3.26</v>
+      </c>
+      <c r="V168">
+        <v>2.34</v>
+      </c>
+      <c r="W168">
+        <v>1.53</v>
+      </c>
+      <c r="X168">
+        <v>5.25</v>
+      </c>
+      <c r="Y168">
+        <v>1.12</v>
+      </c>
+      <c r="Z168">
+        <v>2.36</v>
+      </c>
+      <c r="AA168">
+        <v>3.21</v>
+      </c>
+      <c r="AB168">
+        <v>2.6</v>
+      </c>
+      <c r="AC168">
+        <v>1.01</v>
+      </c>
+      <c r="AD168">
+        <v>11</v>
+      </c>
+      <c r="AE168">
+        <v>1.19</v>
+      </c>
+      <c r="AF168">
+        <v>4.1</v>
+      </c>
+      <c r="AG168">
+        <v>1.69</v>
+      </c>
+      <c r="AH168">
+        <v>2.04</v>
+      </c>
+      <c r="AI168">
+        <v>1.55</v>
+      </c>
+      <c r="AJ168">
+        <v>2.3</v>
+      </c>
+      <c r="AK168">
+        <v>1.29</v>
+      </c>
+      <c r="AL168">
+        <v>0</v>
+      </c>
+      <c r="AM168">
+        <v>1.53</v>
+      </c>
+      <c r="AN168">
+        <v>0.5</v>
+      </c>
+      <c r="AO168">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP168">
+        <v>0.47</v>
+      </c>
+      <c r="AQ168">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR168">
+        <v>1.51</v>
+      </c>
+      <c r="AS168">
+        <v>1.28</v>
+      </c>
+      <c r="AT168">
+        <v>2.79</v>
+      </c>
+      <c r="AU168">
+        <v>6</v>
+      </c>
+      <c r="AV168">
+        <v>5</v>
+      </c>
+      <c r="AW168">
+        <v>10</v>
+      </c>
+      <c r="AX168">
+        <v>5</v>
+      </c>
+      <c r="AY168">
+        <v>16</v>
+      </c>
+      <c r="AZ168">
+        <v>10</v>
+      </c>
+      <c r="BA168">
+        <v>6</v>
+      </c>
+      <c r="BB168">
+        <v>3</v>
+      </c>
+      <c r="BC168">
+        <v>9</v>
+      </c>
+      <c r="BD168">
+        <v>1.64</v>
+      </c>
+      <c r="BE168">
+        <v>7.8</v>
+      </c>
+      <c r="BF168">
+        <v>2.46</v>
+      </c>
+      <c r="BG168">
+        <v>1.28</v>
+      </c>
+      <c r="BH168">
+        <v>3.2</v>
+      </c>
+      <c r="BI168">
+        <v>1.52</v>
+      </c>
+      <c r="BJ168">
+        <v>2.37</v>
+      </c>
+      <c r="BK168">
+        <v>1.85</v>
+      </c>
+      <c r="BL168">
+        <v>1.88</v>
+      </c>
+      <c r="BM168">
+        <v>2.35</v>
+      </c>
+      <c r="BN168">
+        <v>1.55</v>
+      </c>
+      <c r="BO168">
+        <v>3.07</v>
+      </c>
+      <c r="BP168">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7776488</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45786.60416666666</v>
+      </c>
+      <c r="F169">
+        <v>34</v>
+      </c>
+      <c r="G169" t="s">
+        <v>75</v>
+      </c>
+      <c r="H169" t="s">
+        <v>73</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>2</v>
+      </c>
+      <c r="O169" t="s">
+        <v>113</v>
+      </c>
+      <c r="P169" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q169">
+        <v>2.3</v>
+      </c>
+      <c r="R169">
+        <v>2.26</v>
+      </c>
+      <c r="S169">
+        <v>3.5</v>
+      </c>
+      <c r="T169">
+        <v>1.33</v>
+      </c>
+      <c r="U169">
+        <v>3</v>
+      </c>
+      <c r="V169">
+        <v>2.3</v>
+      </c>
+      <c r="W169">
+        <v>1.55</v>
+      </c>
+      <c r="X169">
+        <v>5.1</v>
+      </c>
+      <c r="Y169">
+        <v>1.1</v>
+      </c>
+      <c r="Z169">
+        <v>2.09</v>
+      </c>
+      <c r="AA169">
+        <v>3.23</v>
+      </c>
+      <c r="AB169">
+        <v>3.03</v>
+      </c>
+      <c r="AC169">
+        <v>1.04</v>
+      </c>
+      <c r="AD169">
+        <v>10.5</v>
+      </c>
+      <c r="AE169">
+        <v>1.25</v>
+      </c>
+      <c r="AF169">
+        <v>3.75</v>
+      </c>
+      <c r="AG169">
+        <v>1.74</v>
+      </c>
+      <c r="AH169">
+        <v>1.96</v>
+      </c>
+      <c r="AI169">
+        <v>1.62</v>
+      </c>
+      <c r="AJ169">
+        <v>2.2</v>
+      </c>
+      <c r="AK169">
+        <v>1.28</v>
+      </c>
+      <c r="AL169">
+        <v>0</v>
+      </c>
+      <c r="AM169">
+        <v>1.68</v>
+      </c>
+      <c r="AN169">
+        <v>1.31</v>
+      </c>
+      <c r="AO169">
+        <v>0.88</v>
+      </c>
+      <c r="AP169">
+        <v>1.29</v>
+      </c>
+      <c r="AQ169">
+        <v>0.88</v>
+      </c>
+      <c r="AR169">
+        <v>1.7</v>
+      </c>
+      <c r="AS169">
+        <v>1.53</v>
+      </c>
+      <c r="AT169">
+        <v>3.23</v>
+      </c>
+      <c r="AU169">
+        <v>3</v>
+      </c>
+      <c r="AV169">
+        <v>4</v>
+      </c>
+      <c r="AW169">
+        <v>2</v>
+      </c>
+      <c r="AX169">
+        <v>1</v>
+      </c>
+      <c r="AY169">
+        <v>5</v>
+      </c>
+      <c r="AZ169">
+        <v>5</v>
+      </c>
+      <c r="BA169">
+        <v>2</v>
+      </c>
+      <c r="BB169">
+        <v>0</v>
+      </c>
+      <c r="BC169">
+        <v>2</v>
+      </c>
+      <c r="BD169">
+        <v>1.64</v>
+      </c>
+      <c r="BE169">
+        <v>7.9</v>
+      </c>
+      <c r="BF169">
+        <v>2.62</v>
+      </c>
+      <c r="BG169">
+        <v>1.41</v>
+      </c>
+      <c r="BH169">
+        <v>2.75</v>
+      </c>
+      <c r="BI169">
+        <v>1.65</v>
+      </c>
+      <c r="BJ169">
+        <v>2.1</v>
+      </c>
+      <c r="BK169">
+        <v>2.05</v>
+      </c>
+      <c r="BL169">
+        <v>1.67</v>
+      </c>
+      <c r="BM169">
+        <v>3.08</v>
+      </c>
+      <c r="BN169">
+        <v>1.28</v>
+      </c>
+      <c r="BO169">
+        <v>4.4</v>
+      </c>
+      <c r="BP169">
         <v>1.14</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
@@ -35844,13 +35844,13 @@
         <v>10</v>
       </c>
       <c r="BA168">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB168">
         <v>3</v>
       </c>
       <c r="BC168">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD168">
         <v>1.64</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="303">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -622,6 +622,9 @@
     <t>['46', '88']</t>
   </si>
   <si>
+    <t>['18', '33']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -917,6 +920,9 @@
   </si>
   <si>
     <t>['34', '43', '75']</t>
+  </si>
+  <si>
+    <t>['41', '42', '57', '59']</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1537,7 +1543,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1743,7 +1749,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1949,7 +1955,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2027,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ4">
         <v>1.81</v>
@@ -2236,7 +2242,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ5">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2773,7 +2779,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -3185,7 +3191,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -3597,7 +3603,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3803,7 +3809,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -4009,7 +4015,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4087,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ14">
         <v>0.9399999999999999</v>
@@ -4215,7 +4221,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4421,7 +4427,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4502,7 +4508,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ16">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR16">
         <v>1.95</v>
@@ -4627,7 +4633,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4833,7 +4839,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -5039,7 +5045,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -5245,7 +5251,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -5451,7 +5457,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5863,7 +5869,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6147,7 +6153,7 @@
         <v>2</v>
       </c>
       <c r="AP24">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ24">
         <v>1.18</v>
@@ -6275,7 +6281,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6481,7 +6487,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6893,7 +6899,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7180,7 +7186,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR29">
         <v>1.46</v>
@@ -7305,7 +7311,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7511,7 +7517,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7589,7 +7595,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ31">
         <v>0.88</v>
@@ -7798,7 +7804,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ32">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR32">
         <v>1.43</v>
@@ -7923,7 +7929,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -8129,7 +8135,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8335,7 +8341,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8541,7 +8547,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8747,7 +8753,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -9159,7 +9165,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9237,7 +9243,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ39">
         <v>1.18</v>
@@ -9365,7 +9371,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9777,7 +9783,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9983,7 +9989,7 @@
         <v>84</v>
       </c>
       <c r="P43" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10064,7 +10070,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ43">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR43">
         <v>1.64</v>
@@ -10189,7 +10195,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10601,7 +10607,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10807,7 +10813,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11219,7 +11225,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -11503,7 +11509,7 @@
         <v>0.25</v>
       </c>
       <c r="AP50">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ50">
         <v>0.82</v>
@@ -11631,7 +11637,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11837,7 +11843,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -12124,7 +12130,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ53">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR53">
         <v>1.54</v>
@@ -12249,7 +12255,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12455,7 +12461,7 @@
         <v>105</v>
       </c>
       <c r="P55" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -13151,7 +13157,7 @@
         <v>0.8</v>
       </c>
       <c r="AP58">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ58">
         <v>0.9399999999999999</v>
@@ -13279,7 +13285,7 @@
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13691,7 +13697,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13897,7 +13903,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q62">
         <v>2.5</v>
@@ -13978,7 +13984,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ62">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR62">
         <v>1.61</v>
@@ -14309,7 +14315,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q64">
         <v>2.4</v>
@@ -14721,7 +14727,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14927,7 +14933,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15133,7 +15139,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15339,7 +15345,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15545,7 +15551,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15751,7 +15757,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15957,7 +15963,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -16163,7 +16169,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q73">
         <v>3.4</v>
@@ -16369,7 +16375,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16447,10 +16453,10 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ74">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR74">
         <v>1.53</v>
@@ -16575,7 +16581,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16781,7 +16787,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q76">
         <v>2.5</v>
@@ -16987,7 +16993,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17193,7 +17199,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17399,7 +17405,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -18017,7 +18023,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18098,7 +18104,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ82">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR82">
         <v>1.78</v>
@@ -18507,7 +18513,7 @@
         <v>0.86</v>
       </c>
       <c r="AP84">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ84">
         <v>1.47</v>
@@ -18635,7 +18641,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q85">
         <v>2.63</v>
@@ -19047,7 +19053,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q87">
         <v>3.1</v>
@@ -19253,7 +19259,7 @@
         <v>105</v>
       </c>
       <c r="P88" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q88">
         <v>3.1</v>
@@ -19459,7 +19465,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q89">
         <v>3.2</v>
@@ -19665,7 +19671,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19871,7 +19877,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20077,7 +20083,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20283,7 +20289,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20364,7 +20370,7 @@
         <v>2</v>
       </c>
       <c r="AQ93">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR93">
         <v>1.57</v>
@@ -20489,7 +20495,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20901,7 +20907,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q96">
         <v>3.75</v>
@@ -21725,7 +21731,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -21803,7 +21809,7 @@
         <v>1.33</v>
       </c>
       <c r="AP100">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ100">
         <v>0.88</v>
@@ -22137,7 +22143,7 @@
         <v>84</v>
       </c>
       <c r="P102" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q102">
         <v>2.97</v>
@@ -22343,7 +22349,7 @@
         <v>155</v>
       </c>
       <c r="P103" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q103">
         <v>2.36</v>
@@ -22549,7 +22555,7 @@
         <v>156</v>
       </c>
       <c r="P104" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q104">
         <v>2.99</v>
@@ -22836,7 +22842,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ105">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR105">
         <v>1.9</v>
@@ -23657,7 +23663,7 @@
         <v>1.9</v>
       </c>
       <c r="AP109">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ109">
         <v>1.81</v>
@@ -23785,7 +23791,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -23991,7 +23997,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q111">
         <v>2.32</v>
@@ -24403,7 +24409,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q113">
         <v>3.2</v>
@@ -25021,7 +25027,7 @@
         <v>163</v>
       </c>
       <c r="P116" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q116">
         <v>3.6</v>
@@ -25227,7 +25233,7 @@
         <v>164</v>
       </c>
       <c r="P117" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q117">
         <v>2.42</v>
@@ -25308,7 +25314,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ117">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR117">
         <v>1.73</v>
@@ -25433,7 +25439,7 @@
         <v>165</v>
       </c>
       <c r="P118" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q118">
         <v>1.82</v>
@@ -25717,7 +25723,7 @@
         <v>1.27</v>
       </c>
       <c r="AP119">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ119">
         <v>1.18</v>
@@ -25845,7 +25851,7 @@
         <v>167</v>
       </c>
       <c r="P120" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q120">
         <v>2.9</v>
@@ -26051,7 +26057,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26257,7 +26263,7 @@
         <v>84</v>
       </c>
       <c r="P122" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q122">
         <v>4.14</v>
@@ -26747,7 +26753,7 @@
         <v>1.25</v>
       </c>
       <c r="AP124">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ124">
         <v>0.9399999999999999</v>
@@ -26875,7 +26881,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q125">
         <v>2.88</v>
@@ -26956,7 +26962,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ125">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR125">
         <v>1.44</v>
@@ -27081,7 +27087,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q126">
         <v>2.26</v>
@@ -27493,7 +27499,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q128">
         <v>2.05</v>
@@ -27905,7 +27911,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28111,7 +28117,7 @@
         <v>173</v>
       </c>
       <c r="P131" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q131">
         <v>3.4</v>
@@ -28523,7 +28529,7 @@
         <v>135</v>
       </c>
       <c r="P133" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28604,7 +28610,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ133">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR133">
         <v>1.51</v>
@@ -28935,7 +28941,7 @@
         <v>175</v>
       </c>
       <c r="P135" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -29013,7 +29019,7 @@
         <v>1.15</v>
       </c>
       <c r="AP135">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ135">
         <v>1.18</v>
@@ -29141,7 +29147,7 @@
         <v>176</v>
       </c>
       <c r="P136" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q136">
         <v>1.95</v>
@@ -29347,7 +29353,7 @@
         <v>177</v>
       </c>
       <c r="P137" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29553,7 +29559,7 @@
         <v>178</v>
       </c>
       <c r="P138" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -30171,7 +30177,7 @@
         <v>84</v>
       </c>
       <c r="P141" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q141">
         <v>2.63</v>
@@ -30377,7 +30383,7 @@
         <v>84</v>
       </c>
       <c r="P142" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q142">
         <v>3.4</v>
@@ -30458,7 +30464,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ142">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR142">
         <v>1.59</v>
@@ -30789,7 +30795,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -30867,7 +30873,7 @@
         <v>1.29</v>
       </c>
       <c r="AP144">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ144">
         <v>1.47</v>
@@ -31407,7 +31413,7 @@
         <v>185</v>
       </c>
       <c r="P147" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31613,7 +31619,7 @@
         <v>84</v>
       </c>
       <c r="P148" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q148">
         <v>4.4</v>
@@ -31819,7 +31825,7 @@
         <v>186</v>
       </c>
       <c r="P149" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q149">
         <v>4.17</v>
@@ -32231,7 +32237,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32437,7 +32443,7 @@
         <v>189</v>
       </c>
       <c r="P152" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q152">
         <v>2.5</v>
@@ -32849,7 +32855,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q154">
         <v>2</v>
@@ -32927,7 +32933,7 @@
         <v>0.87</v>
       </c>
       <c r="AP154">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ154">
         <v>0.82</v>
@@ -33055,7 +33061,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q155">
         <v>2.06</v>
@@ -33342,7 +33348,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ156">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR156">
         <v>1.72</v>
@@ -33673,7 +33679,7 @@
         <v>84</v>
       </c>
       <c r="P158" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q158">
         <v>4.2</v>
@@ -33879,7 +33885,7 @@
         <v>84</v>
       </c>
       <c r="P159" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q159">
         <v>2.25</v>
@@ -34291,7 +34297,7 @@
         <v>194</v>
       </c>
       <c r="P161" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q161">
         <v>2.9</v>
@@ -34909,7 +34915,7 @@
         <v>197</v>
       </c>
       <c r="P164" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q164">
         <v>2.62</v>
@@ -35115,7 +35121,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q165">
         <v>2.23</v>
@@ -35321,7 +35327,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q166">
         <v>2.2</v>
@@ -35527,7 +35533,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q167">
         <v>3.54</v>
@@ -35733,7 +35739,7 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q168">
         <v>3.05</v>
@@ -36096,6 +36102,212 @@
       </c>
       <c r="BP169">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7776485</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45786.63541666666</v>
+      </c>
+      <c r="F170">
+        <v>34</v>
+      </c>
+      <c r="G170" t="s">
+        <v>72</v>
+      </c>
+      <c r="H170" t="s">
+        <v>78</v>
+      </c>
+      <c r="I170">
+        <v>2</v>
+      </c>
+      <c r="J170">
+        <v>2</v>
+      </c>
+      <c r="K170">
+        <v>4</v>
+      </c>
+      <c r="L170">
+        <v>2</v>
+      </c>
+      <c r="M170">
+        <v>4</v>
+      </c>
+      <c r="N170">
+        <v>6</v>
+      </c>
+      <c r="O170" t="s">
+        <v>202</v>
+      </c>
+      <c r="P170" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q170">
+        <v>1.85</v>
+      </c>
+      <c r="R170">
+        <v>2.57</v>
+      </c>
+      <c r="S170">
+        <v>4.4</v>
+      </c>
+      <c r="T170">
+        <v>1.22</v>
+      </c>
+      <c r="U170">
+        <v>3.8</v>
+      </c>
+      <c r="V170">
+        <v>2.1</v>
+      </c>
+      <c r="W170">
+        <v>1.69</v>
+      </c>
+      <c r="X170">
+        <v>4.5</v>
+      </c>
+      <c r="Y170">
+        <v>1.18</v>
+      </c>
+      <c r="Z170">
+        <v>1.62</v>
+      </c>
+      <c r="AA170">
+        <v>3.77</v>
+      </c>
+      <c r="AB170">
+        <v>4.2</v>
+      </c>
+      <c r="AC170">
+        <v>1</v>
+      </c>
+      <c r="AD170">
+        <v>12</v>
+      </c>
+      <c r="AE170">
+        <v>1.13</v>
+      </c>
+      <c r="AF170">
+        <v>5</v>
+      </c>
+      <c r="AG170">
+        <v>1.57</v>
+      </c>
+      <c r="AH170">
+        <v>2.15</v>
+      </c>
+      <c r="AI170">
+        <v>1.58</v>
+      </c>
+      <c r="AJ170">
+        <v>2.3</v>
+      </c>
+      <c r="AK170">
+        <v>1.2</v>
+      </c>
+      <c r="AL170">
+        <v>0</v>
+      </c>
+      <c r="AM170">
+        <v>2.37</v>
+      </c>
+      <c r="AN170">
+        <v>1.63</v>
+      </c>
+      <c r="AO170">
+        <v>1.31</v>
+      </c>
+      <c r="AP170">
+        <v>1.53</v>
+      </c>
+      <c r="AQ170">
+        <v>1.41</v>
+      </c>
+      <c r="AR170">
+        <v>1.55</v>
+      </c>
+      <c r="AS170">
+        <v>1.41</v>
+      </c>
+      <c r="AT170">
+        <v>2.96</v>
+      </c>
+      <c r="AU170">
+        <v>4</v>
+      </c>
+      <c r="AV170">
+        <v>10</v>
+      </c>
+      <c r="AW170">
+        <v>6</v>
+      </c>
+      <c r="AX170">
+        <v>8</v>
+      </c>
+      <c r="AY170">
+        <v>10</v>
+      </c>
+      <c r="AZ170">
+        <v>18</v>
+      </c>
+      <c r="BA170">
+        <v>1</v>
+      </c>
+      <c r="BB170">
+        <v>4</v>
+      </c>
+      <c r="BC170">
+        <v>5</v>
+      </c>
+      <c r="BD170">
+        <v>1.5</v>
+      </c>
+      <c r="BE170">
+        <v>7.7</v>
+      </c>
+      <c r="BF170">
+        <v>3.35</v>
+      </c>
+      <c r="BG170">
+        <v>1.35</v>
+      </c>
+      <c r="BH170">
+        <v>2.74</v>
+      </c>
+      <c r="BI170">
+        <v>1.65</v>
+      </c>
+      <c r="BJ170">
+        <v>2</v>
+      </c>
+      <c r="BK170">
+        <v>2.22</v>
+      </c>
+      <c r="BL170">
+        <v>1.62</v>
+      </c>
+      <c r="BM170">
+        <v>2.83</v>
+      </c>
+      <c r="BN170">
+        <v>1.33</v>
+      </c>
+      <c r="BO170">
+        <v>3.85</v>
+      </c>
+      <c r="BP170">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="305">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,6 +625,9 @@
     <t>['18', '33']</t>
   </si>
   <si>
+    <t>['9', '21', '27']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -923,6 +926,9 @@
   </si>
   <si>
     <t>['41', '42', '57', '59']</t>
+  </si>
+  <si>
+    <t>['54', '65', '88']</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP170"/>
+  <dimension ref="A1:BP171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1543,7 +1549,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1749,7 +1755,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1955,7 +1961,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2036,7 +2042,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ4">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2445,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>0.9399999999999999</v>
@@ -2779,7 +2785,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -3191,7 +3197,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -3603,7 +3609,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3809,7 +3815,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -4015,7 +4021,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4221,7 +4227,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4427,7 +4433,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4505,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>1.41</v>
@@ -4633,7 +4639,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4839,7 +4845,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4920,7 +4926,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR18">
         <v>1.54</v>
@@ -5045,7 +5051,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -5251,7 +5257,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -5457,7 +5463,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5869,7 +5875,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6281,7 +6287,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6359,7 +6365,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>1.47</v>
@@ -6487,7 +6493,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6899,7 +6905,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7311,7 +7317,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7392,7 +7398,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ30">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR30">
         <v>1.62</v>
@@ -7517,7 +7523,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7929,7 +7935,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -8135,7 +8141,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8341,7 +8347,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8547,7 +8553,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8625,7 +8631,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>1.82</v>
@@ -8753,7 +8759,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -9040,7 +9046,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ38">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR38">
         <v>2.02</v>
@@ -9165,7 +9171,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9371,7 +9377,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9783,7 +9789,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9989,7 +9995,7 @@
         <v>84</v>
       </c>
       <c r="P43" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10195,7 +10201,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10607,7 +10613,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10685,7 +10691,7 @@
         <v>1.75</v>
       </c>
       <c r="AP46">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>0.88</v>
@@ -10813,7 +10819,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11100,7 +11106,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ48">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR48">
         <v>1.41</v>
@@ -11225,7 +11231,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -11637,7 +11643,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11843,7 +11849,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -12255,7 +12261,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12461,7 +12467,7 @@
         <v>105</v>
       </c>
       <c r="P55" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12745,10 +12751,10 @@
         <v>1.8</v>
       </c>
       <c r="AP56">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR56">
         <v>1.95</v>
@@ -13285,7 +13291,7 @@
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13697,7 +13703,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13903,7 +13909,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q62">
         <v>2.5</v>
@@ -14315,7 +14321,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q64">
         <v>2.4</v>
@@ -14727,7 +14733,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14808,7 +14814,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ66">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR66">
         <v>1.6</v>
@@ -14933,7 +14939,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15139,7 +15145,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15217,7 +15223,7 @@
         <v>1.5</v>
       </c>
       <c r="AP68">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
         <v>0.9399999999999999</v>
@@ -15345,7 +15351,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15551,7 +15557,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15757,7 +15763,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15963,7 +15969,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -16169,7 +16175,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q73">
         <v>3.4</v>
@@ -16250,7 +16256,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ73">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR73">
         <v>1.6</v>
@@ -16375,7 +16381,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16581,7 +16587,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16787,7 +16793,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q76">
         <v>2.5</v>
@@ -16865,7 +16871,7 @@
         <v>1.43</v>
       </c>
       <c r="AP76">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ76">
         <v>1.18</v>
@@ -16993,7 +16999,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17199,7 +17205,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17405,7 +17411,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -18023,7 +18029,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18641,7 +18647,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q85">
         <v>2.63</v>
@@ -19053,7 +19059,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q87">
         <v>3.1</v>
@@ -19134,7 +19140,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ87">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR87">
         <v>1.73</v>
@@ -19259,7 +19265,7 @@
         <v>105</v>
       </c>
       <c r="P88" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q88">
         <v>3.1</v>
@@ -19465,7 +19471,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q89">
         <v>3.2</v>
@@ -19543,7 +19549,7 @@
         <v>1.25</v>
       </c>
       <c r="AP89">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ89">
         <v>1.18</v>
@@ -19671,7 +19677,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19877,7 +19883,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20083,7 +20089,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20289,7 +20295,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20495,7 +20501,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20907,7 +20913,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q96">
         <v>3.75</v>
@@ -20988,7 +20994,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ96">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR96">
         <v>1.68</v>
@@ -21603,7 +21609,7 @@
         <v>0.89</v>
       </c>
       <c r="AP99">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ99">
         <v>0.9399999999999999</v>
@@ -21731,7 +21737,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -22143,7 +22149,7 @@
         <v>84</v>
       </c>
       <c r="P102" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q102">
         <v>2.97</v>
@@ -22349,7 +22355,7 @@
         <v>155</v>
       </c>
       <c r="P103" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q103">
         <v>2.36</v>
@@ -22555,7 +22561,7 @@
         <v>156</v>
       </c>
       <c r="P104" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q104">
         <v>2.99</v>
@@ -22839,7 +22845,7 @@
         <v>1.2</v>
       </c>
       <c r="AP105">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ105">
         <v>1.41</v>
@@ -23666,7 +23672,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ109">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR109">
         <v>1.53</v>
@@ -23791,7 +23797,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -23997,7 +24003,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q111">
         <v>2.32</v>
@@ -24409,7 +24415,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q113">
         <v>3.2</v>
@@ -24899,7 +24905,7 @@
         <v>2.18</v>
       </c>
       <c r="AP115">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ115">
         <v>1.82</v>
@@ -25027,7 +25033,7 @@
         <v>163</v>
       </c>
       <c r="P116" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q116">
         <v>3.6</v>
@@ -25108,7 +25114,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ116">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR116">
         <v>1.59</v>
@@ -25233,7 +25239,7 @@
         <v>164</v>
       </c>
       <c r="P117" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q117">
         <v>2.42</v>
@@ -25439,7 +25445,7 @@
         <v>165</v>
       </c>
       <c r="P118" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q118">
         <v>1.82</v>
@@ -25851,7 +25857,7 @@
         <v>167</v>
       </c>
       <c r="P120" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q120">
         <v>2.9</v>
@@ -26057,7 +26063,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26263,7 +26269,7 @@
         <v>84</v>
       </c>
       <c r="P122" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q122">
         <v>4.14</v>
@@ -26881,7 +26887,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q125">
         <v>2.88</v>
@@ -27087,7 +27093,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q126">
         <v>2.26</v>
@@ -27374,7 +27380,7 @@
         <v>2</v>
       </c>
       <c r="AQ127">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR127">
         <v>1.62</v>
@@ -27499,7 +27505,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q128">
         <v>2.05</v>
@@ -27911,7 +27917,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -27989,7 +27995,7 @@
         <v>1.08</v>
       </c>
       <c r="AP130">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ130">
         <v>0.88</v>
@@ -28117,7 +28123,7 @@
         <v>173</v>
       </c>
       <c r="P131" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q131">
         <v>3.4</v>
@@ -28529,7 +28535,7 @@
         <v>135</v>
       </c>
       <c r="P133" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28813,7 +28819,7 @@
         <v>1.15</v>
       </c>
       <c r="AP134">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ134">
         <v>1.47</v>
@@ -28941,7 +28947,7 @@
         <v>175</v>
       </c>
       <c r="P135" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -29147,7 +29153,7 @@
         <v>176</v>
       </c>
       <c r="P136" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q136">
         <v>1.95</v>
@@ -29353,7 +29359,7 @@
         <v>177</v>
       </c>
       <c r="P137" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29559,7 +29565,7 @@
         <v>178</v>
       </c>
       <c r="P138" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -30052,7 +30058,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ140">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR140">
         <v>1.67</v>
@@ -30177,7 +30183,7 @@
         <v>84</v>
       </c>
       <c r="P141" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q141">
         <v>2.63</v>
@@ -30383,7 +30389,7 @@
         <v>84</v>
       </c>
       <c r="P142" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q142">
         <v>3.4</v>
@@ -30795,7 +30801,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31285,7 +31291,7 @@
         <v>1.07</v>
       </c>
       <c r="AP146">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ146">
         <v>0.9399999999999999</v>
@@ -31413,7 +31419,7 @@
         <v>185</v>
       </c>
       <c r="P147" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31619,7 +31625,7 @@
         <v>84</v>
       </c>
       <c r="P148" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q148">
         <v>4.4</v>
@@ -31700,7 +31706,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ148">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR148">
         <v>1.59</v>
@@ -31825,7 +31831,7 @@
         <v>186</v>
       </c>
       <c r="P149" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q149">
         <v>4.17</v>
@@ -32237,7 +32243,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32443,7 +32449,7 @@
         <v>189</v>
       </c>
       <c r="P152" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q152">
         <v>2.5</v>
@@ -32855,7 +32861,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q154">
         <v>2</v>
@@ -33061,7 +33067,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q155">
         <v>2.06</v>
@@ -33679,7 +33685,7 @@
         <v>84</v>
       </c>
       <c r="P158" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q158">
         <v>4.2</v>
@@ -33760,7 +33766,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ158">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR158">
         <v>1.61</v>
@@ -33885,7 +33891,7 @@
         <v>84</v>
       </c>
       <c r="P159" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q159">
         <v>2.25</v>
@@ -34169,7 +34175,7 @@
         <v>1.13</v>
       </c>
       <c r="AP160">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ160">
         <v>1.18</v>
@@ -34297,7 +34303,7 @@
         <v>194</v>
       </c>
       <c r="P161" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q161">
         <v>2.9</v>
@@ -34915,7 +34921,7 @@
         <v>197</v>
       </c>
       <c r="P164" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q164">
         <v>2.62</v>
@@ -35121,7 +35127,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q165">
         <v>2.23</v>
@@ -35327,7 +35333,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q166">
         <v>2.2</v>
@@ -35533,7 +35539,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q167">
         <v>3.54</v>
@@ -35739,7 +35745,7 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q168">
         <v>3.05</v>
@@ -36151,7 +36157,7 @@
         <v>202</v>
       </c>
       <c r="P170" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q170">
         <v>1.85</v>
@@ -36308,6 +36314,212 @@
       </c>
       <c r="BP170">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7776489</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45788.38541666666</v>
+      </c>
+      <c r="F171">
+        <v>34</v>
+      </c>
+      <c r="G171" t="s">
+        <v>74</v>
+      </c>
+      <c r="H171" t="s">
+        <v>79</v>
+      </c>
+      <c r="I171">
+        <v>3</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>3</v>
+      </c>
+      <c r="L171">
+        <v>3</v>
+      </c>
+      <c r="M171">
+        <v>3</v>
+      </c>
+      <c r="N171">
+        <v>6</v>
+      </c>
+      <c r="O171" t="s">
+        <v>203</v>
+      </c>
+      <c r="P171" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q171">
+        <v>3.6</v>
+      </c>
+      <c r="R171">
+        <v>2.45</v>
+      </c>
+      <c r="S171">
+        <v>2.47</v>
+      </c>
+      <c r="T171">
+        <v>1.25</v>
+      </c>
+      <c r="U171">
+        <v>3.45</v>
+      </c>
+      <c r="V171">
+        <v>2.25</v>
+      </c>
+      <c r="W171">
+        <v>1.6</v>
+      </c>
+      <c r="X171">
+        <v>4.9</v>
+      </c>
+      <c r="Y171">
+        <v>1.15</v>
+      </c>
+      <c r="Z171">
+        <v>2.95</v>
+      </c>
+      <c r="AA171">
+        <v>3.6</v>
+      </c>
+      <c r="AB171">
+        <v>2</v>
+      </c>
+      <c r="AC171">
+        <v>1.03</v>
+      </c>
+      <c r="AD171">
+        <v>12</v>
+      </c>
+      <c r="AE171">
+        <v>1.12</v>
+      </c>
+      <c r="AF171">
+        <v>5.2</v>
+      </c>
+      <c r="AG171">
+        <v>1.47</v>
+      </c>
+      <c r="AH171">
+        <v>2.45</v>
+      </c>
+      <c r="AI171">
+        <v>1.55</v>
+      </c>
+      <c r="AJ171">
+        <v>2.3</v>
+      </c>
+      <c r="AK171">
+        <v>1.26</v>
+      </c>
+      <c r="AL171">
+        <v>0</v>
+      </c>
+      <c r="AM171">
+        <v>1.34</v>
+      </c>
+      <c r="AN171">
+        <v>2.06</v>
+      </c>
+      <c r="AO171">
+        <v>1.81</v>
+      </c>
+      <c r="AP171">
+        <v>2</v>
+      </c>
+      <c r="AQ171">
+        <v>1.76</v>
+      </c>
+      <c r="AR171">
+        <v>1.84</v>
+      </c>
+      <c r="AS171">
+        <v>1.67</v>
+      </c>
+      <c r="AT171">
+        <v>3.51</v>
+      </c>
+      <c r="AU171">
+        <v>7</v>
+      </c>
+      <c r="AV171">
+        <v>9</v>
+      </c>
+      <c r="AW171">
+        <v>9</v>
+      </c>
+      <c r="AX171">
+        <v>10</v>
+      </c>
+      <c r="AY171">
+        <v>16</v>
+      </c>
+      <c r="AZ171">
+        <v>19</v>
+      </c>
+      <c r="BA171">
+        <v>3</v>
+      </c>
+      <c r="BB171">
+        <v>1</v>
+      </c>
+      <c r="BC171">
+        <v>4</v>
+      </c>
+      <c r="BD171">
+        <v>2.42</v>
+      </c>
+      <c r="BE171">
+        <v>8</v>
+      </c>
+      <c r="BF171">
+        <v>1.75</v>
+      </c>
+      <c r="BG171">
+        <v>1.36</v>
+      </c>
+      <c r="BH171">
+        <v>2.92</v>
+      </c>
+      <c r="BI171">
+        <v>1.61</v>
+      </c>
+      <c r="BJ171">
+        <v>2.23</v>
+      </c>
+      <c r="BK171">
+        <v>1.99</v>
+      </c>
+      <c r="BL171">
+        <v>1.76</v>
+      </c>
+      <c r="BM171">
+        <v>2.5</v>
+      </c>
+      <c r="BN171">
+        <v>1.46</v>
+      </c>
+      <c r="BO171">
+        <v>3.32</v>
+      </c>
+      <c r="BP171">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="309">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -628,6 +628,12 @@
     <t>['9', '21', '27']</t>
   </si>
   <si>
+    <t>['44', '52', '62']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -784,9 +790,6 @@
     <t>['90+3']</t>
   </si>
   <si>
-    <t>['40']</t>
-  </si>
-  <si>
     <t>['11', '76']</t>
   </si>
   <si>
@@ -929,6 +932,15 @@
   </si>
   <si>
     <t>['54', '65', '88']</t>
+  </si>
+  <si>
+    <t>['32', '44', '67']</t>
+  </si>
+  <si>
+    <t>['2', '75']</t>
+  </si>
+  <si>
+    <t>['12', '90', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP171"/>
+  <dimension ref="A1:BP176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1549,7 +1561,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1630,7 +1642,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ2">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1755,7 +1767,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1961,7 +1973,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2042,7 +2054,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ4">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2245,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ5">
         <v>1.41</v>
@@ -2451,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ6">
         <v>0.9399999999999999</v>
@@ -2660,7 +2672,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ7">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2785,7 +2797,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2863,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ8">
         <v>0.88</v>
@@ -3069,10 +3081,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ9">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3197,7 +3209,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -3275,10 +3287,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ10">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3609,7 +3621,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3687,10 +3699,10 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ12">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR12">
         <v>1.34</v>
@@ -3815,7 +3827,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3896,7 +3908,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ13">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR13">
         <v>1.92</v>
@@ -4021,7 +4033,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4102,7 +4114,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ14">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR14">
         <v>1.19</v>
@@ -4227,7 +4239,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4305,7 +4317,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ15">
         <v>1.18</v>
@@ -4433,7 +4445,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4511,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ16">
         <v>1.41</v>
@@ -4639,7 +4651,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4720,7 +4732,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ17">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR17">
         <v>1.81</v>
@@ -4845,7 +4857,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4923,10 +4935,10 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ18">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR18">
         <v>1.54</v>
@@ -5051,7 +5063,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -5257,7 +5269,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -5335,7 +5347,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ20">
         <v>0.9399999999999999</v>
@@ -5463,7 +5475,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5747,10 +5759,10 @@
         <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ22">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR22">
         <v>1.91</v>
@@ -5875,7 +5887,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5953,10 +5965,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ23">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR23">
         <v>1.3</v>
@@ -6287,7 +6299,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6365,10 +6377,10 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ25">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR25">
         <v>1.92</v>
@@ -6493,7 +6505,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6905,7 +6917,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6983,10 +6995,10 @@
         <v>0.33</v>
       </c>
       <c r="AP28">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ28">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR28">
         <v>1.43</v>
@@ -7189,7 +7201,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ29">
         <v>1.41</v>
@@ -7317,7 +7329,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7398,7 +7410,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ30">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR30">
         <v>1.62</v>
@@ -7523,7 +7535,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7935,7 +7947,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -8013,7 +8025,7 @@
         <v>1.33</v>
       </c>
       <c r="AP33">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ33">
         <v>1.18</v>
@@ -8141,7 +8153,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8222,7 +8234,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ34">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR34">
         <v>1.52</v>
@@ -8347,7 +8359,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8553,7 +8565,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8631,10 +8643,10 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ36">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR36">
         <v>2.16</v>
@@ -8759,7 +8771,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -9043,10 +9055,10 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ38">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR38">
         <v>2.02</v>
@@ -9171,7 +9183,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9252,7 +9264,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ39">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR39">
         <v>1.16</v>
@@ -9377,7 +9389,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9455,10 +9467,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ40">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR40">
         <v>1.35</v>
@@ -9661,7 +9673,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ41">
         <v>0.82</v>
@@ -9789,7 +9801,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9995,7 +10007,7 @@
         <v>84</v>
       </c>
       <c r="P43" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10201,7 +10213,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10279,10 +10291,10 @@
         <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ44">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR44">
         <v>1.41</v>
@@ -10488,7 +10500,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ45">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR45">
         <v>1.73</v>
@@ -10613,7 +10625,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10691,7 +10703,7 @@
         <v>1.75</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ46">
         <v>0.88</v>
@@ -10819,7 +10831,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10900,7 +10912,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ47">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR47">
         <v>1.79</v>
@@ -11103,10 +11115,10 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ48">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR48">
         <v>1.41</v>
@@ -11231,7 +11243,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -11309,7 +11321,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ49">
         <v>0.9399999999999999</v>
@@ -11643,7 +11655,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11721,10 +11733,10 @@
         <v>0.8</v>
       </c>
       <c r="AP51">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ51">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR51">
         <v>1.86</v>
@@ -11849,7 +11861,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -12133,7 +12145,7 @@
         <v>0.8</v>
       </c>
       <c r="AP53">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ53">
         <v>1.41</v>
@@ -12261,7 +12273,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12342,7 +12354,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ54">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR54">
         <v>1.69</v>
@@ -12467,7 +12479,7 @@
         <v>105</v>
       </c>
       <c r="P55" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12751,10 +12763,10 @@
         <v>1.8</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ56">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR56">
         <v>1.95</v>
@@ -12957,10 +12969,10 @@
         <v>0.83</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ57">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR57">
         <v>1.74</v>
@@ -13291,7 +13303,7 @@
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13369,10 +13381,10 @@
         <v>1.2</v>
       </c>
       <c r="AP59">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ59">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR59">
         <v>1.44</v>
@@ -13575,7 +13587,7 @@
         <v>0.4</v>
       </c>
       <c r="AP60">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ60">
         <v>0.82</v>
@@ -13703,7 +13715,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13784,7 +13796,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ61">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR61">
         <v>1.87</v>
@@ -13909,7 +13921,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q62">
         <v>2.5</v>
@@ -14321,7 +14333,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q64">
         <v>2.4</v>
@@ -14605,10 +14617,10 @@
         <v>2.2</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ65">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR65">
         <v>1.81</v>
@@ -14733,7 +14745,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14811,10 +14823,10 @@
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ66">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR66">
         <v>1.6</v>
@@ -14939,7 +14951,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15145,7 +15157,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15223,10 +15235,10 @@
         <v>1.5</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ68">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR68">
         <v>1.95</v>
@@ -15351,7 +15363,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15429,10 +15441,10 @@
         <v>1.83</v>
       </c>
       <c r="AP69">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ69">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR69">
         <v>1.4</v>
@@ -15557,7 +15569,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15763,7 +15775,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15841,10 +15853,10 @@
         <v>1.5</v>
       </c>
       <c r="AP71">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ71">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR71">
         <v>1.83</v>
@@ -15969,7 +15981,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -16047,7 +16059,7 @@
         <v>1.14</v>
       </c>
       <c r="AP72">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ72">
         <v>0.88</v>
@@ -16175,7 +16187,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q73">
         <v>3.4</v>
@@ -16256,7 +16268,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ73">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR73">
         <v>1.6</v>
@@ -16381,7 +16393,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16587,7 +16599,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16668,7 +16680,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ75">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR75">
         <v>1.68</v>
@@ -16793,7 +16805,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q76">
         <v>2.5</v>
@@ -16871,10 +16883,10 @@
         <v>1.43</v>
       </c>
       <c r="AP76">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ76">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR76">
         <v>1.84</v>
@@ -16999,7 +17011,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17080,7 +17092,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ77">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR77">
         <v>1.89</v>
@@ -17205,7 +17217,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17283,7 +17295,7 @@
         <v>0.57</v>
       </c>
       <c r="AP78">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ78">
         <v>0.9399999999999999</v>
@@ -17411,7 +17423,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17489,7 +17501,7 @@
         <v>1.43</v>
       </c>
       <c r="AP79">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ79">
         <v>1.18</v>
@@ -17695,7 +17707,7 @@
         <v>0.57</v>
       </c>
       <c r="AP80">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ80">
         <v>0.82</v>
@@ -17901,10 +17913,10 @@
         <v>1.5</v>
       </c>
       <c r="AP81">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ81">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR81">
         <v>1.63</v>
@@ -18029,7 +18041,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18313,10 +18325,10 @@
         <v>1.38</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ83">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR83">
         <v>1.62</v>
@@ -18522,7 +18534,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ84">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR84">
         <v>1.62</v>
@@ -18647,7 +18659,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q85">
         <v>2.63</v>
@@ -18725,7 +18737,7 @@
         <v>0.63</v>
       </c>
       <c r="AP85">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ85">
         <v>0.82</v>
@@ -19059,7 +19071,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q87">
         <v>3.1</v>
@@ -19140,7 +19152,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ87">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR87">
         <v>1.73</v>
@@ -19265,7 +19277,7 @@
         <v>105</v>
       </c>
       <c r="P88" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q88">
         <v>3.1</v>
@@ -19346,7 +19358,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ88">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR88">
         <v>1.6</v>
@@ -19471,7 +19483,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q89">
         <v>3.2</v>
@@ -19549,7 +19561,7 @@
         <v>1.25</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ89">
         <v>1.18</v>
@@ -19677,7 +19689,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19755,7 +19767,7 @@
         <v>1.13</v>
       </c>
       <c r="AP90">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ90">
         <v>0.88</v>
@@ -19883,7 +19895,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19964,7 +19976,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ91">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR91">
         <v>1.62</v>
@@ -20089,7 +20101,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20167,10 +20179,10 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ92">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR92">
         <v>1.59</v>
@@ -20295,7 +20307,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20373,7 +20385,7 @@
         <v>1.22</v>
       </c>
       <c r="AP93">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ93">
         <v>1.41</v>
@@ -20501,7 +20513,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20785,10 +20797,10 @@
         <v>1.22</v>
       </c>
       <c r="AP95">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ95">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR95">
         <v>1.4</v>
@@ -20913,7 +20925,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q96">
         <v>3.75</v>
@@ -20994,7 +21006,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ96">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR96">
         <v>1.68</v>
@@ -21403,10 +21415,10 @@
         <v>1.33</v>
       </c>
       <c r="AP98">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ98">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR98">
         <v>1.61</v>
@@ -21609,7 +21621,7 @@
         <v>0.89</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ99">
         <v>0.9399999999999999</v>
@@ -21737,7 +21749,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -22024,7 +22036,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ101">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR101">
         <v>1.64</v>
@@ -22149,7 +22161,7 @@
         <v>84</v>
       </c>
       <c r="P102" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q102">
         <v>2.97</v>
@@ -22227,10 +22239,10 @@
         <v>1.1</v>
       </c>
       <c r="AP102">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ102">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR102">
         <v>1.56</v>
@@ -22355,7 +22367,7 @@
         <v>155</v>
       </c>
       <c r="P103" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q103">
         <v>2.36</v>
@@ -22433,10 +22445,10 @@
         <v>1.2</v>
       </c>
       <c r="AP103">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ103">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR103">
         <v>1.61</v>
@@ -22561,7 +22573,7 @@
         <v>156</v>
       </c>
       <c r="P104" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q104">
         <v>2.99</v>
@@ -22642,7 +22654,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ104">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR104">
         <v>1.76</v>
@@ -22845,7 +22857,7 @@
         <v>1.2</v>
       </c>
       <c r="AP105">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ105">
         <v>1.41</v>
@@ -23672,7 +23684,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ109">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR109">
         <v>1.53</v>
@@ -23797,7 +23809,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -23875,10 +23887,10 @@
         <v>1.2</v>
       </c>
       <c r="AP110">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ110">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR110">
         <v>1.42</v>
@@ -24003,7 +24015,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q111">
         <v>2.32</v>
@@ -24081,7 +24093,7 @@
         <v>0.9</v>
       </c>
       <c r="AP111">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ111">
         <v>0.9399999999999999</v>
@@ -24287,10 +24299,10 @@
         <v>1.36</v>
       </c>
       <c r="AP112">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ112">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR112">
         <v>1.63</v>
@@ -24415,7 +24427,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q113">
         <v>3.2</v>
@@ -24496,7 +24508,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ113">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR113">
         <v>1.52</v>
@@ -24699,7 +24711,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ114">
         <v>1.18</v>
@@ -24905,10 +24917,10 @@
         <v>2.18</v>
       </c>
       <c r="AP115">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ115">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR115">
         <v>1.93</v>
@@ -25033,7 +25045,7 @@
         <v>163</v>
       </c>
       <c r="P116" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q116">
         <v>3.6</v>
@@ -25111,10 +25123,10 @@
         <v>1.73</v>
       </c>
       <c r="AP116">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ116">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR116">
         <v>1.59</v>
@@ -25239,7 +25251,7 @@
         <v>164</v>
       </c>
       <c r="P117" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q117">
         <v>2.42</v>
@@ -25445,7 +25457,7 @@
         <v>165</v>
       </c>
       <c r="P118" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q118">
         <v>1.82</v>
@@ -25732,7 +25744,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ119">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR119">
         <v>1.51</v>
@@ -25857,7 +25869,7 @@
         <v>167</v>
       </c>
       <c r="P120" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q120">
         <v>2.9</v>
@@ -26063,7 +26075,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26141,7 +26153,7 @@
         <v>0.82</v>
       </c>
       <c r="AP121">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ121">
         <v>0.82</v>
@@ -26269,7 +26281,7 @@
         <v>84</v>
       </c>
       <c r="P122" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q122">
         <v>4.14</v>
@@ -26347,7 +26359,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ122">
         <v>1.18</v>
@@ -26762,7 +26774,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ124">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR124">
         <v>1.52</v>
@@ -26887,7 +26899,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q125">
         <v>2.88</v>
@@ -26965,7 +26977,7 @@
         <v>1</v>
       </c>
       <c r="AP125">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ125">
         <v>1.41</v>
@@ -27093,7 +27105,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q126">
         <v>2.26</v>
@@ -27174,7 +27186,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ126">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR126">
         <v>1.75</v>
@@ -27377,10 +27389,10 @@
         <v>1.83</v>
       </c>
       <c r="AP127">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ127">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR127">
         <v>1.62</v>
@@ -27505,7 +27517,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q128">
         <v>2.05</v>
@@ -27586,7 +27598,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ128">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR128">
         <v>1.73</v>
@@ -27917,7 +27929,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -27995,7 +28007,7 @@
         <v>1.08</v>
       </c>
       <c r="AP130">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ130">
         <v>0.88</v>
@@ -28123,7 +28135,7 @@
         <v>173</v>
       </c>
       <c r="P131" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q131">
         <v>3.4</v>
@@ -28201,10 +28213,10 @@
         <v>2.25</v>
       </c>
       <c r="AP131">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ131">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR131">
         <v>1.59</v>
@@ -28407,7 +28419,7 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ132">
         <v>0.88</v>
@@ -28535,7 +28547,7 @@
         <v>135</v>
       </c>
       <c r="P133" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28819,10 +28831,10 @@
         <v>1.15</v>
       </c>
       <c r="AP134">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ134">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR134">
         <v>1.85</v>
@@ -28947,7 +28959,7 @@
         <v>175</v>
       </c>
       <c r="P135" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -29153,7 +29165,7 @@
         <v>176</v>
       </c>
       <c r="P136" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q136">
         <v>1.95</v>
@@ -29234,7 +29246,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ136">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR136">
         <v>1.72</v>
@@ -29359,7 +29371,7 @@
         <v>177</v>
       </c>
       <c r="P137" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29437,10 +29449,10 @@
         <v>2.15</v>
       </c>
       <c r="AP137">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ137">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR137">
         <v>1.48</v>
@@ -29565,7 +29577,7 @@
         <v>178</v>
       </c>
       <c r="P138" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -29646,7 +29658,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ138">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR138">
         <v>1.52</v>
@@ -29849,7 +29861,7 @@
         <v>0.77</v>
       </c>
       <c r="AP139">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ139">
         <v>0.9399999999999999</v>
@@ -30058,7 +30070,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ140">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR140">
         <v>1.67</v>
@@ -30183,7 +30195,7 @@
         <v>84</v>
       </c>
       <c r="P141" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q141">
         <v>2.63</v>
@@ -30261,7 +30273,7 @@
         <v>0.77</v>
       </c>
       <c r="AP141">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ141">
         <v>0.82</v>
@@ -30389,7 +30401,7 @@
         <v>84</v>
       </c>
       <c r="P142" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q142">
         <v>3.4</v>
@@ -30467,7 +30479,7 @@
         <v>1.29</v>
       </c>
       <c r="AP142">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ142">
         <v>1.41</v>
@@ -30676,7 +30688,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ143">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR143">
         <v>1.72</v>
@@ -30801,7 +30813,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -30882,7 +30894,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ144">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR144">
         <v>1.53</v>
@@ -31085,7 +31097,7 @@
         <v>0.93</v>
       </c>
       <c r="AP145">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ145">
         <v>0.88</v>
@@ -31291,10 +31303,10 @@
         <v>1.07</v>
       </c>
       <c r="AP146">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ146">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR146">
         <v>1.84</v>
@@ -31419,7 +31431,7 @@
         <v>185</v>
       </c>
       <c r="P147" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31500,7 +31512,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ147">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR147">
         <v>1.52</v>
@@ -31625,7 +31637,7 @@
         <v>84</v>
       </c>
       <c r="P148" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q148">
         <v>4.4</v>
@@ -31703,10 +31715,10 @@
         <v>1.64</v>
       </c>
       <c r="AP148">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ148">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR148">
         <v>1.59</v>
@@ -31831,7 +31843,7 @@
         <v>186</v>
       </c>
       <c r="P149" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q149">
         <v>4.17</v>
@@ -31912,7 +31924,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ149">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR149">
         <v>1.6</v>
@@ -32115,7 +32127,7 @@
         <v>0.93</v>
       </c>
       <c r="AP150">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ150">
         <v>0.82</v>
@@ -32243,7 +32255,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32321,7 +32333,7 @@
         <v>1.14</v>
       </c>
       <c r="AP151">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ151">
         <v>1.18</v>
@@ -32449,7 +32461,7 @@
         <v>189</v>
       </c>
       <c r="P152" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q152">
         <v>2.5</v>
@@ -32527,7 +32539,7 @@
         <v>0.71</v>
       </c>
       <c r="AP152">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ152">
         <v>0.9399999999999999</v>
@@ -32736,7 +32748,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ153">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR153">
         <v>1.69</v>
@@ -32861,7 +32873,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q154">
         <v>2</v>
@@ -33067,7 +33079,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q155">
         <v>2.06</v>
@@ -33145,10 +33157,10 @@
         <v>1.13</v>
       </c>
       <c r="AP155">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ155">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR155">
         <v>1.62</v>
@@ -33560,7 +33572,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ157">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR157">
         <v>1.49</v>
@@ -33685,7 +33697,7 @@
         <v>84</v>
       </c>
       <c r="P158" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q158">
         <v>4.2</v>
@@ -33766,7 +33778,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ158">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR158">
         <v>1.61</v>
@@ -33891,7 +33903,7 @@
         <v>84</v>
       </c>
       <c r="P159" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q159">
         <v>2.25</v>
@@ -34175,7 +34187,7 @@
         <v>1.13</v>
       </c>
       <c r="AP160">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ160">
         <v>1.18</v>
@@ -34303,7 +34315,7 @@
         <v>194</v>
       </c>
       <c r="P161" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q161">
         <v>2.9</v>
@@ -34381,7 +34393,7 @@
         <v>0.87</v>
       </c>
       <c r="AP161">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ161">
         <v>0.88</v>
@@ -34587,7 +34599,7 @@
         <v>0.88</v>
       </c>
       <c r="AP162">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ162">
         <v>0.82</v>
@@ -34796,7 +34808,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ163">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR163">
         <v>1.74</v>
@@ -34921,7 +34933,7 @@
         <v>197</v>
       </c>
       <c r="P164" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q164">
         <v>2.62</v>
@@ -34999,10 +35011,10 @@
         <v>1.38</v>
       </c>
       <c r="AP164">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ164">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR164">
         <v>1.65</v>
@@ -35127,7 +35139,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q165">
         <v>2.23</v>
@@ -35205,10 +35217,10 @@
         <v>1</v>
       </c>
       <c r="AP165">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ165">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR165">
         <v>1.5</v>
@@ -35333,7 +35345,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q166">
         <v>2.2</v>
@@ -35411,10 +35423,10 @@
         <v>1.25</v>
       </c>
       <c r="AP166">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ166">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR166">
         <v>1.48</v>
@@ -35539,7 +35551,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q167">
         <v>3.54</v>
@@ -35745,7 +35757,7 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q168">
         <v>3.05</v>
@@ -36157,7 +36169,7 @@
         <v>202</v>
       </c>
       <c r="P170" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q170">
         <v>1.85</v>
@@ -36363,7 +36375,7 @@
         <v>203</v>
       </c>
       <c r="P171" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q171">
         <v>3.6</v>
@@ -36441,10 +36453,10 @@
         <v>1.81</v>
       </c>
       <c r="AP171">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ171">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR171">
         <v>1.84</v>
@@ -36520,6 +36532,1036 @@
       </c>
       <c r="BP171">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7776494</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45793.63541666666</v>
+      </c>
+      <c r="F172">
+        <v>35</v>
+      </c>
+      <c r="G172" t="s">
+        <v>74</v>
+      </c>
+      <c r="H172" t="s">
+        <v>71</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>1</v>
+      </c>
+      <c r="O172" t="s">
+        <v>193</v>
+      </c>
+      <c r="P172" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q172">
+        <v>2.08</v>
+      </c>
+      <c r="R172">
+        <v>2.7</v>
+      </c>
+      <c r="S172">
+        <v>3.74</v>
+      </c>
+      <c r="T172">
+        <v>1.22</v>
+      </c>
+      <c r="U172">
+        <v>4.2</v>
+      </c>
+      <c r="V172">
+        <v>2</v>
+      </c>
+      <c r="W172">
+        <v>1.75</v>
+      </c>
+      <c r="X172">
+        <v>4.5</v>
+      </c>
+      <c r="Y172">
+        <v>1.2</v>
+      </c>
+      <c r="Z172">
+        <v>1.65</v>
+      </c>
+      <c r="AA172">
+        <v>3.7</v>
+      </c>
+      <c r="AB172">
+        <v>3.9</v>
+      </c>
+      <c r="AC172">
+        <v>1.01</v>
+      </c>
+      <c r="AD172">
+        <v>21</v>
+      </c>
+      <c r="AE172">
+        <v>1.11</v>
+      </c>
+      <c r="AF172">
+        <v>5.4</v>
+      </c>
+      <c r="AG172">
+        <v>1.44</v>
+      </c>
+      <c r="AH172">
+        <v>2.65</v>
+      </c>
+      <c r="AI172">
+        <v>1.42</v>
+      </c>
+      <c r="AJ172">
+        <v>2.5</v>
+      </c>
+      <c r="AK172">
+        <v>1.17</v>
+      </c>
+      <c r="AL172">
+        <v>1.19</v>
+      </c>
+      <c r="AM172">
+        <v>2.18</v>
+      </c>
+      <c r="AN172">
+        <v>2</v>
+      </c>
+      <c r="AO172">
+        <v>1.18</v>
+      </c>
+      <c r="AP172">
+        <v>2.06</v>
+      </c>
+      <c r="AQ172">
+        <v>1.11</v>
+      </c>
+      <c r="AR172">
+        <v>1.84</v>
+      </c>
+      <c r="AS172">
+        <v>1.23</v>
+      </c>
+      <c r="AT172">
+        <v>3.07</v>
+      </c>
+      <c r="AU172">
+        <v>12</v>
+      </c>
+      <c r="AV172">
+        <v>5</v>
+      </c>
+      <c r="AW172">
+        <v>14</v>
+      </c>
+      <c r="AX172">
+        <v>11</v>
+      </c>
+      <c r="AY172">
+        <v>26</v>
+      </c>
+      <c r="AZ172">
+        <v>16</v>
+      </c>
+      <c r="BA172">
+        <v>7</v>
+      </c>
+      <c r="BB172">
+        <v>5</v>
+      </c>
+      <c r="BC172">
+        <v>12</v>
+      </c>
+      <c r="BD172">
+        <v>1.57</v>
+      </c>
+      <c r="BE172">
+        <v>8.5</v>
+      </c>
+      <c r="BF172">
+        <v>3</v>
+      </c>
+      <c r="BG172">
+        <v>1.28</v>
+      </c>
+      <c r="BH172">
+        <v>3.34</v>
+      </c>
+      <c r="BI172">
+        <v>1.5</v>
+      </c>
+      <c r="BJ172">
+        <v>2.38</v>
+      </c>
+      <c r="BK172">
+        <v>2.1</v>
+      </c>
+      <c r="BL172">
+        <v>1.89</v>
+      </c>
+      <c r="BM172">
+        <v>2.34</v>
+      </c>
+      <c r="BN172">
+        <v>1.56</v>
+      </c>
+      <c r="BO172">
+        <v>3.08</v>
+      </c>
+      <c r="BP172">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7776492</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45793.63541666666</v>
+      </c>
+      <c r="F173">
+        <v>35</v>
+      </c>
+      <c r="G173" t="s">
+        <v>76</v>
+      </c>
+      <c r="H173" t="s">
+        <v>70</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>2</v>
+      </c>
+      <c r="K173">
+        <v>3</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>3</v>
+      </c>
+      <c r="N173">
+        <v>4</v>
+      </c>
+      <c r="O173" t="s">
+        <v>148</v>
+      </c>
+      <c r="P173" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q173">
+        <v>2.72</v>
+      </c>
+      <c r="R173">
+        <v>2.3</v>
+      </c>
+      <c r="S173">
+        <v>3.2</v>
+      </c>
+      <c r="T173">
+        <v>1.28</v>
+      </c>
+      <c r="U173">
+        <v>3.4</v>
+      </c>
+      <c r="V173">
+        <v>2.37</v>
+      </c>
+      <c r="W173">
+        <v>1.55</v>
+      </c>
+      <c r="X173">
+        <v>5.8</v>
+      </c>
+      <c r="Y173">
+        <v>1.1</v>
+      </c>
+      <c r="Z173">
+        <v>2.3</v>
+      </c>
+      <c r="AA173">
+        <v>3.4</v>
+      </c>
+      <c r="AB173">
+        <v>2.6</v>
+      </c>
+      <c r="AC173">
+        <v>1.03</v>
+      </c>
+      <c r="AD173">
+        <v>15</v>
+      </c>
+      <c r="AE173">
+        <v>1.14</v>
+      </c>
+      <c r="AF173">
+        <v>4.7</v>
+      </c>
+      <c r="AG173">
+        <v>1.55</v>
+      </c>
+      <c r="AH173">
+        <v>2.33</v>
+      </c>
+      <c r="AI173">
+        <v>1.5</v>
+      </c>
+      <c r="AJ173">
+        <v>2.53</v>
+      </c>
+      <c r="AK173">
+        <v>1.25</v>
+      </c>
+      <c r="AL173">
+        <v>1.24</v>
+      </c>
+      <c r="AM173">
+        <v>1.56</v>
+      </c>
+      <c r="AN173">
+        <v>1.12</v>
+      </c>
+      <c r="AO173">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP173">
+        <v>1.06</v>
+      </c>
+      <c r="AQ173">
+        <v>1.06</v>
+      </c>
+      <c r="AR173">
+        <v>1.57</v>
+      </c>
+      <c r="AS173">
+        <v>1.46</v>
+      </c>
+      <c r="AT173">
+        <v>3.03</v>
+      </c>
+      <c r="AU173">
+        <v>3</v>
+      </c>
+      <c r="AV173">
+        <v>7</v>
+      </c>
+      <c r="AW173">
+        <v>2</v>
+      </c>
+      <c r="AX173">
+        <v>10</v>
+      </c>
+      <c r="AY173">
+        <v>5</v>
+      </c>
+      <c r="AZ173">
+        <v>17</v>
+      </c>
+      <c r="BA173">
+        <v>1</v>
+      </c>
+      <c r="BB173">
+        <v>6</v>
+      </c>
+      <c r="BC173">
+        <v>7</v>
+      </c>
+      <c r="BD173">
+        <v>2.02</v>
+      </c>
+      <c r="BE173">
+        <v>6.25</v>
+      </c>
+      <c r="BF173">
+        <v>2.16</v>
+      </c>
+      <c r="BG173">
+        <v>1.37</v>
+      </c>
+      <c r="BH173">
+        <v>2.85</v>
+      </c>
+      <c r="BI173">
+        <v>1.63</v>
+      </c>
+      <c r="BJ173">
+        <v>2.18</v>
+      </c>
+      <c r="BK173">
+        <v>1.85</v>
+      </c>
+      <c r="BL173">
+        <v>1.81</v>
+      </c>
+      <c r="BM173">
+        <v>2.5</v>
+      </c>
+      <c r="BN173">
+        <v>1.47</v>
+      </c>
+      <c r="BO173">
+        <v>3.4</v>
+      </c>
+      <c r="BP173">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7776495</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45793.63541666666</v>
+      </c>
+      <c r="F174">
+        <v>35</v>
+      </c>
+      <c r="G174" t="s">
+        <v>78</v>
+      </c>
+      <c r="H174" t="s">
+        <v>75</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>2</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+      <c r="O174" t="s">
+        <v>84</v>
+      </c>
+      <c r="P174" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q174">
+        <v>2.96</v>
+      </c>
+      <c r="R174">
+        <v>2.35</v>
+      </c>
+      <c r="S174">
+        <v>2.85</v>
+      </c>
+      <c r="T174">
+        <v>1.22</v>
+      </c>
+      <c r="U174">
+        <v>3.7</v>
+      </c>
+      <c r="V174">
+        <v>2.05</v>
+      </c>
+      <c r="W174">
+        <v>1.7</v>
+      </c>
+      <c r="X174">
+        <v>4.5</v>
+      </c>
+      <c r="Y174">
+        <v>1.15</v>
+      </c>
+      <c r="Z174">
+        <v>2.59</v>
+      </c>
+      <c r="AA174">
+        <v>3.86</v>
+      </c>
+      <c r="AB174">
+        <v>2.3</v>
+      </c>
+      <c r="AC174">
+        <v>1</v>
+      </c>
+      <c r="AD174">
+        <v>12</v>
+      </c>
+      <c r="AE174">
+        <v>1.07</v>
+      </c>
+      <c r="AF174">
+        <v>5.75</v>
+      </c>
+      <c r="AG174">
+        <v>1.44</v>
+      </c>
+      <c r="AH174">
+        <v>2.7</v>
+      </c>
+      <c r="AI174">
+        <v>1.36</v>
+      </c>
+      <c r="AJ174">
+        <v>2.75</v>
+      </c>
+      <c r="AK174">
+        <v>1.26</v>
+      </c>
+      <c r="AL174">
+        <v>1.25</v>
+      </c>
+      <c r="AM174">
+        <v>1.5</v>
+      </c>
+      <c r="AN174">
+        <v>1.35</v>
+      </c>
+      <c r="AO174">
+        <v>1.47</v>
+      </c>
+      <c r="AP174">
+        <v>1.28</v>
+      </c>
+      <c r="AQ174">
+        <v>1.56</v>
+      </c>
+      <c r="AR174">
+        <v>1.57</v>
+      </c>
+      <c r="AS174">
+        <v>1.63</v>
+      </c>
+      <c r="AT174">
+        <v>3.2</v>
+      </c>
+      <c r="AU174">
+        <v>3</v>
+      </c>
+      <c r="AV174">
+        <v>6</v>
+      </c>
+      <c r="AW174">
+        <v>8</v>
+      </c>
+      <c r="AX174">
+        <v>3</v>
+      </c>
+      <c r="AY174">
+        <v>11</v>
+      </c>
+      <c r="AZ174">
+        <v>9</v>
+      </c>
+      <c r="BA174">
+        <v>2</v>
+      </c>
+      <c r="BB174">
+        <v>3</v>
+      </c>
+      <c r="BC174">
+        <v>5</v>
+      </c>
+      <c r="BD174">
+        <v>2.22</v>
+      </c>
+      <c r="BE174">
+        <v>7.7</v>
+      </c>
+      <c r="BF174">
+        <v>1.86</v>
+      </c>
+      <c r="BG174">
+        <v>1.55</v>
+      </c>
+      <c r="BH174">
+        <v>2.59</v>
+      </c>
+      <c r="BI174">
+        <v>1.9</v>
+      </c>
+      <c r="BJ174">
+        <v>1.87</v>
+      </c>
+      <c r="BK174">
+        <v>2.62</v>
+      </c>
+      <c r="BL174">
+        <v>1.53</v>
+      </c>
+      <c r="BM174">
+        <v>3.2</v>
+      </c>
+      <c r="BN174">
+        <v>1.29</v>
+      </c>
+      <c r="BO174">
+        <v>4.25</v>
+      </c>
+      <c r="BP174">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7776490</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45793.63541666666</v>
+      </c>
+      <c r="F175">
+        <v>35</v>
+      </c>
+      <c r="G175" t="s">
+        <v>73</v>
+      </c>
+      <c r="H175" t="s">
+        <v>79</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>3</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>4</v>
+      </c>
+      <c r="O175" t="s">
+        <v>204</v>
+      </c>
+      <c r="P175" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q175">
+        <v>3.75</v>
+      </c>
+      <c r="R175">
+        <v>2.25</v>
+      </c>
+      <c r="S175">
+        <v>2.45</v>
+      </c>
+      <c r="T175">
+        <v>1.27</v>
+      </c>
+      <c r="U175">
+        <v>3.27</v>
+      </c>
+      <c r="V175">
+        <v>2.32</v>
+      </c>
+      <c r="W175">
+        <v>1.55</v>
+      </c>
+      <c r="X175">
+        <v>5</v>
+      </c>
+      <c r="Y175">
+        <v>1.15</v>
+      </c>
+      <c r="Z175">
+        <v>3.1</v>
+      </c>
+      <c r="AA175">
+        <v>3.5</v>
+      </c>
+      <c r="AB175">
+        <v>1.95</v>
+      </c>
+      <c r="AC175">
+        <v>1.03</v>
+      </c>
+      <c r="AD175">
+        <v>12</v>
+      </c>
+      <c r="AE175">
+        <v>1.2</v>
+      </c>
+      <c r="AF175">
+        <v>4.4</v>
+      </c>
+      <c r="AG175">
+        <v>1.57</v>
+      </c>
+      <c r="AH175">
+        <v>2.26</v>
+      </c>
+      <c r="AI175">
+        <v>1.48</v>
+      </c>
+      <c r="AJ175">
+        <v>2.35</v>
+      </c>
+      <c r="AK175">
+        <v>1.71</v>
+      </c>
+      <c r="AL175">
+        <v>1.26</v>
+      </c>
+      <c r="AM175">
+        <v>1.22</v>
+      </c>
+      <c r="AN175">
+        <v>1.53</v>
+      </c>
+      <c r="AO175">
+        <v>1.76</v>
+      </c>
+      <c r="AP175">
+        <v>1.61</v>
+      </c>
+      <c r="AQ175">
+        <v>1.67</v>
+      </c>
+      <c r="AR175">
+        <v>1.52</v>
+      </c>
+      <c r="AS175">
+        <v>1.71</v>
+      </c>
+      <c r="AT175">
+        <v>3.23</v>
+      </c>
+      <c r="AU175">
+        <v>10</v>
+      </c>
+      <c r="AV175">
+        <v>8</v>
+      </c>
+      <c r="AW175">
+        <v>8</v>
+      </c>
+      <c r="AX175">
+        <v>9</v>
+      </c>
+      <c r="AY175">
+        <v>20</v>
+      </c>
+      <c r="AZ175">
+        <v>18</v>
+      </c>
+      <c r="BA175">
+        <v>6</v>
+      </c>
+      <c r="BB175">
+        <v>9</v>
+      </c>
+      <c r="BC175">
+        <v>15</v>
+      </c>
+      <c r="BD175">
+        <v>2.14</v>
+      </c>
+      <c r="BE175">
+        <v>5.9</v>
+      </c>
+      <c r="BF175">
+        <v>2.08</v>
+      </c>
+      <c r="BG175">
+        <v>1.52</v>
+      </c>
+      <c r="BH175">
+        <v>2.14</v>
+      </c>
+      <c r="BI175">
+        <v>2.1</v>
+      </c>
+      <c r="BJ175">
+        <v>1.68</v>
+      </c>
+      <c r="BK175">
+        <v>2.28</v>
+      </c>
+      <c r="BL175">
+        <v>1.58</v>
+      </c>
+      <c r="BM175">
+        <v>3.68</v>
+      </c>
+      <c r="BN175">
+        <v>1.21</v>
+      </c>
+      <c r="BO175">
+        <v>5.1</v>
+      </c>
+      <c r="BP175">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7776491</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45793.63541666666</v>
+      </c>
+      <c r="F176">
+        <v>35</v>
+      </c>
+      <c r="G176" t="s">
+        <v>77</v>
+      </c>
+      <c r="H176" t="s">
+        <v>72</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>2</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>3</v>
+      </c>
+      <c r="N176">
+        <v>4</v>
+      </c>
+      <c r="O176" t="s">
+        <v>205</v>
+      </c>
+      <c r="P176" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q176">
+        <v>2.9</v>
+      </c>
+      <c r="R176">
+        <v>2.31</v>
+      </c>
+      <c r="S176">
+        <v>2.88</v>
+      </c>
+      <c r="T176">
+        <v>1.25</v>
+      </c>
+      <c r="U176">
+        <v>3.4</v>
+      </c>
+      <c r="V176">
+        <v>2.25</v>
+      </c>
+      <c r="W176">
+        <v>1.6</v>
+      </c>
+      <c r="X176">
+        <v>4.6</v>
+      </c>
+      <c r="Y176">
+        <v>1.17</v>
+      </c>
+      <c r="Z176">
+        <v>2.46</v>
+      </c>
+      <c r="AA176">
+        <v>3.5</v>
+      </c>
+      <c r="AB176">
+        <v>2.3</v>
+      </c>
+      <c r="AC176">
+        <v>1.03</v>
+      </c>
+      <c r="AD176">
+        <v>15</v>
+      </c>
+      <c r="AE176">
+        <v>1.1</v>
+      </c>
+      <c r="AF176">
+        <v>5</v>
+      </c>
+      <c r="AG176">
+        <v>1.47</v>
+      </c>
+      <c r="AH176">
+        <v>2.4</v>
+      </c>
+      <c r="AI176">
+        <v>1.44</v>
+      </c>
+      <c r="AJ176">
+        <v>2.8</v>
+      </c>
+      <c r="AK176">
+        <v>1.28</v>
+      </c>
+      <c r="AL176">
+        <v>1.24</v>
+      </c>
+      <c r="AM176">
+        <v>1.49</v>
+      </c>
+      <c r="AN176">
+        <v>2</v>
+      </c>
+      <c r="AO176">
+        <v>1.82</v>
+      </c>
+      <c r="AP176">
+        <v>1.89</v>
+      </c>
+      <c r="AQ176">
+        <v>1.89</v>
+      </c>
+      <c r="AR176">
+        <v>1.63</v>
+      </c>
+      <c r="AS176">
+        <v>1.71</v>
+      </c>
+      <c r="AT176">
+        <v>3.34</v>
+      </c>
+      <c r="AU176">
+        <v>3</v>
+      </c>
+      <c r="AV176">
+        <v>4</v>
+      </c>
+      <c r="AW176">
+        <v>12</v>
+      </c>
+      <c r="AX176">
+        <v>5</v>
+      </c>
+      <c r="AY176">
+        <v>15</v>
+      </c>
+      <c r="AZ176">
+        <v>9</v>
+      </c>
+      <c r="BA176">
+        <v>3</v>
+      </c>
+      <c r="BB176">
+        <v>2</v>
+      </c>
+      <c r="BC176">
+        <v>5</v>
+      </c>
+      <c r="BD176">
+        <v>1.83</v>
+      </c>
+      <c r="BE176">
+        <v>7.4</v>
+      </c>
+      <c r="BF176">
+        <v>2.47</v>
+      </c>
+      <c r="BG176">
+        <v>1.52</v>
+      </c>
+      <c r="BH176">
+        <v>2.39</v>
+      </c>
+      <c r="BI176">
+        <v>1.87</v>
+      </c>
+      <c r="BJ176">
+        <v>1.87</v>
+      </c>
+      <c r="BK176">
+        <v>2.83</v>
+      </c>
+      <c r="BL176">
+        <v>1.53</v>
+      </c>
+      <c r="BM176">
+        <v>2.97</v>
+      </c>
+      <c r="BN176">
+        <v>1.3</v>
+      </c>
+      <c r="BO176">
+        <v>4.25</v>
+      </c>
+      <c r="BP176">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
@@ -37304,7 +37304,7 @@
         <v>9</v>
       </c>
       <c r="AY175">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AZ175">
         <v>18</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="313">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -634,6 +634,15 @@
     <t>['40']</t>
   </si>
   <si>
+    <t>['78', '90']</t>
+  </si>
+  <si>
+    <t>['70', '84']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -919,9 +928,6 @@
     <t>['24']</t>
   </si>
   <si>
-    <t>['10']</t>
-  </si>
-  <si>
     <t>['4', '45']</t>
   </si>
   <si>
@@ -941,6 +947,12 @@
   </si>
   <si>
     <t>['12', '90', '90+3']</t>
+  </si>
+  <si>
+    <t>['15', '75', '90+1']</t>
+  </si>
+  <si>
+    <t>['39', '54', '88']</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP176"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1561,7 +1573,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1639,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ2">
         <v>1.56</v>
@@ -1767,7 +1779,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1845,10 +1857,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ3">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1973,7 +1985,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2051,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>1.67</v>
@@ -2260,7 +2272,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ5">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2669,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ7">
         <v>1.11</v>
@@ -2797,7 +2809,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2878,7 +2890,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ8">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3209,7 +3221,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -3493,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ11">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3621,7 +3633,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3827,7 +3839,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3905,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ13">
         <v>1.56</v>
@@ -4033,7 +4045,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4111,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
         <v>1.06</v>
@@ -4239,7 +4251,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4320,7 +4332,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ15">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR15">
         <v>1.72</v>
@@ -4445,7 +4457,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4526,7 +4538,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ16">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR16">
         <v>1.95</v>
@@ -4651,7 +4663,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4729,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ17">
         <v>1.89</v>
@@ -4857,7 +4869,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -5063,7 +5075,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -5141,10 +5153,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ19">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>1.52</v>
@@ -5269,7 +5281,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -5475,7 +5487,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5553,10 +5565,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ21">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR21">
         <v>1.63</v>
@@ -5887,7 +5899,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6171,10 +6183,10 @@
         <v>2</v>
       </c>
       <c r="AP24">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR24">
         <v>1.47</v>
@@ -6299,7 +6311,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6505,7 +6517,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6583,7 +6595,7 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ26">
         <v>0.9399999999999999</v>
@@ -6789,10 +6801,10 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ27">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR27">
         <v>1.47</v>
@@ -6917,7 +6929,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7204,7 +7216,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ29">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
         <v>1.46</v>
@@ -7329,7 +7341,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7407,7 +7419,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ30">
         <v>1.67</v>
@@ -7535,7 +7547,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7613,10 +7625,10 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>1.17</v>
@@ -7819,10 +7831,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ32">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
         <v>1.43</v>
@@ -7947,7 +7959,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -8028,7 +8040,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ33">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR33">
         <v>1.62</v>
@@ -8153,7 +8165,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8231,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ34">
         <v>1.06</v>
@@ -8359,7 +8371,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8437,10 +8449,10 @@
         <v>1.33</v>
       </c>
       <c r="AP35">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ35">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.63</v>
@@ -8565,7 +8577,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8771,7 +8783,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8849,7 +8861,7 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ37">
         <v>0.9399999999999999</v>
@@ -9183,7 +9195,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9261,7 +9273,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
         <v>1.11</v>
@@ -9389,7 +9401,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9676,7 +9688,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ41">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR41">
         <v>1.58</v>
@@ -9801,7 +9813,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9879,10 +9891,10 @@
         <v>1.75</v>
       </c>
       <c r="AP42">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ42">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR42">
         <v>1.36</v>
@@ -10007,7 +10019,7 @@
         <v>84</v>
       </c>
       <c r="P43" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10085,10 +10097,10 @@
         <v>0.25</v>
       </c>
       <c r="AP43">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ43">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
         <v>1.64</v>
@@ -10213,7 +10225,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10497,7 +10509,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ45">
         <v>1.06</v>
@@ -10625,7 +10637,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10706,7 +10718,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ46">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>2</v>
@@ -10831,7 +10843,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10909,7 +10921,7 @@
         <v>2.25</v>
       </c>
       <c r="AP47">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ47">
         <v>1.11</v>
@@ -11243,7 +11255,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -11527,10 +11539,10 @@
         <v>0.25</v>
       </c>
       <c r="AP50">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR50">
         <v>1.24</v>
@@ -11655,7 +11667,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11861,7 +11873,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -11939,10 +11951,10 @@
         <v>1.4</v>
       </c>
       <c r="AP52">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ52">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR52">
         <v>1.69</v>
@@ -12148,7 +12160,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ53">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR53">
         <v>1.54</v>
@@ -12273,7 +12285,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12351,7 +12363,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ54">
         <v>1.89</v>
@@ -12479,7 +12491,7 @@
         <v>105</v>
       </c>
       <c r="P55" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12557,10 +12569,10 @@
         <v>1.4</v>
       </c>
       <c r="AP55">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ55">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>1.41</v>
@@ -13175,7 +13187,7 @@
         <v>0.8</v>
       </c>
       <c r="AP58">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
         <v>0.9399999999999999</v>
@@ -13303,7 +13315,7 @@
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13590,7 +13602,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ60">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR60">
         <v>1.75</v>
@@ -13715,7 +13727,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13793,7 +13805,7 @@
         <v>1.8</v>
       </c>
       <c r="AP61">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ61">
         <v>1.11</v>
@@ -13921,7 +13933,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q62">
         <v>2.5</v>
@@ -13999,10 +14011,10 @@
         <v>0.67</v>
       </c>
       <c r="AP62">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ62">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR62">
         <v>1.61</v>
@@ -14205,10 +14217,10 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ63">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>1.59</v>
@@ -14333,7 +14345,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q64">
         <v>2.4</v>
@@ -14411,10 +14423,10 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ64">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR64">
         <v>1.41</v>
@@ -14745,7 +14757,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14951,7 +14963,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15029,7 +15041,7 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ67">
         <v>0.9399999999999999</v>
@@ -15157,7 +15169,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15363,7 +15375,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15569,7 +15581,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15647,10 +15659,10 @@
         <v>1.67</v>
       </c>
       <c r="AP70">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ70">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR70">
         <v>1.92</v>
@@ -15775,7 +15787,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15981,7 +15993,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -16062,7 +16074,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ72">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>1.68</v>
@@ -16187,7 +16199,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q73">
         <v>3.4</v>
@@ -16265,7 +16277,7 @@
         <v>1.71</v>
       </c>
       <c r="AP73">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ73">
         <v>1.67</v>
@@ -16393,7 +16405,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16471,10 +16483,10 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ74">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR74">
         <v>1.53</v>
@@ -16599,7 +16611,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16677,7 +16689,7 @@
         <v>1.29</v>
       </c>
       <c r="AP75">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ75">
         <v>1.06</v>
@@ -16805,7 +16817,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q76">
         <v>2.5</v>
@@ -17011,7 +17023,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17089,7 +17101,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ77">
         <v>1.89</v>
@@ -17217,7 +17229,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17504,7 +17516,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ79">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR79">
         <v>1.71</v>
@@ -17710,7 +17722,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ80">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR80">
         <v>1.62</v>
@@ -18041,7 +18053,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18119,10 +18131,10 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ82">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR82">
         <v>1.78</v>
@@ -18531,7 +18543,7 @@
         <v>0.86</v>
       </c>
       <c r="AP84">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ84">
         <v>1.56</v>
@@ -18659,7 +18671,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q85">
         <v>2.63</v>
@@ -18740,7 +18752,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ85">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR85">
         <v>1.36</v>
@@ -18943,7 +18955,7 @@
         <v>0.63</v>
       </c>
       <c r="AP86">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ86">
         <v>0.9399999999999999</v>
@@ -19071,7 +19083,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q87">
         <v>3.1</v>
@@ -19149,7 +19161,7 @@
         <v>1.88</v>
       </c>
       <c r="AP87">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ87">
         <v>1.67</v>
@@ -19277,7 +19289,7 @@
         <v>105</v>
       </c>
       <c r="P88" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q88">
         <v>3.1</v>
@@ -19355,7 +19367,7 @@
         <v>1.88</v>
       </c>
       <c r="AP88">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ88">
         <v>1.89</v>
@@ -19483,7 +19495,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q89">
         <v>3.2</v>
@@ -19564,7 +19576,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ89">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR89">
         <v>1.97</v>
@@ -19689,7 +19701,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q90">
         <v>2.6</v>
@@ -19770,7 +19782,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ90">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>1.61</v>
@@ -19895,7 +19907,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19973,7 +19985,7 @@
         <v>0.75</v>
       </c>
       <c r="AP91">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ91">
         <v>1.56</v>
@@ -20101,7 +20113,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20307,7 +20319,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20388,7 +20400,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ93">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR93">
         <v>1.57</v>
@@ -20513,7 +20525,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20591,10 +20603,10 @@
         <v>0.89</v>
       </c>
       <c r="AP94">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ94">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR94">
         <v>1.69</v>
@@ -20925,7 +20937,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q96">
         <v>3.75</v>
@@ -21003,7 +21015,7 @@
         <v>1.78</v>
       </c>
       <c r="AP96">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ96">
         <v>1.67</v>
@@ -21209,10 +21221,10 @@
         <v>1.11</v>
       </c>
       <c r="AP97">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ97">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR97">
         <v>1.69</v>
@@ -21749,7 +21761,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -21827,10 +21839,10 @@
         <v>1.33</v>
       </c>
       <c r="AP100">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ100">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR100">
         <v>1.58</v>
@@ -22033,7 +22045,7 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ101">
         <v>1.56</v>
@@ -22161,7 +22173,7 @@
         <v>84</v>
       </c>
       <c r="P102" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q102">
         <v>2.97</v>
@@ -22367,7 +22379,7 @@
         <v>155</v>
       </c>
       <c r="P103" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q103">
         <v>2.36</v>
@@ -22573,7 +22585,7 @@
         <v>156</v>
       </c>
       <c r="P104" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q104">
         <v>2.99</v>
@@ -22651,7 +22663,7 @@
         <v>2.1</v>
       </c>
       <c r="AP104">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ104">
         <v>1.89</v>
@@ -22860,7 +22872,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ105">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR105">
         <v>1.9</v>
@@ -23063,10 +23075,10 @@
         <v>1.2</v>
       </c>
       <c r="AP106">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ106">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR106">
         <v>1.72</v>
@@ -23269,10 +23281,10 @@
         <v>0.8</v>
       </c>
       <c r="AP107">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ107">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR107">
         <v>1.57</v>
@@ -23475,10 +23487,10 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ108">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR108">
         <v>1.58</v>
@@ -23681,7 +23693,7 @@
         <v>1.9</v>
       </c>
       <c r="AP109">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ109">
         <v>1.67</v>
@@ -23809,7 +23821,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -24015,7 +24027,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q111">
         <v>2.32</v>
@@ -24427,7 +24439,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q113">
         <v>3.2</v>
@@ -24505,7 +24517,7 @@
         <v>1.09</v>
       </c>
       <c r="AP113">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ113">
         <v>1.06</v>
@@ -24714,7 +24726,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ114">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR114">
         <v>1.42</v>
@@ -25045,7 +25057,7 @@
         <v>163</v>
       </c>
       <c r="P116" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q116">
         <v>3.6</v>
@@ -25251,7 +25263,7 @@
         <v>164</v>
       </c>
       <c r="P117" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q117">
         <v>2.42</v>
@@ -25329,10 +25341,10 @@
         <v>1.09</v>
       </c>
       <c r="AP117">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ117">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR117">
         <v>1.73</v>
@@ -25457,7 +25469,7 @@
         <v>165</v>
       </c>
       <c r="P118" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q118">
         <v>1.82</v>
@@ -25535,7 +25547,7 @@
         <v>0.82</v>
       </c>
       <c r="AP118">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ118">
         <v>0.9399999999999999</v>
@@ -25741,7 +25753,7 @@
         <v>1.27</v>
       </c>
       <c r="AP119">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ119">
         <v>1.11</v>
@@ -25869,7 +25881,7 @@
         <v>167</v>
       </c>
       <c r="P120" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q120">
         <v>2.9</v>
@@ -25947,10 +25959,10 @@
         <v>1.09</v>
       </c>
       <c r="AP120">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ120">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR120">
         <v>1.5</v>
@@ -26075,7 +26087,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26156,7 +26168,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ121">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR121">
         <v>1.63</v>
@@ -26281,7 +26293,7 @@
         <v>84</v>
       </c>
       <c r="P122" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q122">
         <v>4.14</v>
@@ -26362,7 +26374,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ122">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR122">
         <v>1.65</v>
@@ -26565,10 +26577,10 @@
         <v>0.75</v>
       </c>
       <c r="AP123">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ123">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR123">
         <v>1.49</v>
@@ -26771,7 +26783,7 @@
         <v>1.25</v>
       </c>
       <c r="AP124">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ124">
         <v>1.06</v>
@@ -26899,7 +26911,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q125">
         <v>2.88</v>
@@ -26980,7 +26992,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ125">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR125">
         <v>1.44</v>
@@ -27105,7 +27117,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q126">
         <v>2.26</v>
@@ -27183,7 +27195,7 @@
         <v>1.25</v>
       </c>
       <c r="AP126">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ126">
         <v>1.56</v>
@@ -27517,7 +27529,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q128">
         <v>2.05</v>
@@ -27595,7 +27607,7 @@
         <v>1.17</v>
       </c>
       <c r="AP128">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ128">
         <v>1.11</v>
@@ -27801,7 +27813,7 @@
         <v>0.83</v>
       </c>
       <c r="AP129">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ129">
         <v>0.9399999999999999</v>
@@ -27929,7 +27941,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28010,7 +28022,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ130">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR130">
         <v>1.86</v>
@@ -28135,7 +28147,7 @@
         <v>173</v>
       </c>
       <c r="P131" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q131">
         <v>3.4</v>
@@ -28422,7 +28434,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ132">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR132">
         <v>1.6</v>
@@ -28547,7 +28559,7 @@
         <v>135</v>
       </c>
       <c r="P133" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28625,10 +28637,10 @@
         <v>1.15</v>
       </c>
       <c r="AP133">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ133">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR133">
         <v>1.51</v>
@@ -28959,7 +28971,7 @@
         <v>175</v>
       </c>
       <c r="P135" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -29037,10 +29049,10 @@
         <v>1.15</v>
       </c>
       <c r="AP135">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ135">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR135">
         <v>1.53</v>
@@ -29165,7 +29177,7 @@
         <v>176</v>
       </c>
       <c r="P136" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q136">
         <v>1.95</v>
@@ -29243,7 +29255,7 @@
         <v>1.15</v>
       </c>
       <c r="AP136">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ136">
         <v>1.06</v>
@@ -29371,7 +29383,7 @@
         <v>177</v>
       </c>
       <c r="P137" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29577,7 +29589,7 @@
         <v>178</v>
       </c>
       <c r="P138" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -29655,7 +29667,7 @@
         <v>1.31</v>
       </c>
       <c r="AP138">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ138">
         <v>1.11</v>
@@ -30067,7 +30079,7 @@
         <v>1.77</v>
       </c>
       <c r="AP140">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ140">
         <v>1.67</v>
@@ -30195,7 +30207,7 @@
         <v>84</v>
       </c>
       <c r="P141" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q141">
         <v>2.63</v>
@@ -30276,7 +30288,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ141">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR141">
         <v>1.57</v>
@@ -30401,7 +30413,7 @@
         <v>84</v>
       </c>
       <c r="P142" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q142">
         <v>3.4</v>
@@ -30482,7 +30494,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ142">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR142">
         <v>1.59</v>
@@ -30685,7 +30697,7 @@
         <v>1.21</v>
       </c>
       <c r="AP143">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ143">
         <v>1.11</v>
@@ -30813,7 +30825,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -30891,7 +30903,7 @@
         <v>1.29</v>
       </c>
       <c r="AP144">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ144">
         <v>1.56</v>
@@ -31100,7 +31112,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ145">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR145">
         <v>1.59</v>
@@ -31431,7 +31443,7 @@
         <v>185</v>
       </c>
       <c r="P147" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31509,7 +31521,7 @@
         <v>1.27</v>
       </c>
       <c r="AP147">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ147">
         <v>1.56</v>
@@ -31637,7 +31649,7 @@
         <v>84</v>
       </c>
       <c r="P148" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q148">
         <v>4.4</v>
@@ -31843,7 +31855,7 @@
         <v>186</v>
       </c>
       <c r="P149" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q149">
         <v>4.17</v>
@@ -31921,7 +31933,7 @@
         <v>2.07</v>
       </c>
       <c r="AP149">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ149">
         <v>1.89</v>
@@ -32130,7 +32142,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ150">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR150">
         <v>1.49</v>
@@ -32255,7 +32267,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -32336,7 +32348,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ151">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR151">
         <v>1.55</v>
@@ -32461,7 +32473,7 @@
         <v>189</v>
       </c>
       <c r="P152" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q152">
         <v>2.5</v>
@@ -32745,7 +32757,7 @@
         <v>1</v>
       </c>
       <c r="AP153">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ153">
         <v>1.06</v>
@@ -32873,7 +32885,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q154">
         <v>2</v>
@@ -32951,10 +32963,10 @@
         <v>0.87</v>
       </c>
       <c r="AP154">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ154">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR154">
         <v>1.54</v>
@@ -33079,7 +33091,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q155">
         <v>2.06</v>
@@ -33363,10 +33375,10 @@
         <v>1.4</v>
       </c>
       <c r="AP156">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ156">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR156">
         <v>1.72</v>
@@ -33569,7 +33581,7 @@
         <v>2</v>
       </c>
       <c r="AP157">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ157">
         <v>1.89</v>
@@ -33697,7 +33709,7 @@
         <v>84</v>
       </c>
       <c r="P158" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q158">
         <v>4.2</v>
@@ -33775,7 +33787,7 @@
         <v>1.73</v>
       </c>
       <c r="AP158">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ158">
         <v>1.67</v>
@@ -33903,7 +33915,7 @@
         <v>84</v>
       </c>
       <c r="P159" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q159">
         <v>2.25</v>
@@ -33981,7 +33993,7 @@
         <v>0.67</v>
       </c>
       <c r="AP159">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ159">
         <v>0.9399999999999999</v>
@@ -34190,7 +34202,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ160">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR160">
         <v>1.83</v>
@@ -34315,7 +34327,7 @@
         <v>194</v>
       </c>
       <c r="P161" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q161">
         <v>2.9</v>
@@ -34396,7 +34408,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ161">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR161">
         <v>1.52</v>
@@ -34602,7 +34614,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ162">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR162">
         <v>1.57</v>
@@ -34805,7 +34817,7 @@
         <v>1.94</v>
       </c>
       <c r="AP163">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ163">
         <v>1.89</v>
@@ -34933,7 +34945,7 @@
         <v>197</v>
       </c>
       <c r="P164" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q164">
         <v>2.62</v>
@@ -35139,7 +35151,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q165">
         <v>2.23</v>
@@ -35345,7 +35357,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>301</v>
+        <v>208</v>
       </c>
       <c r="Q166">
         <v>2.2</v>
@@ -35551,7 +35563,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q167">
         <v>3.54</v>
@@ -35629,10 +35641,10 @@
         <v>1.06</v>
       </c>
       <c r="AP167">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ167">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR167">
         <v>1.58</v>
@@ -35757,7 +35769,7 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q168">
         <v>3.05</v>
@@ -35835,7 +35847,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP168">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ168">
         <v>0.9399999999999999</v>
@@ -36041,10 +36053,10 @@
         <v>0.88</v>
       </c>
       <c r="AP169">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ169">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR169">
         <v>1.7</v>
@@ -36169,7 +36181,7 @@
         <v>202</v>
       </c>
       <c r="P170" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q170">
         <v>1.85</v>
@@ -36247,10 +36259,10 @@
         <v>1.31</v>
       </c>
       <c r="AP170">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ170">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR170">
         <v>1.55</v>
@@ -36375,7 +36387,7 @@
         <v>203</v>
       </c>
       <c r="P171" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q171">
         <v>3.6</v>
@@ -36787,7 +36799,7 @@
         <v>148</v>
       </c>
       <c r="P173" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q173">
         <v>2.72</v>
@@ -36993,7 +37005,7 @@
         <v>84</v>
       </c>
       <c r="P174" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q174">
         <v>2.96</v>
@@ -37405,7 +37417,7 @@
         <v>205</v>
       </c>
       <c r="P176" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q176">
         <v>2.9</v>
@@ -37561,6 +37573,1036 @@
         <v>4.25</v>
       </c>
       <c r="BP176">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7776498</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45800.63541666666</v>
+      </c>
+      <c r="F177">
+        <v>36</v>
+      </c>
+      <c r="G177" t="s">
+        <v>71</v>
+      </c>
+      <c r="H177" t="s">
+        <v>73</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>3</v>
+      </c>
+      <c r="N177">
+        <v>4</v>
+      </c>
+      <c r="O177" t="s">
+        <v>193</v>
+      </c>
+      <c r="P177" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q177">
+        <v>3.53</v>
+      </c>
+      <c r="R177">
+        <v>2.2</v>
+      </c>
+      <c r="S177">
+        <v>2.68</v>
+      </c>
+      <c r="T177">
+        <v>1.3</v>
+      </c>
+      <c r="U177">
+        <v>3.2</v>
+      </c>
+      <c r="V177">
+        <v>2.41</v>
+      </c>
+      <c r="W177">
+        <v>1.5</v>
+      </c>
+      <c r="X177">
+        <v>5.3</v>
+      </c>
+      <c r="Y177">
+        <v>1.11</v>
+      </c>
+      <c r="Z177">
+        <v>2.9</v>
+      </c>
+      <c r="AA177">
+        <v>3.3</v>
+      </c>
+      <c r="AB177">
+        <v>2.16</v>
+      </c>
+      <c r="AC177">
+        <v>1.01</v>
+      </c>
+      <c r="AD177">
+        <v>10.5</v>
+      </c>
+      <c r="AE177">
+        <v>1.15</v>
+      </c>
+      <c r="AF177">
+        <v>4.33</v>
+      </c>
+      <c r="AG177">
+        <v>1.62</v>
+      </c>
+      <c r="AH177">
+        <v>2.15</v>
+      </c>
+      <c r="AI177">
+        <v>1.57</v>
+      </c>
+      <c r="AJ177">
+        <v>2.3</v>
+      </c>
+      <c r="AK177">
+        <v>1.67</v>
+      </c>
+      <c r="AL177">
+        <v>1.25</v>
+      </c>
+      <c r="AM177">
+        <v>1.32</v>
+      </c>
+      <c r="AN177">
+        <v>0.47</v>
+      </c>
+      <c r="AO177">
+        <v>0.88</v>
+      </c>
+      <c r="AP177">
+        <v>0.44</v>
+      </c>
+      <c r="AQ177">
+        <v>1</v>
+      </c>
+      <c r="AR177">
+        <v>1.55</v>
+      </c>
+      <c r="AS177">
+        <v>1.48</v>
+      </c>
+      <c r="AT177">
+        <v>3.03</v>
+      </c>
+      <c r="AU177">
+        <v>5</v>
+      </c>
+      <c r="AV177">
+        <v>7</v>
+      </c>
+      <c r="AW177">
+        <v>3</v>
+      </c>
+      <c r="AX177">
+        <v>16</v>
+      </c>
+      <c r="AY177">
+        <v>8</v>
+      </c>
+      <c r="AZ177">
+        <v>23</v>
+      </c>
+      <c r="BA177">
+        <v>2</v>
+      </c>
+      <c r="BB177">
+        <v>5</v>
+      </c>
+      <c r="BC177">
+        <v>7</v>
+      </c>
+      <c r="BD177">
+        <v>2.38</v>
+      </c>
+      <c r="BE177">
+        <v>6.3</v>
+      </c>
+      <c r="BF177">
+        <v>1.86</v>
+      </c>
+      <c r="BG177">
+        <v>1.41</v>
+      </c>
+      <c r="BH177">
+        <v>2.7</v>
+      </c>
+      <c r="BI177">
+        <v>1.7</v>
+      </c>
+      <c r="BJ177">
+        <v>2.05</v>
+      </c>
+      <c r="BK177">
+        <v>2.1</v>
+      </c>
+      <c r="BL177">
+        <v>1.65</v>
+      </c>
+      <c r="BM177">
+        <v>2.72</v>
+      </c>
+      <c r="BN177">
+        <v>1.4</v>
+      </c>
+      <c r="BO177">
+        <v>3.65</v>
+      </c>
+      <c r="BP177">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7776499</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45800.63541666666</v>
+      </c>
+      <c r="F178">
+        <v>36</v>
+      </c>
+      <c r="G178" t="s">
+        <v>75</v>
+      </c>
+      <c r="H178" t="s">
+        <v>74</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>2</v>
+      </c>
+      <c r="O178" t="s">
+        <v>206</v>
+      </c>
+      <c r="P178" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q178">
+        <v>2.03</v>
+      </c>
+      <c r="R178">
+        <v>2.41</v>
+      </c>
+      <c r="S178">
+        <v>4.42</v>
+      </c>
+      <c r="T178">
+        <v>1.2</v>
+      </c>
+      <c r="U178">
+        <v>3.9</v>
+      </c>
+      <c r="V178">
+        <v>2.06</v>
+      </c>
+      <c r="W178">
+        <v>1.8</v>
+      </c>
+      <c r="X178">
+        <v>3.8</v>
+      </c>
+      <c r="Y178">
+        <v>1.18</v>
+      </c>
+      <c r="Z178">
+        <v>1.57</v>
+      </c>
+      <c r="AA178">
+        <v>4</v>
+      </c>
+      <c r="AB178">
+        <v>3.8</v>
+      </c>
+      <c r="AC178">
+        <v>1.01</v>
+      </c>
+      <c r="AD178">
+        <v>21</v>
+      </c>
+      <c r="AE178">
+        <v>1.12</v>
+      </c>
+      <c r="AF178">
+        <v>5.75</v>
+      </c>
+      <c r="AG178">
+        <v>1.38</v>
+      </c>
+      <c r="AH178">
+        <v>2.9</v>
+      </c>
+      <c r="AI178">
+        <v>1.4</v>
+      </c>
+      <c r="AJ178">
+        <v>2.7</v>
+      </c>
+      <c r="AK178">
+        <v>1.22</v>
+      </c>
+      <c r="AL178">
+        <v>1.18</v>
+      </c>
+      <c r="AM178">
+        <v>2.15</v>
+      </c>
+      <c r="AN178">
+        <v>1.29</v>
+      </c>
+      <c r="AO178">
+        <v>0.82</v>
+      </c>
+      <c r="AP178">
+        <v>1.39</v>
+      </c>
+      <c r="AQ178">
+        <v>0.78</v>
+      </c>
+      <c r="AR178">
+        <v>1.65</v>
+      </c>
+      <c r="AS178">
+        <v>1.31</v>
+      </c>
+      <c r="AT178">
+        <v>2.96</v>
+      </c>
+      <c r="AU178">
+        <v>7</v>
+      </c>
+      <c r="AV178">
+        <v>4</v>
+      </c>
+      <c r="AW178">
+        <v>8</v>
+      </c>
+      <c r="AX178">
+        <v>7</v>
+      </c>
+      <c r="AY178">
+        <v>19</v>
+      </c>
+      <c r="AZ178">
+        <v>12</v>
+      </c>
+      <c r="BA178">
+        <v>4</v>
+      </c>
+      <c r="BB178">
+        <v>6</v>
+      </c>
+      <c r="BC178">
+        <v>10</v>
+      </c>
+      <c r="BD178">
+        <v>1.57</v>
+      </c>
+      <c r="BE178">
+        <v>7.9</v>
+      </c>
+      <c r="BF178">
+        <v>3</v>
+      </c>
+      <c r="BG178">
+        <v>1.38</v>
+      </c>
+      <c r="BH178">
+        <v>2.59</v>
+      </c>
+      <c r="BI178">
+        <v>1.66</v>
+      </c>
+      <c r="BJ178">
+        <v>2.15</v>
+      </c>
+      <c r="BK178">
+        <v>2.4</v>
+      </c>
+      <c r="BL178">
+        <v>1.7</v>
+      </c>
+      <c r="BM178">
+        <v>2.62</v>
+      </c>
+      <c r="BN178">
+        <v>1.3</v>
+      </c>
+      <c r="BO178">
+        <v>3.8</v>
+      </c>
+      <c r="BP178">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7776496</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45800.63541666666</v>
+      </c>
+      <c r="F179">
+        <v>36</v>
+      </c>
+      <c r="G179" t="s">
+        <v>72</v>
+      </c>
+      <c r="H179" t="s">
+        <v>76</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>2</v>
+      </c>
+      <c r="O179" t="s">
+        <v>122</v>
+      </c>
+      <c r="P179" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q179">
+        <v>1.84</v>
+      </c>
+      <c r="R179">
+        <v>2.88</v>
+      </c>
+      <c r="S179">
+        <v>4.75</v>
+      </c>
+      <c r="T179">
+        <v>1.17</v>
+      </c>
+      <c r="U179">
+        <v>4.3</v>
+      </c>
+      <c r="V179">
+        <v>1.9</v>
+      </c>
+      <c r="W179">
+        <v>1.96</v>
+      </c>
+      <c r="X179">
+        <v>3.6</v>
+      </c>
+      <c r="Y179">
+        <v>1.25</v>
+      </c>
+      <c r="Z179">
+        <v>1.32</v>
+      </c>
+      <c r="AA179">
+        <v>5.2</v>
+      </c>
+      <c r="AB179">
+        <v>6.63</v>
+      </c>
+      <c r="AC179">
+        <v>1.01</v>
+      </c>
+      <c r="AD179">
+        <v>19</v>
+      </c>
+      <c r="AE179">
+        <v>1.05</v>
+      </c>
+      <c r="AF179">
+        <v>6.65</v>
+      </c>
+      <c r="AG179">
+        <v>1.28</v>
+      </c>
+      <c r="AH179">
+        <v>3.2</v>
+      </c>
+      <c r="AI179">
+        <v>1.5</v>
+      </c>
+      <c r="AJ179">
+        <v>2.45</v>
+      </c>
+      <c r="AK179">
+        <v>1.18</v>
+      </c>
+      <c r="AL179">
+        <v>1.15</v>
+      </c>
+      <c r="AM179">
+        <v>2.8</v>
+      </c>
+      <c r="AN179">
+        <v>1.53</v>
+      </c>
+      <c r="AO179">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP179">
+        <v>1.5</v>
+      </c>
+      <c r="AQ179">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR179">
+        <v>1.53</v>
+      </c>
+      <c r="AS179">
+        <v>1.28</v>
+      </c>
+      <c r="AT179">
+        <v>2.81</v>
+      </c>
+      <c r="AU179">
+        <v>7</v>
+      </c>
+      <c r="AV179">
+        <v>6</v>
+      </c>
+      <c r="AW179">
+        <v>15</v>
+      </c>
+      <c r="AX179">
+        <v>8</v>
+      </c>
+      <c r="AY179">
+        <v>22</v>
+      </c>
+      <c r="AZ179">
+        <v>14</v>
+      </c>
+      <c r="BA179">
+        <v>8</v>
+      </c>
+      <c r="BB179">
+        <v>1</v>
+      </c>
+      <c r="BC179">
+        <v>9</v>
+      </c>
+      <c r="BD179">
+        <v>1.41</v>
+      </c>
+      <c r="BE179">
+        <v>9.1</v>
+      </c>
+      <c r="BF179">
+        <v>3.74</v>
+      </c>
+      <c r="BG179">
+        <v>1.28</v>
+      </c>
+      <c r="BH179">
+        <v>3.2</v>
+      </c>
+      <c r="BI179">
+        <v>1.52</v>
+      </c>
+      <c r="BJ179">
+        <v>2.35</v>
+      </c>
+      <c r="BK179">
+        <v>1.83</v>
+      </c>
+      <c r="BL179">
+        <v>1.85</v>
+      </c>
+      <c r="BM179">
+        <v>2.3</v>
+      </c>
+      <c r="BN179">
+        <v>1.55</v>
+      </c>
+      <c r="BO179">
+        <v>3.07</v>
+      </c>
+      <c r="BP179">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7776497</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45800.63541666666</v>
+      </c>
+      <c r="F180">
+        <v>36</v>
+      </c>
+      <c r="G180" t="s">
+        <v>70</v>
+      </c>
+      <c r="H180" t="s">
+        <v>78</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>2</v>
+      </c>
+      <c r="M180">
+        <v>3</v>
+      </c>
+      <c r="N180">
+        <v>5</v>
+      </c>
+      <c r="O180" t="s">
+        <v>207</v>
+      </c>
+      <c r="P180" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q180">
+        <v>2.71</v>
+      </c>
+      <c r="R180">
+        <v>2.39</v>
+      </c>
+      <c r="S180">
+        <v>2.92</v>
+      </c>
+      <c r="T180">
+        <v>1.22</v>
+      </c>
+      <c r="U180">
+        <v>3.7</v>
+      </c>
+      <c r="V180">
+        <v>2.05</v>
+      </c>
+      <c r="W180">
+        <v>1.67</v>
+      </c>
+      <c r="X180">
+        <v>4.33</v>
+      </c>
+      <c r="Y180">
+        <v>1.18</v>
+      </c>
+      <c r="Z180">
+        <v>2.36</v>
+      </c>
+      <c r="AA180">
+        <v>3.7</v>
+      </c>
+      <c r="AB180">
+        <v>2.4</v>
+      </c>
+      <c r="AC180">
+        <v>1.02</v>
+      </c>
+      <c r="AD180">
+        <v>15</v>
+      </c>
+      <c r="AE180">
+        <v>1.13</v>
+      </c>
+      <c r="AF180">
+        <v>6</v>
+      </c>
+      <c r="AG180">
+        <v>1.4</v>
+      </c>
+      <c r="AH180">
+        <v>2.7</v>
+      </c>
+      <c r="AI180">
+        <v>1.4</v>
+      </c>
+      <c r="AJ180">
+        <v>2.88</v>
+      </c>
+      <c r="AK180">
+        <v>1.25</v>
+      </c>
+      <c r="AL180">
+        <v>1.24</v>
+      </c>
+      <c r="AM180">
+        <v>1.53</v>
+      </c>
+      <c r="AN180">
+        <v>1.29</v>
+      </c>
+      <c r="AO180">
+        <v>1.41</v>
+      </c>
+      <c r="AP180">
+        <v>1.22</v>
+      </c>
+      <c r="AQ180">
+        <v>1.5</v>
+      </c>
+      <c r="AR180">
+        <v>1.56</v>
+      </c>
+      <c r="AS180">
+        <v>1.45</v>
+      </c>
+      <c r="AT180">
+        <v>3.01</v>
+      </c>
+      <c r="AU180">
+        <v>6</v>
+      </c>
+      <c r="AV180">
+        <v>7</v>
+      </c>
+      <c r="AW180">
+        <v>7</v>
+      </c>
+      <c r="AX180">
+        <v>7</v>
+      </c>
+      <c r="AY180">
+        <v>13</v>
+      </c>
+      <c r="AZ180">
+        <v>14</v>
+      </c>
+      <c r="BA180">
+        <v>5</v>
+      </c>
+      <c r="BB180">
+        <v>1</v>
+      </c>
+      <c r="BC180">
+        <v>6</v>
+      </c>
+      <c r="BD180">
+        <v>1.92</v>
+      </c>
+      <c r="BE180">
+        <v>7.3</v>
+      </c>
+      <c r="BF180">
+        <v>2.32</v>
+      </c>
+      <c r="BG180">
+        <v>1.57</v>
+      </c>
+      <c r="BH180">
+        <v>2.3</v>
+      </c>
+      <c r="BI180">
+        <v>1.96</v>
+      </c>
+      <c r="BJ180">
+        <v>1.79</v>
+      </c>
+      <c r="BK180">
+        <v>2.38</v>
+      </c>
+      <c r="BL180">
+        <v>1.53</v>
+      </c>
+      <c r="BM180">
+        <v>3.35</v>
+      </c>
+      <c r="BN180">
+        <v>1.26</v>
+      </c>
+      <c r="BO180">
+        <v>4.6</v>
+      </c>
+      <c r="BP180">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7776500</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45800.63541666666</v>
+      </c>
+      <c r="F181">
+        <v>36</v>
+      </c>
+      <c r="G181" t="s">
+        <v>79</v>
+      </c>
+      <c r="H181" t="s">
+        <v>77</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>1</v>
+      </c>
+      <c r="O181" t="s">
+        <v>208</v>
+      </c>
+      <c r="P181" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q181">
+        <v>1.93</v>
+      </c>
+      <c r="R181">
+        <v>2.6</v>
+      </c>
+      <c r="S181">
+        <v>4.33</v>
+      </c>
+      <c r="T181">
+        <v>1.22</v>
+      </c>
+      <c r="U181">
+        <v>3.9</v>
+      </c>
+      <c r="V181">
+        <v>2.05</v>
+      </c>
+      <c r="W181">
+        <v>1.67</v>
+      </c>
+      <c r="X181">
+        <v>4.4</v>
+      </c>
+      <c r="Y181">
+        <v>1.18</v>
+      </c>
+      <c r="Z181">
+        <v>1.65</v>
+      </c>
+      <c r="AA181">
+        <v>4.09</v>
+      </c>
+      <c r="AB181">
+        <v>4.25</v>
+      </c>
+      <c r="AC181">
+        <v>1.02</v>
+      </c>
+      <c r="AD181">
+        <v>19</v>
+      </c>
+      <c r="AE181">
+        <v>1.13</v>
+      </c>
+      <c r="AF181">
+        <v>5.75</v>
+      </c>
+      <c r="AG181">
+        <v>1.44</v>
+      </c>
+      <c r="AH181">
+        <v>2.63</v>
+      </c>
+      <c r="AI181">
+        <v>1.44</v>
+      </c>
+      <c r="AJ181">
+        <v>2.5</v>
+      </c>
+      <c r="AK181">
+        <v>1.22</v>
+      </c>
+      <c r="AL181">
+        <v>1.21</v>
+      </c>
+      <c r="AM181">
+        <v>2.05</v>
+      </c>
+      <c r="AN181">
+        <v>2.29</v>
+      </c>
+      <c r="AO181">
+        <v>1.18</v>
+      </c>
+      <c r="AP181">
+        <v>2.33</v>
+      </c>
+      <c r="AQ181">
+        <v>1.11</v>
+      </c>
+      <c r="AR181">
+        <v>1.76</v>
+      </c>
+      <c r="AS181">
+        <v>1.59</v>
+      </c>
+      <c r="AT181">
+        <v>3.35</v>
+      </c>
+      <c r="AU181">
+        <v>5</v>
+      </c>
+      <c r="AV181">
+        <v>5</v>
+      </c>
+      <c r="AW181">
+        <v>4</v>
+      </c>
+      <c r="AX181">
+        <v>12</v>
+      </c>
+      <c r="AY181">
+        <v>9</v>
+      </c>
+      <c r="AZ181">
+        <v>17</v>
+      </c>
+      <c r="BA181">
+        <v>5</v>
+      </c>
+      <c r="BB181">
+        <v>6</v>
+      </c>
+      <c r="BC181">
+        <v>11</v>
+      </c>
+      <c r="BD181">
+        <v>1.52</v>
+      </c>
+      <c r="BE181">
+        <v>7.6</v>
+      </c>
+      <c r="BF181">
+        <v>3.1</v>
+      </c>
+      <c r="BG181">
+        <v>1.53</v>
+      </c>
+      <c r="BH181">
+        <v>2.4</v>
+      </c>
+      <c r="BI181">
+        <v>1.85</v>
+      </c>
+      <c r="BJ181">
+        <v>1.85</v>
+      </c>
+      <c r="BK181">
+        <v>2.38</v>
+      </c>
+      <c r="BL181">
+        <v>1.51</v>
+      </c>
+      <c r="BM181">
+        <v>3.22</v>
+      </c>
+      <c r="BN181">
+        <v>1.3</v>
+      </c>
+      <c r="BO181">
+        <v>4.35</v>
+      </c>
+      <c r="BP181">
         <v>1.16</v>
       </c>
     </row>
